--- a/db.xlsx
+++ b/db.xlsx
@@ -7169,7 +7169,7 @@
     <t>Mighty Bow 2</t>
   </si>
   <si>
-    <t>{'Bow Charge Plus ': '1'}</t>
+    <t>{'Bow Charge Plus': '1'}</t>
   </si>
   <si>
     <t>Mighty 2</t>
@@ -7217,7 +7217,7 @@
     <t>Mind's Eye 2</t>
   </si>
   <si>
-    <t>{'Mind Eye/Ballistic ': '1'}</t>
+    <t>{'Mind Eye/Ballistic': '1'}</t>
   </si>
   <si>
     <t>Mirewalker 1</t>
@@ -7544,7 +7544,7 @@
     <t>Sharp 2</t>
   </si>
   <si>
-    <t>{'Protective Polish ': '1'}</t>
+    <t>{'Protective Polish': '1'}</t>
   </si>
   <si>
     <t>Sheath 1</t>
@@ -7592,7 +7592,7 @@
     <t>Shield 2</t>
   </si>
   <si>
-    <t>{'Guard Up ': '1'}</t>
+    <t>{'Guard Up': '1'}</t>
   </si>
   <si>
     <t>Sleep 1</t>

--- a/db.xlsx
+++ b/db.xlsx
@@ -65,7 +65,7 @@
     <t>[3]</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Partbreaker': 1}</t>
+    <t>{'health boost': 2, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Bone Helm Beta +</t>
@@ -74,7 +74,7 @@
     <t>[4]</t>
   </si>
   <si>
-    <t>{'Health Boost': 1, 'Partbreaker': 1}</t>
+    <t>{'health boost': 1, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Alloy Helm Alpha +</t>
@@ -86,7 +86,7 @@
     <t>[2]</t>
   </si>
   <si>
-    <t>{'Windproof': 2, 'Defense Boost': 1}</t>
+    <t>{'windproof': 2, 'defense boost': 1}</t>
   </si>
   <si>
     <t>Alloy Helm Beta +</t>
@@ -95,7 +95,7 @@
     <t>[4, 1]</t>
   </si>
   <si>
-    <t>{'Windproof': 1}</t>
+    <t>{'windproof': 1}</t>
   </si>
   <si>
     <t>Direwolf Headgear</t>
@@ -104,7 +104,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>{'Survival Expert': 1}</t>
+    <t>{'survival expert': 1}</t>
   </si>
   <si>
     <t>Vespoid Helm Alpha +</t>
@@ -113,25 +113,25 @@
     <t>1</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 1, 'Paralysis Attack': 1}</t>
+    <t>{'quick sheath': 1, 'paralysis attack': 1}</t>
   </si>
   <si>
     <t>Vespoid Helm Beta +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 1}</t>
+    <t>{'quick sheath': 1}</t>
   </si>
   <si>
     <t>Hornetaur Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1, 'Dragon Attack': 2}</t>
+    <t>{'weakness exploit': 1, 'dragon attack': 2}</t>
   </si>
   <si>
     <t>Hornetaur Helm Beta +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1, 'Dragon Attack': 1}</t>
+    <t>{'weakness exploit': 1, 'dragon attack': 1}</t>
   </si>
   <si>
     <t>Shamos Goggles Alpha +</t>
@@ -143,7 +143,7 @@
     <t>[2, 1]</t>
   </si>
   <si>
-    <t>{'Detector': 1, 'Geologist': 2}</t>
+    <t>{'detector': 1, 'geologist': 2}</t>
   </si>
   <si>
     <t>Shamos Goggles Beta +</t>
@@ -152,7 +152,7 @@
     <t>[4, 2]</t>
   </si>
   <si>
-    <t>{'Detector': 1, 'Geologist': 1}</t>
+    <t>{'detector': 1, 'geologist': 1}</t>
   </si>
   <si>
     <t>Gastodon Horn Alpha +</t>
@@ -161,13 +161,13 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>{'Flinch Free': 2, 'Blast Resistance': 1}</t>
+    <t>{'flinch free': 2, 'blast resistance': 1}</t>
   </si>
   <si>
     <t>Gastodon Horn Beta +</t>
   </si>
   <si>
-    <t>{'Flinch Free': 1, 'Blast Resistance': 1}</t>
+    <t>{'flinch free': 1, 'blast resistance': 1}</t>
   </si>
   <si>
     <t>Wulg Scarf Alpha +</t>
@@ -176,13 +176,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>{'Ice Resistance': 2, 'Master Mounter': 1}</t>
+    <t>{'ice resistance': 2, 'master mounter': 1}</t>
   </si>
   <si>
     <t>Wulg Scarf Beta +</t>
   </si>
   <si>
-    <t>{'Ice Resistance': 1, 'Master Mounter': 1}</t>
+    <t>{'ice resistance': 1, 'master mounter': 1}</t>
   </si>
   <si>
     <t>Jagras Helm Alpha +</t>
@@ -191,61 +191,61 @@
     <t>-1</t>
   </si>
   <si>
-    <t>{'Speed Eating': 2, 'Attack Boost': 2}</t>
+    <t>{'speed eating': 2, 'attack boost': 2}</t>
   </si>
   <si>
     <t>Jagras Helm Beta +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 1, 'Attack Boost': 1}</t>
+    <t>{'speed eating': 1, 'attack boost': 1}</t>
   </si>
   <si>
     <t>Tzitzi Headgear Alpha +</t>
   </si>
   <si>
-    <t>{'Free Elm/Ammo Up': 1, 'Stun Resistance': 1}</t>
+    <t>{'free elm/ammo up': 1, 'stun resistance': 1}</t>
   </si>
   <si>
     <t>Tzitzi Headgear Beta +</t>
   </si>
   <si>
-    <t>{'Free Elm/Ammo Up': 1}</t>
+    <t>{'free elm/ammo up': 1}</t>
   </si>
   <si>
     <t>Girros Headgear Alpha +</t>
   </si>
   <si>
-    <t>{'Horn Maestro': 2, 'Paralysis Resistance': 1}</t>
+    <t>{'horn maestro': 2, 'paralysis resistance': 1}</t>
   </si>
   <si>
     <t>Girros Headgear Beta +</t>
   </si>
   <si>
-    <t>{'Horn Maestro': 2}</t>
+    <t>{'horn maestro': 2}</t>
   </si>
   <si>
     <t>Dodogama Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Blast Resistance': 2, 'Bombardier': 1}</t>
+    <t>{'blast resistance': 2, 'bombardier': 1}</t>
   </si>
   <si>
     <t>Dodogama Helm Beta +</t>
   </si>
   <si>
-    <t>{'Blast Resistance': 2}</t>
+    <t>{'blast resistance': 2}</t>
   </si>
   <si>
     <t>Kulu Headpiece Alpha +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 2, 'Critical Boost': 1}</t>
+    <t>{'slinger capacity': 2, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Kulu Headpiece Beta +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 2}</t>
+    <t>{'slinger capacity': 2}</t>
   </si>
   <si>
     <t>Pukei Hat Alpha +</t>
@@ -254,7 +254,7 @@
     <t>[2, 2]</t>
   </si>
   <si>
-    <t>{'Survival Expert': 2, 'Poison Resistance': 1}</t>
+    <t>{'survival expert': 2, 'poison resistance': 1}</t>
   </si>
   <si>
     <t>Pukei Hat Beta +</t>
@@ -263,31 +263,31 @@
     <t>[4, 1, 1]</t>
   </si>
   <si>
-    <t>{'Survival Expert': 2}</t>
+    <t>{'survival expert': 2}</t>
   </si>
   <si>
     <t>Pukei Lagoon Hat Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 2, 'Item Prolonger': 1}</t>
+    <t>{'critical draw': 2, 'item prolonger': 1}</t>
   </si>
   <si>
     <t>Pukei Lagoon Hat Beta +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 1, 'Item Prolonger': 1}</t>
+    <t>{'critical draw': 1, 'item prolonger': 1}</t>
   </si>
   <si>
     <t>Barroth Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Guard': 2, 'Marathon Runner': 1}</t>
+    <t>{'guard': 2, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Barroth Helm Beta +</t>
   </si>
   <si>
-    <t>{'Guard': 2}</t>
+    <t>{'guard': 2}</t>
   </si>
   <si>
     <t>Jyura Helm Alpha +</t>
@@ -296,109 +296,109 @@
     <t>[1, 1]</t>
   </si>
   <si>
-    <t>{'Latent Power': 2, 'Focus': 1}</t>
+    <t>{'latent power': 2, 'focus': 1}</t>
   </si>
   <si>
     <t>Jyura Helm Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 1, 'Focus': 1}</t>
+    <t>{'latent power': 1, 'focus': 1}</t>
   </si>
   <si>
     <t>Beo Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Aquatic/Polar Mobility': 2, 'Earplugs': 1}</t>
+    <t>{'aquatic/polar mobility': 2, 'earplugs': 1}</t>
   </si>
   <si>
     <t>Beo Helm Beta +</t>
   </si>
   <si>
-    <t>{'Aquatic/Polar Mobility': 2}</t>
+    <t>{'aquatic/polar mobility': 2}</t>
   </si>
   <si>
     <t>Kadachi Hat Alpha +</t>
   </si>
   <si>
-    <t>{'Constitution': 2, 'Evade Extender': 1}</t>
+    <t>{'constitution': 2, 'evade extender': 1}</t>
   </si>
   <si>
     <t>Kadachi Hat Beta +</t>
   </si>
   <si>
-    <t>{'Constitution': 1, 'Evade Extender': 1}</t>
+    <t>{'constitution': 1, 'evade extender': 1}</t>
   </si>
   <si>
     <t>Viper Kadachi Hat Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 2, 'Paralysis Attack': 1}</t>
+    <t>{'evade extender': 2, 'paralysis attack': 1}</t>
   </si>
   <si>
     <t>Viper Kadachi Hat Beta +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 1, 'Paralysis Attack': 1}</t>
+    <t>{'evade extender': 1, 'paralysis attack': 1}</t>
   </si>
   <si>
     <t>High Metal Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Ice Resistance': 2, 'Earplugs': 2}</t>
+    <t>{'ice resistance': 2, 'earplugs': 2}</t>
   </si>
   <si>
     <t>High Metal Helm Beta +</t>
   </si>
   <si>
-    <t>{'Ice Resistance': 2, 'Earplugs': 1}</t>
+    <t>{'ice resistance': 2, 'earplugs': 1}</t>
   </si>
   <si>
     <t>Banbaro Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Resentment': 2, 'Mushroomancer': 1}</t>
+    <t>{'resentment': 2, 'mushroomancer': 1}</t>
   </si>
   <si>
     <t>Banbaro Helm Beta +</t>
   </si>
   <si>
-    <t>{'Resentment': 2}</t>
+    <t>{'resentment': 2}</t>
   </si>
   <si>
     <t>Anja Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Fire Attack': 2, 'Fire Resistance': 2}</t>
+    <t>{'fire attack': 2, 'fire resistance': 2}</t>
   </si>
   <si>
     <t>Anja Helm Beta +</t>
   </si>
   <si>
-    <t>{'Fire Resistance': 2}</t>
+    <t>{'fire resistance': 2}</t>
   </si>
   <si>
     <t>Fulgur Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1, 'Resuscitate': 1}</t>
+    <t>{'weakness exploit': 1, 'resuscitate': 1}</t>
   </si>
   <si>
     <t>Fulgur Helm Beta +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1}</t>
+    <t>{'weakness exploit': 1}</t>
   </si>
   <si>
     <t>Rathian Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Poison Attack': 1}</t>
+    <t>{'health boost': 2, 'poison attack': 1}</t>
   </si>
   <si>
     <t>Rathian Helm Beta +</t>
   </si>
   <si>
-    <t>{'Health Boost': 1, 'Poison Attack': 1}</t>
+    <t>{'health boost': 1, 'poison attack': 1}</t>
   </si>
   <si>
     <t>Rath Heart Helm Alpha +</t>
@@ -407,31 +407,31 @@
     <t>-4</t>
   </si>
   <si>
-    <t>{'Evade Extender': 2, 'Cliffhanger': 1}</t>
+    <t>{'evade extender': 2, 'cliffhanger': 1}</t>
   </si>
   <si>
     <t>Rath Heart Helm Beta +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 2}</t>
+    <t>{'evade extender': 2}</t>
   </si>
   <si>
     <t>Lumu Hat Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 2, 'Windproof': 1}</t>
+    <t>{'stamina surge': 2, 'windproof': 1}</t>
   </si>
   <si>
     <t>Lumu Hat Beta +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 2}</t>
+    <t>{'stamina surge': 2}</t>
   </si>
   <si>
     <t>Lumu Phantasm Hood Alpha +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1, 'Wide-Range': 1}</t>
+    <t>{'weakness exploit': 1, 'wide-range': 1}</t>
   </si>
   <si>
     <t>Lumu Phantasm Hood Beta +</t>
@@ -440,118 +440,118 @@
     <t>Baan Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': 2, 'Slugger': 1}</t>
+    <t>{'tremor resistance': 2, 'slugger': 1}</t>
   </si>
   <si>
     <t>Baan Helm Beta +</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': 2}</t>
+    <t>{'tremor resistance': 2}</t>
   </si>
   <si>
     <t>Artian Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 2, 'Free Elm/Ammo Up': 1}</t>
+    <t>{'slinger capacity': 2, 'free elm/ammo up': 1}</t>
   </si>
   <si>
     <t>Artian Helm Beta +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 1, 'Free Elm/Ammo Up': 1}</t>
+    <t>{'slinger capacity': 1, 'free elm/ammo up': 1}</t>
   </si>
   <si>
     <t>Clockwork Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Partbreaker': 1}</t>
+    <t>{'agitator': 2, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Clockwork Helm Beta +</t>
   </si>
   <si>
-    <t>{'Agitator': 1, 'Partbreaker': 1}</t>
+    <t>{'agitator': 1, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Ingot Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 2, 'Windproof': 1}</t>
+    <t>{'thunder attack': 2, 'windproof': 1}</t>
   </si>
   <si>
     <t>Ingot Helm Beta +</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 2}</t>
+    <t>{'thunder attack': 2}</t>
   </si>
   <si>
     <t>Barioth Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 2, 'Power Prolonger': 1}</t>
+    <t>{'evade extender': 2, 'power prolonger': 1}</t>
   </si>
   <si>
     <t>Barioth Helm Beta +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 1, 'Power Prolonger': 1}</t>
+    <t>{'evade extender': 1, 'power prolonger': 1}</t>
   </si>
   <si>
     <t>Rathalos Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 2, 'Fire Attack': 2}</t>
+    <t>{'attack boost': 2, 'fire attack': 2}</t>
   </si>
   <si>
     <t>Rathalos Helm Beta +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 2}</t>
+    <t>{'attack boost': 2}</t>
   </si>
   <si>
     <t>Rath Soul Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 1, 'Cliffhanger': 1}</t>
+    <t>{'critical boost': 1, 'cliffhanger': 1}</t>
   </si>
   <si>
     <t>Rath Soul Helm Beta +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 1}</t>
+    <t>{'critical boost': 1}</t>
   </si>
   <si>
     <t>Diablos Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 2, 'Slugger': 1}</t>
+    <t>{'critical draw': 2, 'slugger': 1}</t>
   </si>
   <si>
     <t>Diablos Helm Beta +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 2}</t>
+    <t>{'critical draw': 2}</t>
   </si>
   <si>
     <t>Diablos Nero Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 2, 'Resentment': 1}</t>
-  </si>
-  <si>
-    <t>{'Partbreaker': 2}</t>
+    <t>{'partbreaker': 2, 'resentment': 1}</t>
+  </si>
+  <si>
+    <t>{'partbreaker': 2}</t>
   </si>
   <si>
     <t>Legiana Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Divine Blessing': 2, 'Ice Attack': 2}</t>
+    <t>{'divine blessing': 2, 'ice attack': 2}</t>
   </si>
   <si>
     <t>Legiana Helm Beta +</t>
   </si>
   <si>
-    <t>{'Divine Blessing': 2}</t>
+    <t>{'divine blessing': 2}</t>
   </si>
   <si>
     <t>Hoarcry Helm Alpha +</t>
@@ -560,25 +560,25 @@
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>{'Hunger Resistance': 2, 'Evade Extender': 1}</t>
+    <t>{'hunger resistance': 2, 'evade extender': 1}</t>
   </si>
   <si>
     <t>Hoarcry Helm Beta +</t>
   </si>
   <si>
-    <t>{'Hunger Resistance': 2}</t>
+    <t>{'hunger resistance': 2}</t>
   </si>
   <si>
     <t>Odogaron Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Bleeding Resistance': 2, 'Critical Eye': 2}</t>
+    <t>{'bleeding resistance': 2, 'critical eye': 2}</t>
   </si>
   <si>
     <t>Odogaron Helm Beta +</t>
   </si>
   <si>
-    <t>{'Bleeding Resistance': 2, 'Critical Eye': 1}</t>
+    <t>{'bleeding resistance': 2, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Death Garon Helm Alpha +</t>
@@ -587,31 +587,31 @@
     <t>4</t>
   </si>
   <si>
-    <t>{'Latent Power': 2, 'Tool Specialist': 1}</t>
+    <t>{'latent power': 2, 'tool specialist': 1}</t>
   </si>
   <si>
     <t>Death Garon Helm Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 2}</t>
+    <t>{'latent power': 2}</t>
   </si>
   <si>
     <t>Lavasioth Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Fire Attack': 2, 'Quick Sheath': 1}</t>
+    <t>{'fire attack': 2, 'quick sheath': 1}</t>
   </si>
   <si>
     <t>Lavasioth Helm Beta +</t>
   </si>
   <si>
-    <t>{'Fire Attack': 1, 'Quick Sheath': 1}</t>
+    <t>{'fire attack': 1, 'quick sheath': 1}</t>
   </si>
   <si>
     <t>Uragaan Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Blast Resistance': 2, 'Flinch Free': 1}</t>
+    <t>{'blast resistance': 2, 'flinch free': 1}</t>
   </si>
   <si>
     <t>Uragaan Helm Beta +</t>
@@ -623,121 +623,121 @@
     <t>Nargacuga Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 2, 'Piercing Shots': 1}</t>
+    <t>{'peak performance': 2, 'piercing shots': 1}</t>
   </si>
   <si>
     <t>Nargacuga Helm Beta +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 1, 'Piercing Shots': 1}</t>
+    <t>{'peak performance': 1, 'piercing shots': 1}</t>
   </si>
   <si>
     <t>Glavenus Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Focus': 2, 'Handicraft': 1}</t>
+    <t>{'focus': 2, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Glavenus Helm Beta +</t>
   </si>
   <si>
-    <t>{'Focus': 1, 'Handicraft': 1}</t>
+    <t>{'focus': 1, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Acidic Glavenus Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Maximum Might': 2, 'Effluvial Resistance': 2}</t>
+    <t>{'maximum might': 2, 'effluvial resistance': 2}</t>
   </si>
   <si>
     <t>Acidic Glavenus Helm Beta +</t>
   </si>
   <si>
-    <t>{'Maximum Might': 1, 'Effluvial Resistance': 2}</t>
+    <t>{'maximum might': 1, 'effluvial resistance': 2}</t>
   </si>
   <si>
     <t>Brachydios Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Capacity Booster': 1}</t>
+    <t>{'agitator': 2, 'capacity booster': 1}</t>
   </si>
   <si>
     <t>Brachydios Helm Beta +</t>
   </si>
   <si>
-    <t>{'Agitator': 2}</t>
+    <t>{'agitator': 2}</t>
   </si>
   <si>
     <t>Tigrex Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 2, 'Earplugs': 2}</t>
+    <t>{'attack boost': 2, 'earplugs': 2}</t>
   </si>
   <si>
     <t>Tigrex Helm Beta +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 2, 'Earplugs': 1}</t>
+    <t>{'attack boost': 2, 'earplugs': 1}</t>
   </si>
   <si>
     <t>Black Belt Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 2, 'Mushroomancer': 1}</t>
+    <t>{'marathon runner': 2, 'mushroomancer': 1}</t>
   </si>
   <si>
     <t>Black Belt Helm Beta +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 2}</t>
+    <t>{'marathon runner': 2}</t>
   </si>
   <si>
     <t>Dober Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Free Elm/Ammo Up': 2, 'Stamina Surge': 1}</t>
+    <t>{'free elm/ammo up': 2, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Dober Helm Beta +</t>
   </si>
   <si>
-    <t>{'Free Elm/Ammo Up': 2}</t>
+    <t>{'free elm/ammo up': 2}</t>
   </si>
   <si>
     <t>Damascus Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 3, 'Speed Sharpening': 2}</t>
+    <t>{'defense boost': 3, 'speed sharpening': 2}</t>
   </si>
   <si>
     <t>Damascus Helm Beta +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 3}</t>
+    <t>{'defense boost': 3}</t>
   </si>
   <si>
     <t>Pride Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 2, 'Blast Attack': 2}</t>
+    <t>{'earplugs': 2, 'blast attack': 2}</t>
   </si>
   <si>
     <t>Pride Helm Beta +</t>
   </si>
   <si>
-    <t>{'Earplugs': 2, 'Blast Attack': 1}</t>
+    <t>{'earplugs': 2, 'blast attack': 1}</t>
   </si>
   <si>
     <t>Esurient Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 1, 'Handicraft': 2}</t>
+    <t>{'partbreaker': 1, 'handicraft': 2}</t>
   </si>
   <si>
     <t>Esurient Helm Beta +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 1}</t>
+    <t>{'partbreaker': 1}</t>
   </si>
   <si>
     <t>Rimeguard Helm Alpha +</t>
@@ -746,7 +746,7 @@
     <t>[3, 2]</t>
   </si>
   <si>
-    <t>{'Divine Blessing': 2, 'Coalescence': 1}</t>
+    <t>{'divine blessing': 2, 'coalescence': 1}</t>
   </si>
   <si>
     <t>Rimeguard Helm Beta +</t>
@@ -755,37 +755,37 @@
     <t>Fellshroud Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 2, 'Dragon Attack': 2}</t>
+    <t>{'peak performance': 2, 'dragon attack': 2}</t>
   </si>
   <si>
     <t>Fellshroud Helm Beta +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 2}</t>
+    <t>{'peak performance': 2}</t>
   </si>
   <si>
     <t>Kaiser Crown Alpha +</t>
   </si>
   <si>
-    <t>{'Latent Power': 2, 'Critical Eye': 2}</t>
+    <t>{'latent power': 2, 'critical eye': 2}</t>
   </si>
   <si>
     <t>Kaiser Crown Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 1, 'Critical Eye': 2}</t>
+    <t>{'latent power': 1, 'critical eye': 2}</t>
   </si>
   <si>
     <t>Kushala Glare Alpha +</t>
   </si>
   <si>
-    <t>{'Ice Attack': 2, 'Evade Window': 2}</t>
+    <t>{'ice attack': 2, 'evade window': 2}</t>
   </si>
   <si>
     <t>Kushala Glare Beta +</t>
   </si>
   <si>
-    <t>{'Ice Attack': 2, 'Evade Window': 1}</t>
+    <t>{'ice attack': 2, 'evade window': 1}</t>
   </si>
   <si>
     <t>Kirin Horn Alpha +</t>
@@ -794,7 +794,7 @@
     <t>[3, 1]</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 2, 'Divine Blessing': 2}</t>
+    <t>{'marathon runner': 2, 'divine blessing': 2}</t>
   </si>
   <si>
     <t>Kirin Horn Beta +</t>
@@ -803,13 +803,13 @@
     <t>Tentacle Cowl Alpha +</t>
   </si>
   <si>
-    <t>{'Constitution': 3, 'Maximum Might': 1}</t>
+    <t>{'constitution': 3, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Tentacle Cowl Beta +</t>
   </si>
   <si>
-    <t>{'Constitution': 2, 'Maximum Might': 1}</t>
+    <t>{'constitution': 2, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Shara Ishvalda Helm Alpha +</t>
@@ -821,13 +821,13 @@
     <t>Shara Ishvalda Helm Beta +</t>
   </si>
   <si>
-    <t>{'Recovery Up': 2}</t>
+    <t>{'recovery up': 2}</t>
   </si>
   <si>
     <t>Zorah Headgear Alpha +</t>
   </si>
   <si>
-    <t>{'Flinch Free': 1, 'Artillery': 2}</t>
+    <t>{'flinch free': 1, 'artillery': 2}</t>
   </si>
   <si>
     <t>Zorah Headgear Beta +</t>
@@ -836,13 +836,13 @@
     <t>[4, 2, 1]</t>
   </si>
   <si>
-    <t>{'Flinch Free': 1}</t>
+    <t>{'flinch free': 1}</t>
   </si>
   <si>
     <t>Garuga Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 3, 'Resentment': 1}</t>
+    <t>{'critical eye': 3, 'resentment': 1}</t>
   </si>
   <si>
     <t>Garuga Helm Beta +</t>
@@ -851,67 +851,67 @@
     <t>- 2</t>
   </si>
   <si>
-    <t>{'Critical Eye': 1, 'Resentment': 1}</t>
+    <t>{'critical eye': 1, 'resentment': 1}</t>
   </si>
   <si>
     <t>Zinogre Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 2, 'Critical Boost': 1}</t>
+    <t>{'power prolonger': 2, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Zinogre Helm Beta +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 1, 'Critical Boost': 1}</t>
+    <t>{'power prolonger': 1, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Empress Crown Alpha +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 2, 'Offensive Guard': 2}</t>
+    <t>{'tool specialist': 2, 'offensive guard': 2}</t>
   </si>
   <si>
     <t>Empress Crown Beta +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 2}</t>
+    <t>{'tool specialist': 2}</t>
   </si>
   <si>
     <t>Guild Palace Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Offensive Guard': 1}</t>
+    <t>{'health boost': 2, 'offensive guard': 1}</t>
   </si>
   <si>
     <t>Guild Palace Helm Beta +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2}</t>
+    <t>{'health boost': 2}</t>
   </si>
   <si>
     <t>Ruinous Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Maximum Might': 2, 'Stamina Surge': 1}</t>
+    <t>{'maximum might': 2, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Ruinous Helm Beta +</t>
   </si>
   <si>
-    <t>{'Maximum Might': 2}</t>
+    <t>{'maximum might': 2}</t>
   </si>
   <si>
     <t>Silver Solhelm Alpha +</t>
   </si>
   <si>
-    <t>{'Windproof': 2, 'Fire Attack': 2}</t>
+    <t>{'windproof': 2, 'fire attack': 2}</t>
   </si>
   <si>
     <t>Silver Solhelm Beta +</t>
   </si>
   <si>
-    <t>{'Windproof': 2}</t>
+    <t>{'windproof': 2}</t>
   </si>
   <si>
     <t>Golden Lunehelm Beta +</t>
@@ -920,7 +920,7 @@
     <t>Golden Lunehelm Alpha +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Poison Attack': 2}</t>
+    <t>{'health boost': 2, 'poison attack': 2}</t>
   </si>
   <si>
     <t>Golden Headdress Alpha +</t>
@@ -929,19 +929,19 @@
     <t>-5</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 2, 'Handicraft': 2}</t>
+    <t>{'weakness exploit': 2, 'handicraft': 2}</t>
   </si>
   <si>
     <t>Golden Headdress Beta +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 2}</t>
+    <t>{'weakness exploit': 2}</t>
   </si>
   <si>
     <t>Rex Roar Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 3, 'Free Meal': 1}</t>
+    <t>{'attack boost': 3, 'free meal': 1}</t>
   </si>
   <si>
     <t>Rex Roar Helm Beta +</t>
@@ -950,43 +950,43 @@
     <t>Guildwork Head Alpha +</t>
   </si>
   <si>
-    <t>{'Botanist': 3, 'Honey Hunter': 1}</t>
+    <t>{'botanist': 3, 'honey hunter': 1}</t>
   </si>
   <si>
     <t>Guildwork Head Beta +</t>
   </si>
   <si>
-    <t>{'Botanist': 1, 'Honey Hunter': 1}</t>
+    <t>{'botanist': 1, 'honey hunter': 1}</t>
   </si>
   <si>
     <t>Stygian Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Latent Power': 3, 'Tremor Resistance': 2}</t>
+    <t>{'latent power': 3, 'tremor resistance': 2}</t>
   </si>
   <si>
     <t>Stygian Helm Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 3, 'Tremor Resistance': 1}</t>
+    <t>{'latent power': 3, 'tremor resistance': 1}</t>
   </si>
   <si>
     <t>Claireâs Head Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Evade Window': 2}</t>
+    <t>{'agitator': 2, 'evade window': 2}</t>
   </si>
   <si>
     <t>Leon's Head Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Weakness Exploit': 1}</t>
+    <t>{'agitator': 2, 'weakness exploit': 1}</t>
   </si>
   <si>
     <t>Banuk Helm Alpha +</t>
   </si>
   <si>
-    <t>{'Focus': 2, 'Aquatic/Polar Mobility': 1}</t>
+    <t>{'focus': 2, 'aquatic/polar mobility': 1}</t>
   </si>
   <si>
     <t>Safi Crested Crown Alpha +</t>
@@ -995,25 +995,25 @@
     <t>[2, 1, 1]</t>
   </si>
   <si>
-    <t>{'Evade Window': 2, 'Critical Boost': 1}</t>
+    <t>{'evade window': 2, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Safi Crested Crown Beta +</t>
   </si>
   <si>
-    <t>{'Evade Window': 1, 'Critical Boost': 1}</t>
+    <t>{'evade window': 1, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Oolong Hair Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 3}</t>
+    <t>{'critical eye': 3}</t>
   </si>
   <si>
     <t>Duffel Penguin Mask Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Window': 2}</t>
+    <t>{'evade window': 2}</t>
   </si>
   <si>
     <t>Sealed Dragon Cloth Alpha +</t>
@@ -1025,31 +1025,31 @@
     <t>[4, 4]</t>
   </si>
   <si>
-    <t>{'Resentment': 1}</t>
+    <t>{'resentment': 1}</t>
   </si>
   <si>
     <t>Bone Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 2, 'Health Boost': 1}</t>
+    <t>{'attack boost': 2, 'health boost': 1}</t>
   </si>
   <si>
     <t>Bone Mail Beta +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 1}</t>
+    <t>{'attack boost': 1}</t>
   </si>
   <si>
     <t>Alloy Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Water Resistance': 3, 'Defense Boost': 1}</t>
+    <t>{'water resistance': 3, 'defense boost': 1}</t>
   </si>
   <si>
     <t>Alloy Mail Beta +</t>
   </si>
   <si>
-    <t>{'Water Resistance': 1}</t>
+    <t>{'water resistance': 1}</t>
   </si>
   <si>
     <t>Direwolf Mail</t>
@@ -1058,31 +1058,31 @@
     <t>Vespoid Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Wind Proof': 2}</t>
+    <t>{'wind proof': 2}</t>
   </si>
   <si>
     <t>Vespoid Mail Beta +</t>
   </si>
   <si>
-    <t>{'Wind Proof': 1}</t>
+    <t>{'wind proof': 1}</t>
   </si>
   <si>
     <t>Hornetaur Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Effluvial Expert': 1, 'Hunger Resistance': 2}</t>
+    <t>{'effluvial expert': 1, 'hunger resistance': 2}</t>
   </si>
   <si>
     <t>Hornetaur Mail Beta +</t>
   </si>
   <si>
-    <t>{'Effluvial Expert': 1}</t>
+    <t>{'effluvial expert': 1}</t>
   </si>
   <si>
     <t>Barnos Jacket Alpha +</t>
   </si>
   <si>
-    <t>{'Heat Guard': 1, 'Iron Skin': 2}</t>
+    <t>{'heat guard': 1, 'iron skin': 2}</t>
   </si>
   <si>
     <t>Barnos Jacket Beta +</t>
@@ -1091,151 +1091,151 @@
     <t>Cortos Cape Alpha +</t>
   </si>
   <si>
-    <t>{'Hunger Resistance': 2, 'Jump Master': 1}</t>
+    <t>{'hunger resistance': 2, 'jump master': 1}</t>
   </si>
   <si>
     <t>Cortos Cape Beta +</t>
   </si>
   <si>
-    <t>{'Hunger Resistance': 1, 'Jump Master': 1}</t>
+    <t>{'hunger resistance': 1, 'jump master': 1}</t>
   </si>
   <si>
     <t>Jagras Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 1, 'Attack Boost': 2}</t>
+    <t>{'evade extender': 1, 'attack boost': 2}</t>
   </si>
   <si>
     <t>Jagras Mail Beta +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 1, 'Attack Boost': 1}</t>
+    <t>{'evade extender': 1, 'attack boost': 1}</t>
   </si>
   <si>
     <t>Tzitzi Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Constitution': 2, 'Water Attack': 2}</t>
+    <t>{'constitution': 2, 'water attack': 2}</t>
   </si>
   <si>
     <t>Tzitzi Mail Beta +</t>
   </si>
   <si>
-    <t>{'Constitution': 1, 'Water Attack': 1}</t>
+    <t>{'constitution': 1, 'water attack': 1}</t>
   </si>
   <si>
     <t>Girros Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Paralysis Resistance': 2, 'Free Elm/Ammo Up': 1}</t>
+    <t>{'paralysis resistance': 2, 'free elm/ammo up': 1}</t>
   </si>
   <si>
     <t>Girros Mail Beta +</t>
   </si>
   <si>
-    <t>{'Paralysis Resistance': 2}</t>
+    <t>{'paralysis resistance': 2}</t>
   </si>
   <si>
     <t>Dodogama Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Blast Attack': 2, 'Artillery': 1}</t>
+    <t>{'blast attack': 2, 'artillery': 1}</t>
   </si>
   <si>
     <t>Dodogama Mail Beta +</t>
   </si>
   <si>
-    <t>{'Blast Attack': 2}</t>
+    <t>{'blast attack': 2}</t>
   </si>
   <si>
     <t>Kulu Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 1, 'Critical Eye': 2}</t>
+    <t>{'stamina surge': 1, 'critical eye': 2}</t>
   </si>
   <si>
     <t>Kulu Mail Beta +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 1, 'Critical Eye': 1}</t>
+    <t>{'stamina surge': 1, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Pukei Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 2, 'Peak Performance': 1}</t>
+    <t>{'item prolonger': 2, 'peak performance': 1}</t>
   </si>
   <si>
     <t>Pukei Mail Beta +</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 1, 'Peak Performance': 1}</t>
+    <t>{'item prolonger': 1, 'peak performance': 1}</t>
   </si>
   <si>
     <t>Pukei Lagoon Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 1, 'Critical Draw': 1}</t>
+    <t>{'power prolonger': 1, 'critical draw': 1}</t>
   </si>
   <si>
     <t>Pukei Lagoon Mail Beta +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 1}</t>
+    <t>{'power prolonger': 1}</t>
   </si>
   <si>
     <t>Barroth Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Thief': 2, 'Agitator': 1}</t>
+    <t>{'stamina thief': 2, 'agitator': 1}</t>
   </si>
   <si>
     <t>Barroth Mail Beta +</t>
   </si>
   <si>
-    <t>{'Stamina Thief': 2}</t>
+    <t>{'stamina thief': 2}</t>
   </si>
   <si>
     <t>Jyura Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Latent Power': 1, 'Water Attack': 2}</t>
+    <t>{'latent power': 1, 'water attack': 2}</t>
   </si>
   <si>
     <t>Jyura Mail Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 1, 'Water Attack': 1}</t>
+    <t>{'latent power': 1, 'water attack': 1}</t>
   </si>
   <si>
     <t>Beo Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 1, 'Ice Attack': 2}</t>
+    <t>{'stamina surge': 1, 'ice attack': 2}</t>
   </si>
   <si>
     <t>Beo Mail Beta +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 1}</t>
+    <t>{'stamina surge': 1}</t>
   </si>
   <si>
     <t>Kadachi Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Jump Master': 1, 'Constitution': 1}</t>
+    <t>{'jump master': 1, 'constitution': 1}</t>
   </si>
   <si>
     <t>Kadachi Mail Beta +</t>
   </si>
   <si>
-    <t>{'Jump Master': 1}</t>
+    <t>{'jump master': 1}</t>
   </si>
   <si>
     <t>Viper Kadachi Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 1, 'Evade Extender': 1}</t>
+    <t>{'quick sheath': 1, 'evade extender': 1}</t>
   </si>
   <si>
     <t>Viper Kadachi Mail Beta +</t>
@@ -1244,67 +1244,67 @@
     <t>High Metal Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 2, 'Ice Attack': 1}</t>
+    <t>{'earplugs': 2, 'ice attack': 1}</t>
   </si>
   <si>
     <t>High Metal Mail Beta +</t>
   </si>
   <si>
-    <t>{'Earplugs': 1, 'Ice Attack': 1}</t>
+    <t>{'earplugs': 1, 'ice attack': 1}</t>
   </si>
   <si>
     <t>Banbaro Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 1, 'Offensive Guard': 1}</t>
+    <t>{'speed eating': 1, 'offensive guard': 1}</t>
   </si>
   <si>
     <t>Banbaro Mail Beta +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 1}</t>
+    <t>{'speed eating': 1}</t>
   </si>
   <si>
     <t>Anja Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 2, 'Special Ammo Boost': 1}</t>
+    <t>{'marathon runner': 2, 'special ammo boost': 1}</t>
   </si>
   <si>
     <t>Anja Mail Beta +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 1, 'Special Ammo Boost': 1}</t>
+    <t>{'marathon runner': 1, 'special ammo boost': 1}</t>
   </si>
   <si>
     <t>Fulgur Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Flinch Free': 1, 'Stun Resistance': 2}</t>
+    <t>{'flinch free': 1, 'stun resistance': 2}</t>
   </si>
   <si>
     <t>Fulgur Mail Beta +</t>
   </si>
   <si>
-    <t>{'Flinch Free': 1, 'Stun Resistance': 1}</t>
+    <t>{'flinch free': 1, 'stun resistance': 1}</t>
   </si>
   <si>
     <t>Rathian Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Botanist': 2, 'Recovery Up': 1}</t>
+    <t>{'botanist': 2, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Rathian Mail Beta +</t>
   </si>
   <si>
-    <t>{'Botanist': 1, 'Recovery Up': 1}</t>
+    <t>{'botanist': 1, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Rath Heart Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 2, 'Handicraft': 1}</t>
+    <t>{'tool specialist': 2, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Rath Heart Mail Beta +</t>
@@ -1313,55 +1313,55 @@
     <t>Lumu Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Master Mounter': 1, 'Artillery': 1}</t>
+    <t>{'master mounter': 1, 'artillery': 1}</t>
   </si>
   <si>
     <t>Lumu Mail Beta +</t>
   </si>
   <si>
-    <t>{'Master Mounter': 1}</t>
+    <t>{'master mounter': 1}</t>
   </si>
   <si>
     <t>Lumu Phantasm Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Wide-Range': 2, 'Maximum Might': 1}</t>
+    <t>{'wide-range': 2, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Lumu Phantasm Mail Beta +</t>
   </si>
   <si>
-    <t>{'Wide-Range': 2}</t>
+    <t>{'wide-range': 2}</t>
   </si>
   <si>
     <t>Baan Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Sleep Attack': 1, 'Bleeding Resistance': 1}</t>
+    <t>{'sleep attack': 1, 'bleeding resistance': 1}</t>
   </si>
   <si>
     <t>Baan Mail Beta +</t>
   </si>
   <si>
-    <t>{'Sleep Attack': 1}</t>
+    <t>{'sleep attack': 1}</t>
   </si>
   <si>
     <t>Artian Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 3, 'Peak Performance': 1}</t>
+    <t>{'critical eye': 3, 'peak performance': 1}</t>
   </si>
   <si>
     <t>Artian Mail Beta +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 2, 'Peak Performance': 1}</t>
+    <t>{'critical eye': 2, 'peak performance': 1}</t>
   </si>
   <si>
     <t>Clockwork Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Special Ammo Boost': 1}</t>
+    <t>{'agitator': 2, 'special ammo boost': 1}</t>
   </si>
   <si>
     <t>Clockwork Mail Beta +</t>
@@ -1370,19 +1370,19 @@
     <t>Ingot Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': 2, 'Free Elm/Ammo Up': 1}</t>
+    <t>{'thunder resistance': 2, 'free elm/ammo up': 1}</t>
   </si>
   <si>
     <t>Ingot Mail Beta +</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': 1, 'Free Elm/Ammo Up': 1}</t>
+    <t>{'thunder resistance': 1, 'free elm/ammo up': 1}</t>
   </si>
   <si>
     <t>Barioth Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 1, 'Constitution': 1}</t>
+    <t>{'power prolonger': 1, 'constitution': 1}</t>
   </si>
   <si>
     <t>Barioth Mail Beta +</t>
@@ -1391,7 +1391,7 @@
     <t>Rathalos Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 2, 'Fire Attack': 1}</t>
+    <t>{'weakness exploit': 2, 'fire attack': 1}</t>
   </si>
   <si>
     <t>Rathalos Mail Beta +</t>
@@ -1400,7 +1400,7 @@
     <t>Rath Soul Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Free Elm/Ammo Up': 1, 'Partbreaker': 1}</t>
+    <t>{'free elm/ammo up': 1, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Rath Soul Mail Beta +</t>
@@ -1409,91 +1409,91 @@
     <t>Diablos Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Slugger': 2, 'Heroics': 2}</t>
+    <t>{'slugger': 2, 'heroics': 2}</t>
   </si>
   <si>
     <t>Diablos Mail Beta +</t>
   </si>
   <si>
-    <t>{'Slugger': 2, 'Heroics': 1}</t>
+    <t>{'slugger': 2, 'heroics': 1}</t>
   </si>
   <si>
     <t>Diablos Nero Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Resentment': 2, 'Marathon Runner': 1}</t>
+    <t>{'resentment': 2, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Diablos Nero Mail Beta +</t>
   </si>
   <si>
-    <t>{'Resentment': 1, 'Marathon Runner': 1}</t>
+    <t>{'resentment': 1, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Legiana Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Window': 2, 'Divine Blessing': 2}</t>
+    <t>{'evade window': 2, 'divine blessing': 2}</t>
   </si>
   <si>
     <t>Legiana Mail Beta +</t>
   </si>
   <si>
-    <t>{'Evade Window': 2, 'Divine Blessing': 1}</t>
+    <t>{'evade window': 2, 'divine blessing': 1}</t>
   </si>
   <si>
     <t>Hoarcry Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Focus': 2, 'Marathon Runner': 1}</t>
+    <t>{'focus': 2, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Hoarcry Mail Beta +</t>
   </si>
   <si>
-    <t>{'Focus': 2}</t>
+    <t>{'focus': 2}</t>
   </si>
   <si>
     <t>Odogaron Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': 2, 'Bleeding Resistance': 1}</t>
+    <t>{'speed sharpening': 2, 'bleeding resistance': 1}</t>
   </si>
   <si>
     <t>Odogaron Mail Beta +</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': 2}</t>
+    <t>{'speed sharpening': 2}</t>
   </si>
   <si>
     <t>Death Garon Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 3, 'Dragon Resistance': 2}</t>
+    <t>{'critical eye': 3, 'dragon resistance': 2}</t>
   </si>
   <si>
     <t>Death Garon Mail Beta +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 2, 'Dragon Resistance': 1}</t>
+    <t>{'critical eye': 2, 'dragon resistance': 1}</t>
   </si>
   <si>
     <t>Lavasioth Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Fire Attack': 3, 'Heat Guard': 1}</t>
+    <t>{'fire attack': 3, 'heat guard': 1}</t>
   </si>
   <si>
     <t>Lavasioth Mail Beta +</t>
   </si>
   <si>
-    <t>{'Fire Attack': 2, 'Heat Guard': 1}</t>
+    <t>{'fire attack': 2, 'heat guard': 1}</t>
   </si>
   <si>
     <t>Uragaan Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 2, 'Blast Resistance': 1}</t>
+    <t>{'partbreaker': 2, 'blast resistance': 1}</t>
   </si>
   <si>
     <t>Uragaan Mail Beta +</t>
@@ -1502,7 +1502,7 @@
     <t>Nargacuga Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Window': 2, 'Speed Crawler': 1}</t>
+    <t>{'evade window': 2, 'speed crawler': 1}</t>
   </si>
   <si>
     <t>Nargacuga Mail Beta +</t>
@@ -1511,25 +1511,25 @@
     <t>Glavenus Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 2, 'Maximum Might': 1}</t>
+    <t>{'power prolonger': 2, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Glavenus Mail Beta +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 1, 'Maximum Might': 1}</t>
+    <t>{'power prolonger': 1, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Acidic Glavenus Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Handicraft': 2, 'Stamina Surge': 1}</t>
+    <t>{'handicraft': 2, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Acidic Glavenus Mail Beta +</t>
   </si>
   <si>
-    <t>{'Handicraft': 1, 'Stamina Surge': 1}</t>
+    <t>{'handicraft': 1, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Brachydios Mail Alpha +</t>
@@ -1538,49 +1538,49 @@
     <t>Brachydios Mail Beta +</t>
   </si>
   <si>
-    <t>{'Stamina Thief': 1, 'Agitator': 1}</t>
+    <t>{'stamina thief': 1, 'agitator': 1}</t>
   </si>
   <si>
     <t>Tigrex Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 2, 'Free Meal': 1}</t>
+    <t>{'earplugs': 2, 'free meal': 1}</t>
   </si>
   <si>
     <t>Tigrex Mail Beta +</t>
   </si>
   <si>
-    <t>{'Earplugs': 2}</t>
+    <t>{'earplugs': 2}</t>
   </si>
   <si>
     <t>Black Belt Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Mushroomancer': 2, 'Wide-Range': 1}</t>
+    <t>{'mushroomancer': 2, 'wide-range': 1}</t>
   </si>
   <si>
     <t>Black Belt Mail Beta +</t>
   </si>
   <si>
-    <t>{'Mushroomancer': 2}</t>
+    <t>{'mushroomancer': 2}</t>
   </si>
   <si>
     <t>Dober Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 2, 'Effluvial Resistance': 1}</t>
+    <t>{'attack boost': 2, 'effluvial resistance': 1}</t>
   </si>
   <si>
     <t>Dober Mail Beta +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 1, 'Effluvial Resistance': 1}</t>
+    <t>{'attack boost': 1, 'effluvial resistance': 1}</t>
   </si>
   <si>
     <t>Damascus Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Focus': 2, 'Defense Boost': 2}</t>
+    <t>{'focus': 2, 'defense boost': 2}</t>
   </si>
   <si>
     <t>Damascus Mail Beta +</t>
@@ -1589,7 +1589,7 @@
     <t>Pride Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Guard': 2, 'Blast Resistance': 2}</t>
+    <t>{'guard': 2, 'blast resistance': 2}</t>
   </si>
   <si>
     <t>Pride Mail Beta +</t>
@@ -1598,7 +1598,7 @@
     <t>Esurient Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 1, 'Handicraft': 2}</t>
+    <t>{'speed eating': 1, 'handicraft': 2}</t>
   </si>
   <si>
     <t>Esurient Mail Beta +</t>
@@ -1610,91 +1610,91 @@
     <t>Rimeguard Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 2, 'Critical Draw': 1}</t>
+    <t>{'quick sheath': 2, 'critical draw': 1}</t>
   </si>
   <si>
     <t>Rimeguard Mail Beta +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 2}</t>
+    <t>{'quick sheath': 2}</t>
   </si>
   <si>
     <t>Fellshroud Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Recovery Speed': 2, 'Dragon Attack': 2}</t>
+    <t>{'recovery speed': 2, 'dragon attack': 2}</t>
   </si>
   <si>
     <t>Fellshroud Mail Beta +</t>
   </si>
   <si>
-    <t>{'Recovery Speed': 2, 'Dragon Attack': 1}</t>
+    <t>{'recovery speed': 2, 'dragon attack': 1}</t>
   </si>
   <si>
     <t>Kaiser Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Latent Power': 1, 'Special Ammo Boost': 2}</t>
+    <t>{'latent power': 1, 'special ammo boost': 2}</t>
   </si>
   <si>
     <t>Kaiser Mail Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 1}</t>
+    <t>{'latent power': 1}</t>
   </si>
   <si>
     <t>Kushala Cista Alpha +</t>
   </si>
   <si>
-    <t>{'Handicraft': 3}</t>
+    <t>{'handicraft': 3}</t>
   </si>
   <si>
     <t>Kushala Cista Beta +</t>
   </si>
   <si>
-    <t>{'Handicraft': 2}</t>
+    <t>{'handicraft': 2}</t>
   </si>
   <si>
     <t>Kirin Jacket Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 3, 'Divine Blessing': 1}</t>
+    <t>{'critical eye': 3, 'divine blessing': 1}</t>
   </si>
   <si>
     <t>Kirin Jacket Beta +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 2, 'Divine Blessing': 1}</t>
+    <t>{'critical eye': 2, 'divine blessing': 1}</t>
   </si>
   <si>
     <t>Tentacle Cloak Alpha +</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 2, 'Tool Specialist': 1}</t>
+    <t>{'blight resistance': 2, 'tool specialist': 1}</t>
   </si>
   <si>
     <t>Tentacle Cloak Beta +</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 1, 'Tool Specialist': 1}</t>
+    <t>{'blight resistance': 1, 'tool specialist': 1}</t>
   </si>
   <si>
     <t>Shara Ishvalda Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Coalescence': 2, 'Health Boost': 1}</t>
+    <t>{'coalescence': 2, 'health boost': 1}</t>
   </si>
   <si>
     <t>Shara Ishvalda Mail Beta +</t>
   </si>
   <si>
-    <t>{'Coalescence': 2}</t>
+    <t>{'coalescence': 2}</t>
   </si>
   <si>
     <t>Zorah Hide Alpha +</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': 2, 'Artillery': 2}</t>
+    <t>{'tremor resistance': 2, 'artillery': 2}</t>
   </si>
   <si>
     <t>Zorah Hide Beta +</t>
@@ -1703,13 +1703,13 @@
     <t>Garuga Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 2, 'Critical Eye': 2}</t>
+    <t>{'earplugs': 2, 'critical eye': 2}</t>
   </si>
   <si>
     <t>Garuga Mail beta +</t>
   </si>
   <si>
-    <t>{'Earplugs': 1, 'Critical Eye': 2}</t>
+    <t>{'earplugs': 1, 'critical eye': 2}</t>
   </si>
   <si>
     <t>Zinogre Mail Alpha +</t>
@@ -1718,25 +1718,25 @@
     <t>- 1</t>
   </si>
   <si>
-    <t>{'Latent Power': 3, 'Normal Shots': 1}</t>
+    <t>{'latent power': 3, 'normal shots': 1}</t>
   </si>
   <si>
     <t>Zinogre Mail Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 3}</t>
+    <t>{'latent power': 3}</t>
   </si>
   <si>
     <t>Empress Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 2, 'Wide-Range': 2}</t>
+    <t>{'peak performance': 2, 'wide-range': 2}</t>
   </si>
   <si>
     <t>Empress Mail beta +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 1, 'Wide-Range': 2}</t>
+    <t>{'peak performance': 1, 'wide-range': 2}</t>
   </si>
   <si>
     <t>Guild Palace Mail Alpha +</t>
@@ -1745,13 +1745,13 @@
     <t>Guild Palace Beta Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 1, 'Heroics': 1}</t>
+    <t>{'agitator': 1, 'heroics': 1}</t>
   </si>
   <si>
     <t>Ruinous Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 2, 'Maximum Might': 1}</t>
+    <t>{'stamina surge': 2, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Ruinous Mail Beta +</t>
@@ -1760,13 +1760,13 @@
     <t>Silver Solmail Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 2, 'Fire Attack': 2}</t>
+    <t>{'critical boost': 2, 'fire attack': 2}</t>
   </si>
   <si>
     <t>Silver Solmail Beta +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 2}</t>
+    <t>{'critical boost': 2}</t>
   </si>
   <si>
     <t>Golden Lunemail Alpha +</t>
@@ -1778,7 +1778,7 @@
     <t>Golden Haori Alpha +</t>
   </si>
   <si>
-    <t>{'Resentment': 2, 'Speed Sharpening': 2}</t>
+    <t>{'resentment': 2, 'speed sharpening': 2}</t>
   </si>
   <si>
     <t>Golden Haori Beta +</t>
@@ -1787,7 +1787,7 @@
     <t>Rex Roar Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 3, 'Weakness Exploit': 1}</t>
+    <t>{'attack boost': 3, 'weakness exploit': 1}</t>
   </si>
   <si>
     <t>Rex Roar Mail Beta +</t>
@@ -1796,25 +1796,25 @@
     <t>Guildwork Body Alpha +</t>
   </si>
   <si>
-    <t>{'Cliffhanger': 1, 'Flinch Free': 1}</t>
+    <t>{'cliffhanger': 1, 'flinch free': 1}</t>
   </si>
   <si>
     <t>Guildwork Body Beta +</t>
   </si>
   <si>
-    <t>{'Cliffhanger': 1}</t>
+    <t>{'cliffhanger': 1}</t>
   </si>
   <si>
     <t>Stygian Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Windproof': 3, 'Flinch Free': 2}</t>
+    <t>{'windproof': 3, 'flinch free': 2}</t>
   </si>
   <si>
     <t>Stygian Mail Beta +</t>
   </si>
   <si>
-    <t>{'Windproof': 3, 'Flinch Free': 1}</t>
+    <t>{'windproof': 3, 'flinch free': 1}</t>
   </si>
   <si>
     <t>Claireâs Body Alpha +</t>
@@ -1826,19 +1826,19 @@
     <t>Banuk Mail Alpha +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 1, 'Stamina Surge': 1}</t>
+    <t>{'marathon runner': 1, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Safi Crested Chest Alpha +</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 2, 'Critical Boost': 1}</t>
+    <t>{'blight resistance': 2, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Safi Crested Chest Beta +</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 1, 'Critical Boost': 1}</t>
+    <t>{'blight resistance': 1, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Oolong Vest Alpha +</t>
@@ -1847,31 +1847,31 @@
     <t>Buff Chest Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 3, 'Fortify': 1}</t>
+    <t>{'agitator': 3, 'fortify': 1}</t>
   </si>
   <si>
     <t>Bone Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Slugger': 2, 'Attack Boost': 1}</t>
+    <t>{'slugger': 2, 'attack boost': 1}</t>
   </si>
   <si>
     <t>Bone Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Slugger': 1}</t>
+    <t>{'slugger': 1}</t>
   </si>
   <si>
     <t>Alloy Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 2, 'Speed Sharpening': 1}</t>
+    <t>{'defense boost': 2, 'speed sharpening': 1}</t>
   </si>
   <si>
     <t>Alloy Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 2}</t>
+    <t>{'defense boost': 2}</t>
   </si>
   <si>
     <t>Direwolf Vambraces</t>
@@ -1880,91 +1880,91 @@
     <t>Vespoid Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Paralysis Attack': 1, 'Quick Sheath': 1}</t>
+    <t>{'paralysis attack': 1, 'quick sheath': 1}</t>
   </si>
   <si>
     <t>Vespoid Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Paralysis Attack': 1}</t>
+    <t>{'paralysis attack': 1}</t>
   </si>
   <si>
     <t>Hornetaur Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Free Meal': 1, 'Handicraft': 1}</t>
+    <t>{'free meal': 1, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Hornetaur Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Free Meal': 1}</t>
+    <t>{'free meal': 1}</t>
   </si>
   <si>
     <t>Kestodon Guards Alpha +</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': 1, 'Focus': 2}</t>
+    <t>{'affinity sliding': 1, 'focus': 2}</t>
   </si>
   <si>
     <t>Kestodon Guards Beta +</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': 1, 'Focus': 1}</t>
+    <t>{'affinity sliding': 1, 'focus': 1}</t>
   </si>
   <si>
     <t>Jagras Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 2, 'Recovery Up': 1}</t>
+    <t>{'evade extender': 2, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Jagras Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 1, 'Recovery Up': 1}</t>
+    <t>{'evade extender': 1, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Tzitzi Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Stun Resistance': 2, 'Wide-Range': 2}</t>
+    <t>{'stun resistance': 2, 'wide-range': 2}</t>
   </si>
   <si>
     <t>Tzitzi Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Stun Resistance': 2, 'Wide-Range': 1}</t>
+    <t>{'stun resistance': 2, 'wide-range': 1}</t>
   </si>
   <si>
     <t>Girros Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': 1, 'Effluvia Resistance': 2}</t>
+    <t>{'free elem/ammo up': 1, 'effluvia resistance': 2}</t>
   </si>
   <si>
     <t>Girros Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': 1, 'Effluvia Resistance': 1}</t>
+    <t>{'free elem/ammo up': 1, 'effluvia resistance': 1}</t>
   </si>
   <si>
     <t>Dodogama Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Bombardier': 2, 'Blast Attack': 1}</t>
+    <t>{'bombardier': 2, 'blast attack': 1}</t>
   </si>
   <si>
     <t>Dodogama Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Bombardier': 1, 'Blast Attack': 1}</t>
+    <t>{'bombardier': 1, 'blast attack': 1}</t>
   </si>
   <si>
     <t>Kulu Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 1, 'Pro Transporter': 1}</t>
+    <t>{'critical boost': 1, 'pro transporter': 1}</t>
   </si>
   <si>
     <t>Kulu Vambraces Beta +</t>
@@ -1973,19 +1973,19 @@
     <t>Pukei Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 2, 'Survival Expert': 1}</t>
+    <t>{'peak performance': 2, 'survival expert': 1}</t>
   </si>
   <si>
     <t>Pukei Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 1, 'Survival Expert': 1}</t>
+    <t>{'peak performance': 1, 'survival expert': 1}</t>
   </si>
   <si>
     <t>Pukei Lagoon Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 1, 'Power Prolonger': 1}</t>
+    <t>{'partbreaker': 1, 'power prolonger': 1}</t>
   </si>
   <si>
     <t>Pukei Lagoon Braces Beta +</t>
@@ -1994,127 +1994,127 @@
     <t>Barroth Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 1, 'Guard': 1}</t>
+    <t>{'marathon runner': 1, 'guard': 1}</t>
   </si>
   <si>
     <t>Barroth Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 1}</t>
+    <t>{'marathon runner': 1}</t>
   </si>
   <si>
     <t>Jyura Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Water Attack': 2, 'Ice Resistance': 1}</t>
+    <t>{'water attack': 2, 'ice resistance': 1}</t>
   </si>
   <si>
     <t>Jyura Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Water Attack': 2}</t>
+    <t>{'water attack': 2}</t>
   </si>
   <si>
     <t>Beo Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Ice Attack': 2, 'Health Boost': 1}</t>
+    <t>{'ice attack': 2, 'health boost': 1}</t>
   </si>
   <si>
     <t>Beo Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Ice Attack': 2}</t>
+    <t>{'ice attack': 2}</t>
   </si>
   <si>
     <t>Kadachi Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 2, 'Thunder Attack': 2}</t>
+    <t>{'evade extender': 2, 'thunder attack': 2}</t>
   </si>
   <si>
     <t>Kadachi Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 1, 'Thunder Attack': 2}</t>
+    <t>{'evade extender': 1, 'thunder attack': 2}</t>
   </si>
   <si>
     <t>Viper Kadachi Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Poison Attack': 2, 'Evade Window': 1}</t>
+    <t>{'poison attack': 2, 'evade window': 1}</t>
   </si>
   <si>
     <t>Viper Kadachi Braces Beta +</t>
   </si>
   <si>
-    <t>{'Poison Attack': 1, 'Evade Window': 1}</t>
+    <t>{'poison attack': 1, 'evade window': 1}</t>
   </si>
   <si>
     <t>High Metal Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 2, 'Ice Attack': 2}</t>
+    <t>{'defense boost': 2, 'ice attack': 2}</t>
   </si>
   <si>
     <t>High Metal Braces Beta +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 2, 'Ice Attack': 1}</t>
+    <t>{'defense boost': 2, 'ice attack': 1}</t>
   </si>
   <si>
     <t>Banbaro Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Offensive Guard': 1, 'Health Boost': 2}</t>
+    <t>{'offensive guard': 1, 'health boost': 2}</t>
   </si>
   <si>
     <t>Banbaro Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Offensive Guard': 1, 'Health Boost': 1}</t>
+    <t>{'offensive guard': 1, 'health boost': 1}</t>
   </si>
   <si>
     <t>Anjanath Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Special Ammo Boost': 1, 'Fire Attack': 2}</t>
+    <t>{'special ammo boost': 1, 'fire attack': 2}</t>
   </si>
   <si>
     <t>Anjanath Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Special Ammo Boost': 1, 'Fire Attack': 1}</t>
+    <t>{'special ammo boost': 1, 'fire attack': 1}</t>
   </si>
   <si>
     <t>Fulgur Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 2, 'Thunder Attack': 2}</t>
+    <t>{'item prolonger': 2, 'thunder attack': 2}</t>
   </si>
   <si>
     <t>Fulgur Vambraces Beta Plus</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 2}</t>
+    <t>{'item prolonger': 2}</t>
   </si>
   <si>
     <t>Rathian Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Poison Attack': 2, 'Botanist': 1}</t>
+    <t>{'poison attack': 2, 'botanist': 1}</t>
   </si>
   <si>
     <t>Rathian Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Poison Attack': 2}</t>
+    <t>{'poison attack': 2}</t>
   </si>
   <si>
     <t>Rath Heart Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Windproof': 2, 'Handicraft': 1}</t>
+    <t>{'windproof': 2, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Rath Heart Braces Beta +</t>
@@ -2123,91 +2123,91 @@
     <t>Lumu Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Artillery': 2, 'Windproof': 1}</t>
+    <t>{'artillery': 2, 'windproof': 1}</t>
   </si>
   <si>
     <t>Lumu Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Artillery': 1, 'Windproof': 1}</t>
+    <t>{'artillery': 1, 'windproof': 1}</t>
   </si>
   <si>
     <t>Lumu Phantasm Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Maximum Might': 1, 'Sleep Attack': 1}</t>
+    <t>{'maximum might': 1, 'sleep attack': 1}</t>
   </si>
   <si>
     <t>Lumu Phantasm Braces Beta +</t>
   </si>
   <si>
-    <t>{'Maximum Might': 1}</t>
+    <t>{'maximum might': 1}</t>
   </si>
   <si>
     <t>Baan Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Sleep Attack': 2, 'Guard': 1}</t>
+    <t>{'sleep attack': 2, 'guard': 1}</t>
   </si>
   <si>
     <t>Baan Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Sleep Attack': 1, 'Guard': 1}</t>
+    <t>{'sleep attack': 1, 'guard': 1}</t>
   </si>
   <si>
     <t>Artian Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': 2, 'Tool Specialist': 1}</t>
+    <t>{'free elem/ammo up': 2, 'tool specialist': 1}</t>
   </si>
   <si>
     <t>Artian Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': 2}</t>
+    <t>{'free elem/ammo up': 2}</t>
   </si>
   <si>
     <t>Clockwork Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Bombardier': 3, 'Tremor Resistance': 1}</t>
+    <t>{'bombardier': 3, 'tremor resistance': 1}</t>
   </si>
   <si>
     <t>Clockwork Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Bombardier': 3}</t>
+    <t>{'bombardier': 3}</t>
   </si>
   <si>
     <t>Ingot Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Thunder Attack': 2}</t>
+    <t>{'health boost': 2, 'thunder attack': 2}</t>
   </si>
   <si>
     <t>Ingot Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Thunder Attack': 1}</t>
+    <t>{'health boost': 2, 'thunder attack': 1}</t>
   </si>
   <si>
     <t>Barioth Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Recovery Up': 2, 'Constitution': 2}</t>
+    <t>{'recovery up': 2, 'constitution': 2}</t>
   </si>
   <si>
     <t>Barioth Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Recovery Up': 2, 'Constitution': 1}</t>
+    <t>{'recovery up': 2, 'constitution': 1}</t>
   </si>
   <si>
     <t>Rathalos Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Jump Master': 1, 'Weakness Exploit': 1}</t>
+    <t>{'jump master': 1, 'weakness exploit': 1}</t>
   </si>
   <si>
     <t>Rathalos Vambraces Beta +</t>
@@ -2216,55 +2216,55 @@
     <t>Rath Soul Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 2, 'Windproof': 1}</t>
+    <t>{'partbreaker': 2, 'windproof': 1}</t>
   </si>
   <si>
     <t>Rath Soul Braces Beta +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 1, 'Windproof': 1}</t>
+    <t>{'partbreaker': 1, 'windproof': 1}</t>
   </si>
   <si>
     <t>Diablos Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Heroics': 3, 'Tremor Resistance': 1}</t>
+    <t>{'heroics': 3, 'tremor resistance': 1}</t>
   </si>
   <si>
     <t>Diablos Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Heroics': 2, 'Tremor Resistance': 1}</t>
+    <t>{'heroics': 2, 'tremor resistance': 1}</t>
   </si>
   <si>
     <t>Diablos Nero Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Slugger': 2, 'Marathon Runner': 1}</t>
+    <t>{'slugger': 2, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Diablos Nero Braces Beta +</t>
   </si>
   <si>
-    <t>{'Slugger': 1, 'Marathon Runner': 1}</t>
+    <t>{'slugger': 1, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Legiana Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Airborne': 1, 'Evade Window': 2}</t>
+    <t>{'airborne': 1, 'evade window': 2}</t>
   </si>
   <si>
     <t>Legiana Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Airborne': 1, 'Evade Window': 1}</t>
+    <t>{'airborne': 1, 'evade window': 1}</t>
   </si>
   <si>
     <t>Hoarcry Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 2, 'Hunger Resistance': 1}</t>
+    <t>{'critical draw': 2, 'hunger resistance': 1}</t>
   </si>
   <si>
     <t>Hoarcry Vambraces Beta +</t>
@@ -2273,55 +2273,55 @@
     <t>Odogaron Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Constitution': 2, 'Critical Eye': 1}</t>
+    <t>{'constitution': 2, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Odogaron Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Constitution': 1, 'Critical Eye': 1}</t>
+    <t>{'constitution': 1, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Death Garon Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 1, 'Dragon Attack': 2}</t>
+    <t>{'power prolonger': 1, 'dragon attack': 2}</t>
   </si>
   <si>
     <t>Death Garon Braces Beta +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 1, 'Dragon Attack': 1}</t>
+    <t>{'power prolonger': 1, 'dragon attack': 1}</t>
   </si>
   <si>
     <t>Lavasioth Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 2, 'Recovery Up': 1}</t>
+    <t>{'peak performance': 2, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Lavasioth Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 1, 'Recovery Up': 1}</t>
+    <t>{'peak performance': 1, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Uragaan Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Guard': 2, 'Iron Skin': 2}</t>
+    <t>{'guard': 2, 'iron skin': 2}</t>
   </si>
   <si>
     <t>Uragaan Vambraces Beta Plus</t>
   </si>
   <si>
-    <t>{'Guard': 2, 'Iron Skin': 1}</t>
+    <t>{'guard': 2, 'iron skin': 1}</t>
   </si>
   <si>
     <t>Nargacuga Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 2, 'Stealth': 2}</t>
+    <t>{'stamina surge': 2, 'stealth': 2}</t>
   </si>
   <si>
     <t>Nargacuga Vambraces Beta +</t>
@@ -2330,37 +2330,37 @@
     <t>Glavenus Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Maximun Might': 2, 'Focus': 1}</t>
+    <t>{'maximun might': 2, 'focus': 1}</t>
   </si>
   <si>
     <t>Glavenus Braces Beta +</t>
   </si>
   <si>
-    <t>{'Maximun Might': 1, 'Focus': 1}</t>
+    <t>{'maximun might': 1, 'focus': 1}</t>
   </si>
   <si>
     <t>Acidic Glavenus Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Stun Resistance': 2, 'Handicraft': 1}</t>
+    <t>{'stun resistance': 2, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Acidic Glavenus Braces Beta +</t>
   </si>
   <si>
-    <t>{'Stun Resistance': 2}</t>
+    <t>{'stun resistance': 2}</t>
   </si>
   <si>
     <t>Brachydios Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Blast Resistance': 2}</t>
+    <t>{'agitator': 2, 'blast resistance': 2}</t>
   </si>
   <si>
     <t>Brachydios Braces Beta +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Blast Resistance': 1}</t>
+    <t>{'agitator': 2, 'blast resistance': 1}</t>
   </si>
   <si>
     <t>Tigrex Braces Alpha +</t>
@@ -2369,13 +2369,13 @@
     <t>Tigrex Braces Beta +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 2, 'Attack Boost': 1}</t>
+    <t>{'speed eating': 2, 'attack boost': 1}</t>
   </si>
   <si>
     <t>Black Belt Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Wide-Range': 2, 'Horn Maestro': 2}</t>
+    <t>{'wide-range': 2, 'horn maestro': 2}</t>
   </si>
   <si>
     <t>Black Belt Braces Beta +</t>
@@ -2384,19 +2384,19 @@
     <t>Dober Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 2, 'Mushroomancer': 1}</t>
+    <t>{'stamina surge': 2, 'mushroomancer': 1}</t>
   </si>
   <si>
     <t>Dober Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 1, 'Mushroomancer': 1}</t>
+    <t>{'stamina surge': 1, 'mushroomancer': 1}</t>
   </si>
   <si>
     <t>Damascus Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Handicraft': 2, 'Speed Sharpening': 1}</t>
+    <t>{'handicraft': 2, 'speed sharpening': 1}</t>
   </si>
   <si>
     <t>Damascus Vambraces Beta +</t>
@@ -2405,7 +2405,7 @@
     <t>Pride Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 2, 'Earplugs': 1}</t>
+    <t>{'critical draw': 2, 'earplugs': 1}</t>
   </si>
   <si>
     <t>Pride Vambraces Beta +</t>
@@ -2414,7 +2414,7 @@
     <t>Esurient Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Thief': 2, 'Partbreaker': 1}</t>
+    <t>{'stamina thief': 2, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Esurient Vambraces Beta +</t>
@@ -2423,19 +2423,19 @@
     <t>Rimeguard Vembraces Alpha +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 1, 'Flinch Free': 2}</t>
+    <t>{'quick sheath': 1, 'flinch free': 2}</t>
   </si>
   <si>
     <t>Rimeguard Vembraces Beta +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 1, 'Flinch Free': 1}</t>
+    <t>{'quick sheath': 1, 'flinch free': 1}</t>
   </si>
   <si>
     <t>Fellshroud Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Recovery Up': 2, 'Speed Eating': 1}</t>
+    <t>{'recovery up': 2, 'speed eating': 1}</t>
   </si>
   <si>
     <t>Fellshroud Braces Beta +</t>
@@ -2444,19 +2444,19 @@
     <t>Kaiser Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 2, 'Heat Guard': 1}</t>
+    <t>{'weakness exploit': 2, 'heat guard': 1}</t>
   </si>
   <si>
     <t>Kaiser Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1, 'Heat Guard': 1}</t>
+    <t>{'weakness exploit': 1, 'heat guard': 1}</t>
   </si>
   <si>
     <t>Kushala Grip Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Window': 3}</t>
+    <t>{'evade window': 3}</t>
   </si>
   <si>
     <t>Kushala Grip Beta +</t>
@@ -2465,19 +2465,19 @@
     <t>Kirin Longarms Alpha +</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 3, 'Marathon Runner': 1}</t>
+    <t>{'thunder attack': 3, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Kirin Longarms Beta +</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 3}</t>
+    <t>{'thunder attack': 3}</t>
   </si>
   <si>
     <t>Tentacle Gloves Alpha +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 2, 'Maximum Might': 1}</t>
+    <t>{'tool specialist': 2, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Tentacle Gloves Beta +</t>
@@ -2486,7 +2486,7 @@
     <t>Shara Ishvalda Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 2, 'Coalescence': 1}</t>
+    <t>{'critical boost': 2, 'coalescence': 1}</t>
   </si>
   <si>
     <t>Shara Ishvalda Braces Beta +</t>
@@ -2495,19 +2495,19 @@
     <t>Zorah Claws Alpha +</t>
   </si>
   <si>
-    <t>{'Flinch Free': 2, 'Free Meal': 1}</t>
+    <t>{'flinch free': 2, 'free meal': 1}</t>
   </si>
   <si>
     <t>Zorah Claws Beta +</t>
   </si>
   <si>
-    <t>{'Flinch Free': 2}</t>
+    <t>{'flinch free': 2}</t>
   </si>
   <si>
     <t>Garuga Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 3}</t>
+    <t>{'earplugs': 3}</t>
   </si>
   <si>
     <t>Garuga Vambraces Beta +</t>
@@ -2516,67 +2516,67 @@
     <t>Zinogre Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Recover Speed': 2, 'Latent Power': 2}</t>
+    <t>{'recover speed': 2, 'latent power': 2}</t>
   </si>
   <si>
     <t>Zinogre Braces Beta +</t>
   </si>
   <si>
-    <t>{'Recover Speed': 1, 'Latent Power': 2}</t>
+    <t>{'recover speed': 1, 'latent power': 2}</t>
   </si>
   <si>
     <t>Empress Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 2, 'Blast Attack': 2}</t>
+    <t>{'tool specialist': 2, 'blast attack': 2}</t>
   </si>
   <si>
     <t>Empress Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 2, 'Blast Attack': 1}</t>
+    <t>{'tool specialist': 2, 'blast attack': 1}</t>
   </si>
   <si>
     <t>Guild Palace Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Offensive Guard': 2, 'Heroics': 1}</t>
+    <t>{'offensive guard': 2, 'heroics': 1}</t>
   </si>
   <si>
     <t>Guild Palace Braces Beta +</t>
   </si>
   <si>
-    <t>{'Offensive Guard': 3}</t>
+    <t>{'offensive guard': 3}</t>
   </si>
   <si>
     <t>Ruinous Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Attack Boost': 2}</t>
+    <t>{'agitator': 2, 'attack boost': 2}</t>
   </si>
   <si>
     <t>Ruinous Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Attack Boost': 1}</t>
+    <t>{'agitator': 2, 'attack boost': 1}</t>
   </si>
   <si>
     <t>Silver Solbraces Alpha +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 3, 'Windproof': 1}</t>
+    <t>{'slinger capacity': 3, 'windproof': 1}</t>
   </si>
   <si>
     <t>Silver Solbraces Beta +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 3}</t>
+    <t>{'slinger capacity': 3}</t>
   </si>
   <si>
     <t>Golden Lunebraces Alpha +</t>
   </si>
   <si>
-    <t>{'Resentment': 2, 'Poison Attack': 2}</t>
+    <t>{'resentment': 2, 'poison attack': 2}</t>
   </si>
   <si>
     <t>Golden Lunebraces Beta +</t>
@@ -2585,7 +2585,7 @@
     <t>Golden Kote Alpha +</t>
   </si>
   <si>
-    <t>{'Resentment': 1, 'Handicraft': 2}</t>
+    <t>{'resentment': 1, 'handicraft': 2}</t>
   </si>
   <si>
     <t>Golden Kote Beta +</t>
@@ -2594,7 +2594,7 @@
     <t>Rex Roar Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Health Boost': 3, 'Attack Boost': 2}</t>
+    <t>{'health boost': 3, 'attack boost': 2}</t>
   </si>
   <si>
     <t>Rex Roar Braces Beta +</t>
@@ -2603,19 +2603,19 @@
     <t>Guildwork Braces Alpha +</t>
   </si>
   <si>
-    <t>{'Geologist': 2, 'Botanist': 1}</t>
+    <t>{'geologist': 2, 'botanist': 1}</t>
   </si>
   <si>
     <t>Guildwork Braces Beta +</t>
   </si>
   <si>
-    <t>{'Geologist': 1, 'Botanist': 1}</t>
+    <t>{'geologist': 1, 'botanist': 1}</t>
   </si>
   <si>
     <t>Stygian Vambraces Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 2, 'Dragon Attack': 3}</t>
+    <t>{'partbreaker': 2, 'dragon attack': 3}</t>
   </si>
   <si>
     <t>Stygian Vambraces Beta +</t>
@@ -2624,19 +2624,19 @@
     <t>Claireâs Arms Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Evade Window': 1}</t>
+    <t>{'agitator': 2, 'evade window': 1}</t>
   </si>
   <si>
     <t>Leonâs Arms Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 1, 'Attack Boost': 2}</t>
+    <t>{'agitator': 1, 'attack boost': 2}</t>
   </si>
   <si>
     <t>Banuk Arms Alpha +</t>
   </si>
   <si>
-    <t>{'Focus': 1, 'Stamina Surge': 1}</t>
+    <t>{'focus': 1, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Safi Crested Vambraces Alpha +</t>
@@ -2645,13 +2645,13 @@
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 1, 'Maximum Might': 1}</t>
+    <t>{'blight resistance': 1, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Safi Crested Vambraces Beta +</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 1}</t>
+    <t>{'blight resistance': 1}</t>
   </si>
   <si>
     <t>Oolong Sleeves Alpha +</t>
@@ -2660,31 +2660,31 @@
     <t>Buff Arms Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 3, 'Resuscitate': 1}</t>
+    <t>{'attack boost': 3, 'resuscitate': 1}</t>
   </si>
   <si>
     <t>Bone Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Horn Maestro': 1, 'Partbreaker': 1}</t>
+    <t>{'horn maestro': 1, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Bone Coil Beta +</t>
   </si>
   <si>
-    <t>{'Horn Maestro': 1}</t>
+    <t>{'horn maestro': 1}</t>
   </si>
   <si>
     <t>Alloy Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Poison Resistance': 2, 'Windproof': 1}</t>
+    <t>{'poison resistance': 2, 'windproof': 1}</t>
   </si>
   <si>
     <t>Alloy Coil Beta +</t>
   </si>
   <si>
-    <t>{'Poison Resistance': 1, 'Windproof': 1}</t>
+    <t>{'poison resistance': 1, 'windproof': 1}</t>
   </si>
   <si>
     <t>Direwolf Coil</t>
@@ -2693,7 +2693,7 @@
     <t>Vespoid Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Paralysis Resistance': 2, 'Quick Sheath': 1}</t>
+    <t>{'paralysis resistance': 2, 'quick sheath': 1}</t>
   </si>
   <si>
     <t>Vespoid Coil Beta +</t>
@@ -2702,7 +2702,7 @@
     <t>Hornetaur Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1, 'Hunger Resistance': 1}</t>
+    <t>{'weakness exploit': 1, 'hunger resistance': 1}</t>
   </si>
   <si>
     <t>Hornetaur Coil Beta +</t>
@@ -2717,19 +2717,19 @@
     <t>[1, 2]</t>
   </si>
   <si>
-    <t>{'Recovery Up': 1, 'Speed Eating': 1}</t>
+    <t>{'recovery up': 1, 'speed eating': 1}</t>
   </si>
   <si>
     <t>Jagras Coil Beta +</t>
   </si>
   <si>
-    <t>{'Recovery Up': 1}</t>
+    <t>{'recovery up': 1}</t>
   </si>
   <si>
     <t>Tzitzi Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Wide-Range': 2, 'Water Attack': 2}</t>
+    <t>{'wide-range': 2, 'water attack': 2}</t>
   </si>
   <si>
     <t>Tzitzi Coil Beta +</t>
@@ -2738,7 +2738,7 @@
     <t>Girros Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Effluvial Expert': 1, 'Paralysis Attack': 2}</t>
+    <t>{'effluvial expert': 1, 'paralysis attack': 2}</t>
   </si>
   <si>
     <t>Girros Coil Beta +</t>
@@ -2747,19 +2747,19 @@
     <t>Dodogama Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Artillery': 2, 'Blast Resistance': 1}</t>
+    <t>{'artillery': 2, 'blast resistance': 1}</t>
   </si>
   <si>
     <t>Dodogama Coil Beta +</t>
   </si>
   <si>
-    <t>{'Artillery': 2}</t>
+    <t>{'artillery': 2}</t>
   </si>
   <si>
     <t>Kulu Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 2, 'Critical Eye': 1}</t>
+    <t>{'item prolonger': 2, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Kulu Coil Beta +</t>
@@ -2768,31 +2768,31 @@
     <t>Pukei Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 1, 'Poison Attack': 2}</t>
+    <t>{'item prolonger': 1, 'poison attack': 2}</t>
   </si>
   <si>
     <t>Pukei Coil Beta +</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 1, 'Poison Attack': 1}</t>
+    <t>{'item prolonger': 1, 'poison attack': 1}</t>
   </si>
   <si>
     <t>Pukei Lagoon Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Water Attack': 2, 'Partbreaker': 1}</t>
+    <t>{'water attack': 2, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Pukei Lagoon Coil Beta +</t>
   </si>
   <si>
-    <t>{'Water Attack': 1, 'Partbreaker': 1}</t>
+    <t>{'water attack': 1, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Barroth Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Guard': 1}</t>
+    <t>{'agitator': 2, 'guard': 1}</t>
   </si>
   <si>
     <t>Barroth Coil Beta +</t>
@@ -2801,25 +2801,25 @@
     <t>Jyura Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Ice Resistance': 2, 'Latent Power': 1}</t>
+    <t>{'ice resistance': 2, 'latent power': 1}</t>
   </si>
   <si>
     <t>Jyura Coil Beta +</t>
   </si>
   <si>
-    <t>{'Ice Resistance': 2}</t>
+    <t>{'ice resistance': 2}</t>
   </si>
   <si>
     <t>Beo Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Earplugs': 2}</t>
+    <t>{'health boost': 2, 'earplugs': 2}</t>
   </si>
   <si>
     <t>Beo Coil Beta +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Earplugs': 1}</t>
+    <t>{'health boost': 2, 'earplugs': 1}</t>
   </si>
   <si>
     <t>Kadachi Coil Alpha +</t>
@@ -2828,7 +2828,7 @@
     <t>[1, 3]</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 2, 'Thunder Resistance': 1}</t>
+    <t>{'thunder attack': 2, 'thunder resistance': 1}</t>
   </si>
   <si>
     <t>Kadachi Coil Beta +</t>
@@ -2837,19 +2837,19 @@
     <t>Viper Kadachi Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Constitution': 1, 'Quick Sheath': 1}</t>
+    <t>{'constitution': 1, 'quick sheath': 1}</t>
   </si>
   <si>
     <t>Viper Kadachi Coil Beta +</t>
   </si>
   <si>
-    <t>{'Constitution': 1}</t>
+    <t>{'constitution': 1}</t>
   </si>
   <si>
     <t>High Metal Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Capacity Boost': 1, 'Defense Boost': 2}</t>
+    <t>{'capacity boost': 1, 'defense boost': 2}</t>
   </si>
   <si>
     <t>High Metal Coil Beta +</t>
@@ -2858,25 +2858,25 @@
     <t>[2, 4]</t>
   </si>
   <si>
-    <t>{'Capacity Boost': 1, 'Defense Boost': 1}</t>
+    <t>{'capacity boost': 1, 'defense boost': 1}</t>
   </si>
   <si>
     <t>Banbaro Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Mushroomancer': 1, 'Offensive Guard': 1}</t>
+    <t>{'mushroomancer': 1, 'offensive guard': 1}</t>
   </si>
   <si>
     <t>Banbaro Coil Beta +</t>
   </si>
   <si>
-    <t>{'Mushroomancer': 1}</t>
+    <t>{'mushroomancer': 1}</t>
   </si>
   <si>
     <t>Anja Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Fire Resistance': 2, 'Artillery': 1}</t>
+    <t>{'fire resistance': 2, 'artillery': 1}</t>
   </si>
   <si>
     <t>Anja Coil Beta +</t>
@@ -2885,55 +2885,55 @@
     <t>Rathian Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Poison Resistance': 2, 'Health Boost': 1}</t>
+    <t>{'poison resistance': 2, 'health boost': 1}</t>
   </si>
   <si>
     <t>Rathian Coil Beta +</t>
   </si>
   <si>
-    <t>{'Poison Resistance': 1, 'Health Boost': 1}</t>
+    <t>{'poison resistance': 1, 'health boost': 1}</t>
   </si>
   <si>
     <t>Rath Heart Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Handicraft': 1, 'Poison Resistance': 2}</t>
+    <t>{'handicraft': 1, 'poison resistance': 2}</t>
   </si>
   <si>
     <t>Rath Heart Coil Beta +</t>
   </si>
   <si>
-    <t>{'Handicraft': 1, 'Poison Resistance': 1}</t>
+    <t>{'handicraft': 1, 'poison resistance': 1}</t>
   </si>
   <si>
     <t>Lumu Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Divine Blessing': 2, 'Windproof': 1}</t>
+    <t>{'divine blessing': 2, 'windproof': 1}</t>
   </si>
   <si>
     <t>Lumu Coil Beta +</t>
   </si>
   <si>
-    <t>{'Divine Blessing': 1, 'Windproof': 1}</t>
+    <t>{'divine blessing': 1, 'windproof': 1}</t>
   </si>
   <si>
     <t>Lumu Phantasm Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Sleep Attack': 2, 'Wide-Range': 1}</t>
+    <t>{'sleep attack': 2, 'wide-range': 1}</t>
   </si>
   <si>
     <t>Lumu Phantasm Coil Beta +</t>
   </si>
   <si>
-    <t>{'Sleep Attack': 2}</t>
+    <t>{'sleep attack': 2}</t>
   </si>
   <si>
     <t>Baan Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Guard': 2, 'Sleep Resistance': 2}</t>
+    <t>{'guard': 2, 'sleep resistance': 2}</t>
   </si>
   <si>
     <t>Baan Coil Beta +</t>
@@ -2942,19 +2942,19 @@
     <t>Artian Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 2, 'Critical Eye': 1}</t>
+    <t>{'tool specialist': 2, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Artian Coil Beta +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 1, 'Critical Eye': 1}</t>
+    <t>{'tool specialist': 1, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Clockwork Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 2, 'Sleep Functionality': 1}</t>
+    <t>{'partbreaker': 2, 'sleep functionality': 1}</t>
   </si>
   <si>
     <t>Clockwork Coil Beta +</t>
@@ -2963,19 +2963,19 @@
     <t>Ingot Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Windproof': 2, 'Free Elem/Ammo up': 1}</t>
+    <t>{'windproof': 2, 'free elem/ammo up': 1}</t>
   </si>
   <si>
     <t>Ingot Coil Beta +</t>
   </si>
   <si>
-    <t>{'Windproof': 1, 'Free Elem/Ammo up': 1}</t>
+    <t>{'windproof': 1, 'free elem/ammo up': 1}</t>
   </si>
   <si>
     <t>Barioth Faulds Alpha +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 1, 'Recovery Up': 1}</t>
+    <t>{'quick sheath': 1, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Barioth Faulds Beta +</t>
@@ -2984,19 +2984,19 @@
     <t>Nargacuga Faulds Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Window': 2, 'Stamina Surge': 1}</t>
+    <t>{'evade window': 2, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Nargacuga Faulds Beta +</t>
   </si>
   <si>
-    <t>{'Evade Window': 1, 'Stamina Surge': 1}</t>
+    <t>{'evade window': 1, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Glavenus Faulds Alpha +</t>
   </si>
   <si>
-    <t>{'Maximum Might': 2, 'Normal Shots': 1}</t>
+    <t>{'maximum might': 2, 'normal shots': 1}</t>
   </si>
   <si>
     <t>Glavenus Faulds Beta +</t>
@@ -3005,7 +3005,7 @@
     <t>Black Belt Tassets Alpha +</t>
   </si>
   <si>
-    <t>{'Recovery Up': 2, 'Marathon Runner': 1}</t>
+    <t>{'recovery up': 2, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Black Belt Tassets Beta +</t>
@@ -3014,7 +3014,7 @@
     <t>Tigrex Tassets Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 1, 'Free Meal': 1}</t>
+    <t>{'earplugs': 1, 'free meal': 1}</t>
   </si>
   <si>
     <t>Tigrex Tassets Beta +</t>
@@ -3023,13 +3023,13 @@
     <t>[4, 1, 2]</t>
   </si>
   <si>
-    <t>{'Earplugs': 1}</t>
+    <t>{'earplugs': 1}</t>
   </si>
   <si>
     <t>Brachydios Faulds Alpha +</t>
   </si>
   <si>
-    <t>{'Blast Attack': 2, 'Stamina Thief': 1}</t>
+    <t>{'blast attack': 2, 'stamina thief': 1}</t>
   </si>
   <si>
     <t>Brachydios Faulds Beta +</t>
@@ -3038,7 +3038,7 @@
     <t>Uragaan Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 1, 'Guard': 1}</t>
+    <t>{'partbreaker': 1, 'guard': 1}</t>
   </si>
   <si>
     <t>Uragaan Coil Beta +</t>
@@ -3047,7 +3047,7 @@
     <t>Diablos Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 2, 'Critical Draw': 1}</t>
+    <t>{'marathon runner': 2, 'critical draw': 1}</t>
   </si>
   <si>
     <t>Diablos Coil Beta +</t>
@@ -3056,7 +3056,7 @@
     <t>Rath Soul Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Windproof': 2, 'Piercing Shots': 1}</t>
+    <t>{'windproof': 2, 'piercing shots': 1}</t>
   </si>
   <si>
     <t>Rath Soul Coil Beta +</t>
@@ -3065,55 +3065,55 @@
     <t>Odogaron Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 3, 'Speed Sharpening': 1}</t>
+    <t>{'critical eye': 3, 'speed sharpening': 1}</t>
   </si>
   <si>
     <t>Odogaron Coil Beta +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 2}</t>
+    <t>{'critical eye': 2}</t>
   </si>
   <si>
     <t>Fulgur Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 2, 'Item Prolonger': 1}</t>
+    <t>{'weakness exploit': 2, 'item prolonger': 1}</t>
   </si>
   <si>
     <t>Fulgur Coil Beta +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1, 'Item Prolonger': 1}</t>
+    <t>{'weakness exploit': 1, 'item prolonger': 1}</t>
   </si>
   <si>
     <t>Rathalos Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Fire Attack': 2, 'Focus': 2}</t>
+    <t>{'fire attack': 2, 'focus': 2}</t>
   </si>
   <si>
     <t>Rathalos Coil Beta +</t>
   </si>
   <si>
-    <t>{'Fire Attack': 2}</t>
+    <t>{'fire attack': 2}</t>
   </si>
   <si>
     <t>Legiana Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Ice Attack': 2, 'Windproof': 2}</t>
+    <t>{'ice attack': 2, 'windproof': 2}</t>
   </si>
   <si>
     <t>Legiana Coil Beta +</t>
   </si>
   <si>
-    <t>{'Ice Attack': 2, 'Windproof': 1}</t>
+    <t>{'ice attack': 2, 'windproof': 1}</t>
   </si>
   <si>
     <t>Hoarcry Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 2, 'Focus': 1}</t>
+    <t>{'evade extender': 2, 'focus': 1}</t>
   </si>
   <si>
     <t>Hoarcry Coil Beta +</t>
@@ -3122,19 +3122,19 @@
     <t>Lavasioth Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 2, 'Recovery Up': 2}</t>
+    <t>{'quick sheath': 2, 'recovery up': 2}</t>
   </si>
   <si>
     <t>Lavasioth Coil Beta +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 2, 'Recovery Up': 1}</t>
+    <t>{'quick sheath': 2, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Acidic Glavenus Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Handicraft': 2, 'Iron Skin': 2}</t>
+    <t>{'handicraft': 2, 'iron skin': 2}</t>
   </si>
   <si>
     <t>Acidic Glavenus Coil Beta +</t>
@@ -3143,37 +3143,37 @@
     <t>Death Garon Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Dragon Attack': 2, 'Latent Power': 1}</t>
+    <t>{'dragon attack': 2, 'latent power': 1}</t>
   </si>
   <si>
     <t>Death Garon Coil Beta +</t>
   </si>
   <si>
-    <t>{'Dragon Attack': 2}</t>
+    <t>{'dragon attack': 2}</t>
   </si>
   <si>
     <t>Diablos Nero Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Slugger': 2, 'Partbreaker': 1}</t>
+    <t>{'slugger': 2, 'partbreaker': 1}</t>
   </si>
   <si>
     <t>Diablos Nero Coil Beta +</t>
   </si>
   <si>
-    <t>{'Slugger': 2}</t>
+    <t>{'slugger': 2}</t>
   </si>
   <si>
     <t>Dober Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 2, 'Stun Resistance': 2}</t>
+    <t>{'attack boost': 2, 'stun resistance': 2}</t>
   </si>
   <si>
     <t>Dober Coil Beta +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 1, 'Stun Resistance': 1}</t>
+    <t>{'attack boost': 1, 'stun resistance': 1}</t>
   </si>
   <si>
     <t>Damascus Coil Alpha +</t>
@@ -3182,7 +3182,7 @@
     <t>[2, 3]</t>
   </si>
   <si>
-    <t>{'Focus': 1, 'Guard': 1}</t>
+    <t>{'focus': 1, 'guard': 1}</t>
   </si>
   <si>
     <t>Damascus Coil Beta +</t>
@@ -3191,25 +3191,25 @@
     <t>[3, 1, 4]</t>
   </si>
   <si>
-    <t>{'Focus': 1}</t>
+    <t>{'focus': 1}</t>
   </si>
   <si>
     <t>Pride Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Bombardier': 2, 'Critical Draw': 1}</t>
+    <t>{'bombardier': 2, 'critical draw': 1}</t>
   </si>
   <si>
     <t>Pride Coil Beta +</t>
   </si>
   <si>
-    <t>{'Bombardier': 2}</t>
+    <t>{'bombardier': 2}</t>
   </si>
   <si>
     <t>Rimeguard Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Flinch Free': 1, 'Coalescence': 1}</t>
+    <t>{'flinch free': 1, 'coalescence': 1}</t>
   </si>
   <si>
     <t>Rimeguard Coil Beta +</t>
@@ -3218,7 +3218,7 @@
     <t>Zorah Spine Alpha +</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': 1, 'Artillery': 1}</t>
+    <t>{'tremor resistance': 1, 'artillery': 1}</t>
   </si>
   <si>
     <t>Zorah Spine Beta +</t>
@@ -3227,13 +3227,13 @@
     <t>[3, 4]</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': 1}</t>
+    <t>{'tremor resistance': 1}</t>
   </si>
   <si>
     <t>Shara Ishvalda Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Recovery Up': 1}</t>
+    <t>{'health boost': 2, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Shara Ishvalda Coil Beta +</t>
@@ -3242,43 +3242,43 @@
     <t>Tentacle Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Constitution': 2, 'Stamina Surge': 1}</t>
+    <t>{'constitution': 2, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Tentacle Coil Beta +</t>
   </si>
   <si>
-    <t>{'Constitution': 1, 'Stamina Surge': 1}</t>
+    <t>{'constitution': 1, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Kirin Hoop Alpha +</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 2, 'Free Elm/Ammo Up': 1}</t>
+    <t>{'blight resistance': 2, 'free elm/ammo up': 1}</t>
   </si>
   <si>
     <t>Kirin Hoop Beta +</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 2}</t>
+    <t>{'blight resistance': 2}</t>
   </si>
   <si>
     <t>Kushala Cocoon Alpha +</t>
   </si>
   <si>
-    <t>{'Ice Attack': 3, 'Evade Extender': 1}</t>
+    <t>{'ice attack': 3, 'evade extender': 1}</t>
   </si>
   <si>
     <t>Kushala Cocoon Beta +</t>
   </si>
   <si>
-    <t>{'Ice Attack': 3}</t>
+    <t>{'ice attack': 3}</t>
   </si>
   <si>
     <t>Kaiser Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Blast Attack': 2, 'Weakness Exploit': 1}</t>
+    <t>{'blast attack': 2, 'weakness exploit': 1}</t>
   </si>
   <si>
     <t>Kaiser Coil Beta +</t>
@@ -3287,19 +3287,19 @@
     <t>Fellshroud Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 2, 'Peak Performance': 1}</t>
+    <t>{'speed eating': 2, 'peak performance': 1}</t>
   </si>
   <si>
     <t>Fellshroud Coil Beta +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 2}</t>
+    <t>{'speed eating': 2}</t>
   </si>
   <si>
     <t>Esurient Faulds Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Thief': 2, 'Handicraft': 1}</t>
+    <t>{'stamina thief': 2, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Esurient Faulds Beta +</t>
@@ -3314,7 +3314,7 @@
     <t>Zinogre Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 1, 'Thunder Attack': 2}</t>
+    <t>{'power prolonger': 1, 'thunder attack': 2}</t>
   </si>
   <si>
     <t>Zinogre Coil Beta +</t>
@@ -3323,7 +3323,7 @@
     <t>Empress Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Health Boost': 2, 'Blast Attack': 2}</t>
+    <t>{'health boost': 2, 'blast attack': 2}</t>
   </si>
   <si>
     <t>Empress Coil Beta +</t>
@@ -3332,7 +3332,7 @@
     <t>Guild Palace Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 3, 'Resuscitate': 1}</t>
+    <t>{'agitator': 3, 'resuscitate': 1}</t>
   </si>
   <si>
     <t>Guild Palace Coil Beta +</t>
@@ -3341,7 +3341,7 @@
     <t>Ruinous Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 3, 'Earplugs': 1}</t>
+    <t>{'attack boost': 3, 'earplugs': 1}</t>
   </si>
   <si>
     <t>Ruinous Coil Beta +</t>
@@ -3350,31 +3350,31 @@
     <t>Golden Lunecoil Alpha +</t>
   </si>
   <si>
-    <t>{'Divine Blessing': 3}</t>
+    <t>{'divine blessing': 3}</t>
   </si>
   <si>
     <t>Golden Lunecoil Beta +</t>
   </si>
   <si>
-    <t>{'Diving Blessing': 3}</t>
+    <t>{'diving blessing': 3}</t>
   </si>
   <si>
     <t>Silver Solcoil Alpha +</t>
   </si>
   <si>
-    <t>{'Windproof': 2, 'Critical Boost': 1}</t>
+    <t>{'windproof': 2, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Silver Solcoil Beta +</t>
   </si>
   <si>
-    <t>{'Windproof': 1, 'Critical Boost': 1}</t>
+    <t>{'windproof': 1, 'critical boost': 1}</t>
   </si>
   <si>
     <t>Golden Obi Alpha +</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': 1, 'Handicraft': 1}</t>
+    <t>{'weakness exploit': 1, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Golden Obi Beta +</t>
@@ -3383,7 +3383,7 @@
     <t>Rex Roar Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Recovery Up': 3, 'Weakness Exploit': 1}</t>
+    <t>{'recovery up': 3, 'weakness exploit': 1}</t>
   </si>
   <si>
     <t>Rex Roar Coil Beta +</t>
@@ -3392,49 +3392,49 @@
     <t>Guildwork Waist Alpha +</t>
   </si>
   <si>
-    <t>{'Forager s Luck': 1, 'Detector': 1}</t>
+    <t>{'forager s luck': 1, 'detector': 1}</t>
   </si>
   <si>
     <t>Guildwork Waist Beta +</t>
   </si>
   <si>
-    <t>{'Forager s Luck': 1}</t>
+    <t>{'forager s luck': 1}</t>
   </si>
   <si>
     <t>Stygian Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Latent Power': 3, 'Earplugs': 2}</t>
+    <t>{'latent power': 3, 'earplugs': 2}</t>
   </si>
   <si>
     <t>Stygian Coil Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 3, 'Earplugs': 1}</t>
+    <t>{'latent power': 3, 'earplugs': 1}</t>
   </si>
   <si>
     <t>Claireâs Torso Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 1, 'Stamina Surge': 2}</t>
+    <t>{'agitator': 1, 'stamina surge': 2}</t>
   </si>
   <si>
     <t>Leonâs Torso Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 1, 'Attack Boost': 1}</t>
+    <t>{'agitator': 1, 'attack boost': 1}</t>
   </si>
   <si>
     <t>Banuk Coil Alpha +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 2, 'Aquatic/Polar Mobility': 1}</t>
+    <t>{'marathon runner': 2, 'aquatic/polar mobility': 1}</t>
   </si>
   <si>
     <t>Safi Crested Belt Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Window': 2, 'Maximum Might': 1}</t>
+    <t>{'evade window': 2, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Safi Crested Belt Beta +</t>
@@ -3443,19 +3443,19 @@
     <t>Oolong Waist Alpha +</t>
   </si>
   <si>
-    <t>{'Constitution': 3}</t>
+    <t>{'constitution': 3}</t>
   </si>
   <si>
     <t>Buff Waist Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Heroics': 3}</t>
+    <t>{'agitator': 2, 'heroics': 3}</t>
   </si>
   <si>
     <t>Bone Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Slugger': 1, 'Horn Maestro': 1}</t>
+    <t>{'slugger': 1, 'horn maestro': 1}</t>
   </si>
   <si>
     <t>Bone Greaves Beta +</t>
@@ -3464,13 +3464,13 @@
     <t>Alloy Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': 2, 'Windproof': 1}</t>
+    <t>{'speed sharpening': 2, 'windproof': 1}</t>
   </si>
   <si>
     <t>Alloy Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': 1, 'Windproof': 1}</t>
+    <t>{'speed sharpening': 1, 'windproof': 1}</t>
   </si>
   <si>
     <t>Direwolf Greaves</t>
@@ -3479,43 +3479,43 @@
     <t>Vespoid Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 1, 'Paralysis Resistance': 1}</t>
+    <t>{'critical draw': 1, 'paralysis resistance': 1}</t>
   </si>
   <si>
     <t>Vespoid Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 1}</t>
+    <t>{'critical draw': 1}</t>
   </si>
   <si>
     <t>Hornetaur Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Handicraft': 1, 'Dragon Attack': 1}</t>
+    <t>{'handicraft': 1, 'dragon attack': 1}</t>
   </si>
   <si>
     <t>Hornetaur Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Handicraft': 1}</t>
+    <t>{'handicraft': 1}</t>
   </si>
   <si>
     <t>Gajau Boots Alpha +</t>
   </si>
   <si>
-    <t>{'Aquatic/Polar Mobility': 2, 'Water Attack': 2}</t>
+    <t>{'aquatic/polar mobility': 2, 'water attack': 2}</t>
   </si>
   <si>
     <t>Gajau Boots Beta +</t>
   </si>
   <si>
-    <t>{'Aquatic/Polar Mobility': 1, 'Water Attack': 2}</t>
+    <t>{'aquatic/polar mobility': 1, 'water attack': 2}</t>
   </si>
   <si>
     <t>Jagras Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Free Meal': 1, 'Recovery Up': 1}</t>
+    <t>{'free meal': 1, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Jagras Greaves Beta +</t>
@@ -3524,67 +3524,67 @@
     <t>Tzitzi Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Sleep Resistance': 2, 'Wide-Range': 1}</t>
+    <t>{'sleep resistance': 2, 'wide-range': 1}</t>
   </si>
   <si>
     <t>Tzitzi Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Sleep Resistance': 1, 'Wide-Range': 1}</t>
+    <t>{'sleep resistance': 1, 'wide-range': 1}</t>
   </si>
   <si>
     <t>Girros Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Paralysis Attack': 2, 'Free Elem/Ammo Up': 1}</t>
+    <t>{'paralysis attack': 2, 'free elem/ammo up': 1}</t>
   </si>
   <si>
     <t>Girros Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Paralysis Attack': 2}</t>
+    <t>{'paralysis attack': 2}</t>
   </si>
   <si>
     <t>Dodogama Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Capacity Boost': 1, 'Blast Attack': 1}</t>
+    <t>{'capacity boost': 1, 'blast attack': 1}</t>
   </si>
   <si>
     <t>Dodogama Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Capacity Boost': 1}</t>
+    <t>{'capacity boost': 1}</t>
   </si>
   <si>
     <t>Kulu Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 2, 'Item Prolonger': 1}</t>
+    <t>{'critical eye': 2, 'item prolonger': 1}</t>
   </si>
   <si>
     <t>Kulu Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Critical Eye': 1, 'Item Prolonger': 1}</t>
+    <t>{'critical eye': 1, 'item prolonger': 1}</t>
   </si>
   <si>
     <t>Pukei Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Poison Resistance': 2, 'Poison Attack': 2}</t>
+    <t>{'poison resistance': 2, 'poison attack': 2}</t>
   </si>
   <si>
     <t>Pukei Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Poison Resistance': 2}</t>
+    <t>{'poison resistance': 2}</t>
   </si>
   <si>
     <t>Pukei Lagoon Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 2, 'Water Attack': 2}</t>
+    <t>{'item prolonger': 2, 'water attack': 2}</t>
   </si>
   <si>
     <t>Pukei Lagoon Greaves Beta +</t>
@@ -3593,7 +3593,7 @@
     <t>Barroth Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Stun Resistance': 2, 'Marathon Runner': 1}</t>
+    <t>{'stun resistance': 2, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Barroth Greaves Beta +</t>
@@ -3602,13 +3602,13 @@
     <t>Jyura Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Focus': 2, 'Water Attack': 1}</t>
+    <t>{'focus': 2, 'water attack': 1}</t>
   </si>
   <si>
     <t>Jyura Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Focus': 1, 'Water Attack': 1}</t>
+    <t>{'focus': 1, 'water attack': 1}</t>
   </si>
   <si>
     <t>Beo Greaves Alpha +</t>
@@ -3620,25 +3620,25 @@
     <t>Kadachi Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': 2, 'Constitution': 1}</t>
+    <t>{'thunder resistance': 2, 'constitution': 1}</t>
   </si>
   <si>
     <t>Kadachi Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': 2}</t>
+    <t>{'thunder resistance': 2}</t>
   </si>
   <si>
     <t>Viper Kadachi Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Window': 1, 'Constitution': 1}</t>
+    <t>{'evade window': 1, 'constitution': 1}</t>
   </si>
   <si>
     <t>Viper Kadachi Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Evade Window': 1}</t>
+    <t>{'evade window': 1}</t>
   </si>
   <si>
     <t>High Metal Greaves Alpha +</t>
@@ -3647,19 +3647,19 @@
     <t>[2, 2, 1]</t>
   </si>
   <si>
-    <t>{'Heavy Artillery': 2, 'Ice Resistance': 1}</t>
+    <t>{'heavy artillery': 2, 'ice resistance': 1}</t>
   </si>
   <si>
     <t>High Metal Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Heavy Artillery': 1, 'Ice Resistance': 1}</t>
+    <t>{'heavy artillery': 1, 'ice resistance': 1}</t>
   </si>
   <si>
     <t>Banbaro Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Mushroomancer': 1, 'Speed Eating': 1}</t>
+    <t>{'mushroomancer': 1, 'speed eating': 1}</t>
   </si>
   <si>
     <t>Banbaro Greaves Beta +</t>
@@ -3668,7 +3668,7 @@
     <t>Anjanath Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Artillery': 2, 'Marathon Runner': 1}</t>
+    <t>{'artillery': 2, 'marathon runner': 1}</t>
   </si>
   <si>
     <t>Anjanath Greaves Beta +</t>
@@ -3677,7 +3677,7 @@
     <t>Fulgur Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 2, 'Special Ammo Boost': 1}</t>
+    <t>{'thunder attack': 2, 'special ammo boost': 1}</t>
   </si>
   <si>
     <t>Fulgur Greaves Beta +</t>
@@ -3686,7 +3686,7 @@
     <t>Rathian Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Recovery Up': 2, 'Poison Resistance': 1}</t>
+    <t>{'recovery up': 2, 'poison resistance': 1}</t>
   </si>
   <si>
     <t>Rathian Greaves Beta +</t>
@@ -3695,19 +3695,19 @@
     <t>Rath Heart Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 1, 'Windproof': 1}</t>
+    <t>{'tool specialist': 1, 'windproof': 1}</t>
   </si>
   <si>
     <t>Rath Heart Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 1}</t>
+    <t>{'tool specialist': 1}</t>
   </si>
   <si>
     <t>Lumu Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Windproof': 2, 'Stamina Surge': 1}</t>
+    <t>{'windproof': 2, 'stamina surge': 1}</t>
   </si>
   <si>
     <t>Lumu Greaves Beta +</t>
@@ -3719,25 +3719,25 @@
     <t>Lumu Phantasm Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Sleep Resistance': 2}</t>
+    <t>{'sleep resistance': 2}</t>
   </si>
   <si>
     <t>Baan Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Bleeding Resistance': 2, 'Guard': 1}</t>
+    <t>{'bleeding resistance': 2, 'guard': 1}</t>
   </si>
   <si>
     <t>Baan Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Bleeding Resistance': 2}</t>
+    <t>{'bleeding resistance': 2}</t>
   </si>
   <si>
     <t>Artian Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Peak Performance': 2, 'Slinger Capacity': 1}</t>
+    <t>{'peak performance': 2, 'slinger capacity': 1}</t>
   </si>
   <si>
     <t>Artian Greaves Beta +</t>
@@ -3746,31 +3746,31 @@
     <t>Clockwork Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 1, 'Bombardier': 2}</t>
+    <t>{'critical boost': 1, 'bombardier': 2}</t>
   </si>
   <si>
     <t>Clockwork Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 1, 'Bombardier': 1}</t>
+    <t>{'critical boost': 1, 'bombardier': 1}</t>
   </si>
   <si>
     <t>Ingot Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 2, 'Free Elem/Ammo Up': 1}</t>
+    <t>{'defense boost': 2, 'free elem/ammo up': 1}</t>
   </si>
   <si>
     <t>Ingot Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 1, 'Free Elem/Ammo Up': 1}</t>
+    <t>{'defense boost': 1, 'free elem/ammo up': 1}</t>
   </si>
   <si>
     <t>Barioth Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Constitution': 2, 'Quick Sheath': 1}</t>
+    <t>{'constitution': 2, 'quick sheath': 1}</t>
   </si>
   <si>
     <t>Barioth Greaves Beta +</t>
@@ -3779,31 +3779,31 @@
     <t>Rathalos Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 2, 'Attack Boost': 2}</t>
+    <t>{'slinger capacity': 2, 'attack boost': 2}</t>
   </si>
   <si>
     <t>Rathalos Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 2, 'Attack Boost': 1}</t>
+    <t>{'slinger capacity': 2, 'attack boost': 1}</t>
   </si>
   <si>
     <t>Rath Soul Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 1, 'Windproof': 2}</t>
+    <t>{'critical boost': 1, 'windproof': 2}</t>
   </si>
   <si>
     <t>Rath Soul Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Critical Boost': 1, 'Windproof': 1}</t>
+    <t>{'critical boost': 1, 'windproof': 1}</t>
   </si>
   <si>
     <t>Diablos Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': 2, 'Slugger': 2}</t>
+    <t>{'tremor resistance': 2, 'slugger': 2}</t>
   </si>
   <si>
     <t>Diablos Greaves Beta +</t>
@@ -3812,7 +3812,7 @@
     <t>Diablos Nero Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Resentment': 2, 'Slugger': 1}</t>
+    <t>{'resentment': 2, 'slugger': 1}</t>
   </si>
   <si>
     <t>Diablos Nero Greaves Beta +</t>
@@ -3821,7 +3821,7 @@
     <t>Legiana Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Ice Resistance': 2, 'Critical Draw': 1}</t>
+    <t>{'ice resistance': 2, 'critical draw': 1}</t>
   </si>
   <si>
     <t>Legiana Greaves Beta +</t>
@@ -3830,7 +3830,7 @@
     <t>Hoarcry Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 2, 'Spread/Power Shots': 1}</t>
+    <t>{'marathon runner': 2, 'spread/power shots': 1}</t>
   </si>
   <si>
     <t>Hoarcry Greaves Beta +</t>
@@ -3839,19 +3839,19 @@
     <t>Odogaron Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 2, 'Critical Eye': 1}</t>
+    <t>{'quick sheath': 2, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Odogaron Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 1, 'Critical Eye': 1}</t>
+    <t>{'quick sheath': 1, 'critical eye': 1}</t>
   </si>
   <si>
     <t>Death Garon Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 2, 'Power Prolonger': 1}</t>
+    <t>{'tool specialist': 2, 'power prolonger': 1}</t>
   </si>
   <si>
     <t>Death Garon Greaves Beta +</t>
@@ -3860,19 +3860,19 @@
     <t>Lavasioth Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Spread/Power Shots': 1, 'Fire Attack': 2}</t>
+    <t>{'spread/power shots': 1, 'fire attack': 2}</t>
   </si>
   <si>
     <t>Lavasioth Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Spread/Power Shots': 1, 'Fire Attack': 1}</t>
+    <t>{'spread/power shots': 1, 'fire attack': 1}</t>
   </si>
   <si>
     <t>Uragaan Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Guard': 2, 'Offensive Guard': 1}</t>
+    <t>{'guard': 2, 'offensive guard': 1}</t>
   </si>
   <si>
     <t>Uragaan Greaves Beta +</t>
@@ -3881,7 +3881,7 @@
     <t>Nargacuga Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Window': 1, 'Peak Performance': 1}</t>
+    <t>{'evade window': 1, 'peak performance': 1}</t>
   </si>
   <si>
     <t>Nargacuga Greaves Beta +</t>
@@ -3890,7 +3890,7 @@
     <t>Glavenus Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Handicraft': 2, 'Heat Guard': 1}</t>
+    <t>{'handicraft': 2, 'heat guard': 1}</t>
   </si>
   <si>
     <t>Glavenus Greaves Beta +</t>
@@ -3905,19 +3905,19 @@
     <t>Brachydios Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Artillery': 2}</t>
+    <t>{'agitator': 2, 'artillery': 2}</t>
   </si>
   <si>
     <t>Brachydios Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Agitator': 2, 'Artillery': 1}</t>
+    <t>{'agitator': 2, 'artillery': 1}</t>
   </si>
   <si>
     <t>Tigrex Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 1, 'Free Meal': 1}</t>
+    <t>{'speed eating': 1, 'free meal': 1}</t>
   </si>
   <si>
     <t>Tigrex Greaves Beta +</t>
@@ -3926,7 +3926,7 @@
     <t>Black Belt Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Wide-Range': 2, 'Recovery Up': 1}</t>
+    <t>{'wide-range': 2, 'recovery up': 1}</t>
   </si>
   <si>
     <t>Black Belt Greaves Beta +</t>
@@ -3935,55 +3935,55 @@
     <t>Dober Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 2, 'Mushroomancer': 2}</t>
+    <t>{'attack boost': 2, 'mushroomancer': 2}</t>
   </si>
   <si>
     <t>Dober Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 1, 'Mushroomancer': 1}</t>
+    <t>{'attack boost': 1, 'mushroomancer': 1}</t>
   </si>
   <si>
     <t>Damascus Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 2, 'Guard': 2}</t>
+    <t>{'defense boost': 2, 'guard': 2}</t>
   </si>
   <si>
     <t>Damascus Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Defense Boost': 2, 'Guard': 1}</t>
+    <t>{'defense boost': 2, 'guard': 1}</t>
   </si>
   <si>
     <t>Pride Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 2, 'Jump Master': 1}</t>
+    <t>{'earplugs': 2, 'jump master': 1}</t>
   </si>
   <si>
     <t>Pride Greaves Beta Plus</t>
   </si>
   <si>
-    <t>{'Earplugs': 1, 'Jump Master': 1}</t>
+    <t>{'earplugs': 1, 'jump master': 1}</t>
   </si>
   <si>
     <t>Esurient Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 1, 'Stamina Thief': 2}</t>
+    <t>{'speed eating': 1, 'stamina thief': 2}</t>
   </si>
   <si>
     <t>Esurient Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Speed Eating': 1, 'Stamina Thief': 1}</t>
+    <t>{'speed eating': 1, 'stamina thief': 1}</t>
   </si>
   <si>
     <t>Rimeguard Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Critical Draw': 2, 'Coalescence': 1}</t>
+    <t>{'critical draw': 2, 'coalescence': 1}</t>
   </si>
   <si>
     <t>Rimeguard Greaves Beta +</t>
@@ -3992,31 +3992,31 @@
     <t>Fellshroud Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Effluvial Resistance': 2, 'Dragon Attack': 2}</t>
+    <t>{'effluvial resistance': 2, 'dragon attack': 2}</t>
   </si>
   <si>
     <t>Fellshroud Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Effluvial Resistance': 2}</t>
+    <t>{'effluvial resistance': 2}</t>
   </si>
   <si>
     <t>Kaiser Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Latent Power': 2, 'Blast Attack': 2}</t>
+    <t>{'latent power': 2, 'blast attack': 2}</t>
   </si>
   <si>
     <t>Kaiser Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Latent Power': 2, 'Blast Attack': 1}</t>
+    <t>{'latent power': 2, 'blast attack': 1}</t>
   </si>
   <si>
     <t>Kushala Crus Alpha +</t>
   </si>
   <si>
-    <t>{'Evade Extender': 2, 'Handicraft': 2}</t>
+    <t>{'evade extender': 2, 'handicraft': 2}</t>
   </si>
   <si>
     <t>Kushala Crus Beta +</t>
@@ -4025,7 +4025,7 @@
     <t>Kirin Leg Guards Alpha +</t>
   </si>
   <si>
-    <t>{'Free Elm/Ammo Up': 2, 'Critical Eye': 2}</t>
+    <t>{'free elm/ammo up': 2, 'critical eye': 2}</t>
   </si>
   <si>
     <t>Kirin Leg Guards Beta +</t>
@@ -4034,7 +4034,7 @@
     <t>Tentacle Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 2, 'Blight Resistance': 1}</t>
+    <t>{'stamina surge': 2, 'blight resistance': 1}</t>
   </si>
   <si>
     <t>Tentacle Greaves Beta +</t>
@@ -4043,19 +4043,19 @@
     <t>Shara Ishvalda Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 2, 'Defense Boost': 2}</t>
+    <t>{'partbreaker': 2, 'defense boost': 2}</t>
   </si>
   <si>
     <t>Shara Ishvalda Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Partbreaker': 1, 'Defense Boost': 1}</t>
+    <t>{'partbreaker': 1, 'defense boost': 1}</t>
   </si>
   <si>
     <t>Zorah Spurs Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 1, 'Handicraft': 1}</t>
+    <t>{'earplugs': 1, 'handicraft': 1}</t>
   </si>
   <si>
     <t>Zorah Spurs Beta +</t>
@@ -4067,7 +4067,7 @@
     <t>[3, 3]</t>
   </si>
   <si>
-    <t>{'Critical Eye': 2, 'Piercing Shots': 1}</t>
+    <t>{'critical eye': 2, 'piercing shots': 1}</t>
   </si>
   <si>
     <t>Garuga Greaves Beta +</t>
@@ -4076,31 +4076,31 @@
     <t>Zinogre Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 3, 'Latent Power': 2}</t>
+    <t>{'thunder attack': 3, 'latent power': 2}</t>
   </si>
   <si>
     <t>Zinogre Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 1, 'Latent Power': 2}</t>
+    <t>{'thunder attack': 1, 'latent power': 2}</t>
   </si>
   <si>
     <t>Empress Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Wide-Range': 3, 'Tool Specialist': 1}</t>
+    <t>{'wide-range': 3, 'tool specialist': 1}</t>
   </si>
   <si>
     <t>Empress Greaves Beta +</t>
   </si>
   <si>
-    <t>{'Wide-Range': 2, 'Tool Specialist': 1}</t>
+    <t>{'wide-range': 2, 'tool specialist': 1}</t>
   </si>
   <si>
     <t>Guild Palace Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Heroics': 3, 'Health Boost': 1}</t>
+    <t>{'heroics': 3, 'health boost': 1}</t>
   </si>
   <si>
     <t>Guild Palace Greaves Beta +</t>
@@ -4109,7 +4109,7 @@
     <t>Ruinous Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Earplugs': 2, 'Agitator': 1}</t>
+    <t>{'earplugs': 2, 'agitator': 1}</t>
   </si>
   <si>
     <t>Ruinous Greaves Beta +</t>
@@ -4124,7 +4124,7 @@
     <t>Silver Solgreaves Alpha +</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 2, 'Fire Attack': 2}</t>
+    <t>{'slinger capacity': 2, 'fire attack': 2}</t>
   </si>
   <si>
     <t>Silver Solgreaves Beta +</t>
@@ -4133,19 +4133,19 @@
     <t>Golden Hakama Alpha +</t>
   </si>
   <si>
-    <t>{'Resentment': 2, 'Attack Boost': 2}</t>
+    <t>{'resentment': 2, 'attack boost': 2}</t>
   </si>
   <si>
     <t>Golden Hakama Beta +</t>
   </si>
   <si>
-    <t>{'Resentment': 2, 'Attack Boost': 1}</t>
+    <t>{'resentment': 2, 'attack boost': 1}</t>
   </si>
   <si>
     <t>Rex Roar Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Agitator': 3, 'Weakness Exploit': 1}</t>
+    <t>{'agitator': 3, 'weakness exploit': 1}</t>
   </si>
   <si>
     <t>Rex Roar Greaves Beta +</t>
@@ -4154,7 +4154,7 @@
     <t>Guildwork Feet Alpha +</t>
   </si>
   <si>
-    <t>{'Flinch Free': 2, 'Geologist': 1}</t>
+    <t>{'flinch free': 2, 'geologist': 1}</t>
   </si>
   <si>
     <t>Guildwork Feet Beta +</t>
@@ -4163,7 +4163,7 @@
     <t>Stygian Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Focus': 2, 'Elderseal Boost': 1}</t>
+    <t>{'focus': 2, 'elderseal boost': 1}</t>
   </si>
   <si>
     <t>Stygian Greaves Beta +</t>
@@ -4175,19 +4175,19 @@
     <t>[1, 3, 4]</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 1, 'Normal Shots': 1}</t>
+    <t>{'stamina surge': 1, 'normal shots': 1}</t>
   </si>
   <si>
     <t>Leonâs Legs Alpha+</t>
   </si>
   <si>
-    <t>{'Agitator': 1, 'Spread/Power Shots': 1}</t>
+    <t>{'agitator': 1, 'spread/power shots': 1}</t>
   </si>
   <si>
     <t>Banuk Greaves Alpha +</t>
   </si>
   <si>
-    <t>{'Stamina Surge': 1, 'Resuscitate': 1}</t>
+    <t>{'stamina surge': 1, 'resuscitate': 1}</t>
   </si>
   <si>
     <t>Safi Crested Boots Alpha +</t>
@@ -4196,7 +4196,7 @@
     <t>[3, 2, 1]</t>
   </si>
   <si>
-    <t>{'Critical Boost': 1, 'Maximum Might': 1}</t>
+    <t>{'critical boost': 1, 'maximum might': 1}</t>
   </si>
   <si>
     <t>Safi Crested Boots Beta +</t>
@@ -4208,7 +4208,7 @@
     <t>Buff Legs Alpha +</t>
   </si>
   <si>
-    <t>{'Attack Boost': 3, 'Heroics': 2}</t>
+    <t>{'attack boost': 3, 'heroics': 2}</t>
   </si>
   <si>
     <t>Rarity</t>
@@ -4217,7 +4217,7 @@
     <t>Artillery Charm I</t>
   </si>
   <si>
-    <t>{'Artillery': 1}</t>
+    <t>{'artillery': 1}</t>
   </si>
   <si>
     <t>Artillery Charm II</t>
@@ -4226,7 +4226,7 @@
     <t>Artillery Charm III</t>
   </si>
   <si>
-    <t>{'Artillery': 3}</t>
+    <t>{'artillery': 3}</t>
   </si>
   <si>
     <t>Attack Charm I</t>
@@ -4238,19 +4238,19 @@
     <t>Attack Charm III</t>
   </si>
   <si>
-    <t>{'Attack Boost': 3}</t>
+    <t>{'attack boost': 3}</t>
   </si>
   <si>
     <t>Attack Charm IV</t>
   </si>
   <si>
-    <t>{'Attack Boost': 4}</t>
+    <t>{'attack boost': 4}</t>
   </si>
   <si>
     <t>Awakening Charm I</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': 1}</t>
+    <t>{'free elem/ammo up': 1}</t>
   </si>
   <si>
     <t>Awakening Charm II</t>
@@ -4259,13 +4259,13 @@
     <t>Awakening Charm III</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': 3}</t>
+    <t>{'free elem/ammo up': 3}</t>
   </si>
   <si>
     <t>Blast Charm I</t>
   </si>
   <si>
-    <t>{'Blast Resistance': 1}</t>
+    <t>{'blast resistance': 1}</t>
   </si>
   <si>
     <t>Blast Charm II</t>
@@ -4274,19 +4274,19 @@
     <t>Blast Charm III</t>
   </si>
   <si>
-    <t>{'Blast Resistance': 3}</t>
+    <t>{'blast resistance': 3}</t>
   </si>
   <si>
     <t>Blast Coating Charm</t>
   </si>
   <si>
-    <t>{'Blast Functionality': 1}</t>
+    <t>{'blast functionality': 1}</t>
   </si>
   <si>
     <t>Blaze Charm I</t>
   </si>
   <si>
-    <t>{'Fire Attack': 1}</t>
+    <t>{'fire attack': 1}</t>
   </si>
   <si>
     <t>Blaze Charm II</t>
@@ -4295,25 +4295,25 @@
     <t>Blaze Charm III</t>
   </si>
   <si>
-    <t>{'Fire Attack': 3}</t>
+    <t>{'fire attack': 3}</t>
   </si>
   <si>
     <t>Blaze Charm IV</t>
   </si>
   <si>
-    <t>{'Fire Attack': 4}</t>
+    <t>{'fire attack': 4}</t>
   </si>
   <si>
     <t>Blaze Charm V</t>
   </si>
   <si>
-    <t>{'Fire Attack': 5}</t>
+    <t>{'fire attack': 5}</t>
   </si>
   <si>
     <t>Bleed Charm I</t>
   </si>
   <si>
-    <t>{'Bleeding Resistance': 1}</t>
+    <t>{'bleeding resistance': 1}</t>
   </si>
   <si>
     <t>Bleed Charm II</t>
@@ -4322,13 +4322,13 @@
     <t>Bleed Charm III</t>
   </si>
   <si>
-    <t>{'Bleeding Resistance': 3}</t>
+    <t>{'bleeding resistance': 3}</t>
   </si>
   <si>
     <t>Blessing Charm I</t>
   </si>
   <si>
-    <t>{'Divine Blessing': 1}</t>
+    <t>{'divine blessing': 1}</t>
   </si>
   <si>
     <t>Blessing Charm II</t>
@@ -4346,7 +4346,7 @@
     <t>Blight Charm III</t>
   </si>
   <si>
-    <t>{'Blight Resistance': 3}</t>
+    <t>{'blight resistance': 3}</t>
   </si>
   <si>
     <t>Breaker Charm I</t>
@@ -4358,7 +4358,7 @@
     <t>Breaker Charm III</t>
   </si>
   <si>
-    <t>{'Partbreaker': 3}</t>
+    <t>{'partbreaker': 3}</t>
   </si>
   <si>
     <t>Bulwark Charm</t>
@@ -4367,31 +4367,31 @@
     <t>Botany Charm I</t>
   </si>
   <si>
-    <t>{'Botanist': 1}</t>
+    <t>{'botanist': 1}</t>
   </si>
   <si>
     <t>Botany Charm II</t>
   </si>
   <si>
-    <t>{'Botanist': 2}</t>
+    <t>{'botanist': 2}</t>
   </si>
   <si>
     <t>Botany Charm III</t>
   </si>
   <si>
-    <t>{'Botanist': 3}</t>
+    <t>{'botanist': 3}</t>
   </si>
   <si>
     <t>Botany Charm IV</t>
   </si>
   <si>
-    <t>{'Botanist': 4}</t>
+    <t>{'botanist': 4}</t>
   </si>
   <si>
     <t>Bombardier Charm I</t>
   </si>
   <si>
-    <t>{'Bombardier': 1}</t>
+    <t>{'bombardier': 1}</t>
   </si>
   <si>
     <t>Bombardier Charm II</t>
@@ -4412,7 +4412,7 @@
     <t>Challenger Charm I</t>
   </si>
   <si>
-    <t>{'Agitator': 1}</t>
+    <t>{'agitator': 1}</t>
   </si>
   <si>
     <t>Challenger Charm II</t>
@@ -4421,13 +4421,13 @@
     <t>Challenger Charm III</t>
   </si>
   <si>
-    <t>{'Agitator': 3}</t>
+    <t>{'agitator': 3}</t>
   </si>
   <si>
     <t>Challenger Charm IV</t>
   </si>
   <si>
-    <t>{'Agitator': 4}</t>
+    <t>{'agitator': 4}</t>
   </si>
   <si>
     <t>Clearmind Charm</t>
@@ -4436,7 +4436,7 @@
     <t>Defense Charm I</t>
   </si>
   <si>
-    <t>{'Defense Boost': 1}</t>
+    <t>{'defense boost': 1}</t>
   </si>
   <si>
     <t>Defense Charm II</t>
@@ -4448,19 +4448,19 @@
     <t>Defense Charm IV</t>
   </si>
   <si>
-    <t>{'Defense Boost': 4}</t>
+    <t>{'defense boost': 4}</t>
   </si>
   <si>
     <t>Defense Charm V</t>
   </si>
   <si>
-    <t>{'Defense Boost': 5}</t>
+    <t>{'defense boost': 5}</t>
   </si>
   <si>
     <t>Demolition Charm I</t>
   </si>
   <si>
-    <t>{'Blast Attack': 1}</t>
+    <t>{'blast attack': 1}</t>
   </si>
   <si>
     <t>Demolition Charm II</t>
@@ -4469,19 +4469,19 @@
     <t>Demolition Charm III</t>
   </si>
   <si>
-    <t>{'Blast Attack': 3}</t>
+    <t>{'blast attack': 3}</t>
   </si>
   <si>
     <t>Demolition Charm IV</t>
   </si>
   <si>
-    <t>{'Blast Attack': 4}</t>
+    <t>{'blast attack': 4}</t>
   </si>
   <si>
     <t>Dispersal Charm</t>
   </si>
   <si>
-    <t>{'Spread/Power Shots': 1}</t>
+    <t>{'spread/power shots': 1}</t>
   </si>
   <si>
     <t>Dispersal Charm II</t>
@@ -4490,19 +4490,19 @@
     <t>Dragon Charm I</t>
   </si>
   <si>
-    <t>{'Dragon Resistance': 1}</t>
+    <t>{'dragon resistance': 1}</t>
   </si>
   <si>
     <t>Dragon Charm II</t>
   </si>
   <si>
-    <t>{'Dragon Resistance': 2}</t>
+    <t>{'dragon resistance': 2}</t>
   </si>
   <si>
     <t>Dragon Charm III</t>
   </si>
   <si>
-    <t>{'Dragon Resistance': 3}</t>
+    <t>{'dragon resistance': 3}</t>
   </si>
   <si>
     <t>Draw Charm I</t>
@@ -4523,13 +4523,13 @@
     <t>Earplugs Charm IV</t>
   </si>
   <si>
-    <t>{'Earplugs': 4}</t>
+    <t>{'earplugs': 4}</t>
   </si>
   <si>
     <t>Enervate Charm I</t>
   </si>
   <si>
-    <t>{'Stamina Thief': 1}</t>
+    <t>{'stamina thief': 1}</t>
   </si>
   <si>
     <t>Enervate Charm II</t>
@@ -4538,7 +4538,7 @@
     <t>Enervate Charm III</t>
   </si>
   <si>
-    <t>{'Stamina Thief': 3}</t>
+    <t>{'stamina thief': 3}</t>
   </si>
   <si>
     <t>Evasion Charm I</t>
@@ -4553,7 +4553,7 @@
     <t>Evasion Charm IV</t>
   </si>
   <si>
-    <t>{'Evade Window': 4}</t>
+    <t>{'evade window': 4}</t>
   </si>
   <si>
     <t>Exploiter Charm I</t>
@@ -4565,7 +4565,7 @@
     <t>Extension Charm I</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 1}</t>
+    <t>{'item prolonger': 1}</t>
   </si>
   <si>
     <t>Extension Charm II</t>
@@ -4574,19 +4574,19 @@
     <t>Extension Charm III</t>
   </si>
   <si>
-    <t>{'Item Prolonger': 3}</t>
+    <t>{'item prolonger': 3}</t>
   </si>
   <si>
     <t>Fair Wind Charm</t>
   </si>
   <si>
-    <t>{'Attack Boost': 1, 'Divine Blessing': 1}</t>
+    <t>{'attack boost': 1, 'divine blessing': 1}</t>
   </si>
   <si>
     <t>Fire Charm I</t>
   </si>
   <si>
-    <t>{'Fire Resistance': 1}</t>
+    <t>{'fire resistance': 1}</t>
   </si>
   <si>
     <t>Fire Charm II</t>
@@ -4595,7 +4595,7 @@
     <t>Fire Charm III</t>
   </si>
   <si>
-    <t>{'Fire Resistance': 3}</t>
+    <t>{'fire resistance': 3}</t>
   </si>
   <si>
     <t>Fitness Charm I</t>
@@ -4604,7 +4604,7 @@
     <t>Fitness Charm II</t>
   </si>
   <si>
-    <t>{'Constitution': 2}</t>
+    <t>{'constitution': 2}</t>
   </si>
   <si>
     <t>Fitness Charm III</t>
@@ -4613,13 +4613,13 @@
     <t>Fitness Charm IV</t>
   </si>
   <si>
-    <t>{'Constitution': 4}</t>
+    <t>{'constitution': 4}</t>
   </si>
   <si>
     <t>Friendship Charm I</t>
   </si>
   <si>
-    <t>{'Wide Range': 1}</t>
+    <t>{'wide range': 1}</t>
   </si>
   <si>
     <t>Friendship Charm II</t>
@@ -4628,25 +4628,25 @@
     <t>Friendship Charm III</t>
   </si>
   <si>
-    <t>{'Wide-Range': 3}</t>
+    <t>{'wide-range': 3}</t>
   </si>
   <si>
     <t>Friendship Charm IV</t>
   </si>
   <si>
-    <t>{'Wide-Range': 4}</t>
+    <t>{'wide-range': 4}</t>
   </si>
   <si>
     <t>Friendship Charm V</t>
   </si>
   <si>
-    <t>{'Wide-Range': 5}</t>
+    <t>{'wide-range': 5}</t>
   </si>
   <si>
     <t>Frost Charm I</t>
   </si>
   <si>
-    <t>{'Ice Attack': 1}</t>
+    <t>{'ice attack': 1}</t>
   </si>
   <si>
     <t>Frost Charm II</t>
@@ -4658,25 +4658,25 @@
     <t>Frost Charm IV</t>
   </si>
   <si>
-    <t>{'Ice Attack': 4}</t>
+    <t>{'ice attack': 4}</t>
   </si>
   <si>
     <t>Frost Charm V</t>
   </si>
   <si>
-    <t>{'Ice Attack': 5}</t>
+    <t>{'ice attack': 5}</t>
   </si>
   <si>
     <t>Fortification Charm</t>
   </si>
   <si>
-    <t>{'Fortify': 1}</t>
+    <t>{'fortify': 1}</t>
   </si>
   <si>
     <t>Flood Charm I</t>
   </si>
   <si>
-    <t>{'Water Attack': 1}</t>
+    <t>{'water attack': 1}</t>
   </si>
   <si>
     <t>Flood Charm II</t>
@@ -4685,19 +4685,19 @@
     <t>Flood Charm III</t>
   </si>
   <si>
-    <t>{'Water Attack': 3}</t>
+    <t>{'water attack': 3}</t>
   </si>
   <si>
     <t>Flood Charm IV</t>
   </si>
   <si>
-    <t>{'Water Attack': 4}</t>
+    <t>{'water attack': 4}</t>
   </si>
   <si>
     <t>Flood Charm V</t>
   </si>
   <si>
-    <t>{'Water Attack': 5}</t>
+    <t>{'water attack': 5}</t>
   </si>
   <si>
     <t>Focus Charm I</t>
@@ -4709,7 +4709,7 @@
     <t>Focus Charm III</t>
   </si>
   <si>
-    <t>{'Focus': 3}</t>
+    <t>{'focus': 3}</t>
   </si>
   <si>
     <t>Fury Charm I</t>
@@ -4721,25 +4721,25 @@
     <t>Fury Charm III</t>
   </si>
   <si>
-    <t>{'Resentment': 3}</t>
+    <t>{'resentment': 3}</t>
   </si>
   <si>
     <t>Fury Charm IV</t>
   </si>
   <si>
-    <t>{'Resentment': 4}</t>
+    <t>{'resentment': 4}</t>
   </si>
   <si>
     <t>Gale Charm</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': 1, 'Airborne': 1}</t>
+    <t>{'affinity sliding': 1, 'airborne': 1}</t>
   </si>
   <si>
     <t>Gatherer's Charm</t>
   </si>
   <si>
-    <t>{'Master Gatherer': 1, 'Carving Pro': 1}</t>
+    <t>{'master gatherer': 1, 'carving pro': 1}</t>
   </si>
   <si>
     <t>Geomancy Charm</t>
@@ -4748,19 +4748,19 @@
     <t>Geology Charm I</t>
   </si>
   <si>
-    <t>{'Geologist': 1}</t>
+    <t>{'geologist': 1}</t>
   </si>
   <si>
     <t>Geology Charm II</t>
   </si>
   <si>
-    <t>{'Geologist': 2}</t>
+    <t>{'geologist': 2}</t>
   </si>
   <si>
     <t>Geology Charm III</t>
   </si>
   <si>
-    <t>{'Geologist': 3}</t>
+    <t>{'geologist': 3}</t>
   </si>
   <si>
     <t>Glutton's Charm I</t>
@@ -4772,37 +4772,37 @@
     <t>Glutton's Charm III</t>
   </si>
   <si>
-    <t>{'Speed Eating': 3}</t>
+    <t>{'speed eating': 3}</t>
   </si>
   <si>
     <t>Guard Charm I</t>
   </si>
   <si>
-    <t>{'Iron Skin': 1}</t>
+    <t>{'iron skin': 1}</t>
   </si>
   <si>
     <t>Guard Charm II</t>
   </si>
   <si>
-    <t>{'Iron Skin': 2}</t>
+    <t>{'iron skin': 2}</t>
   </si>
   <si>
     <t>Guard Charm III</t>
   </si>
   <si>
-    <t>{'Iron Skin': 3}</t>
+    <t>{'iron skin': 3}</t>
   </si>
   <si>
     <t>Guardian Charm</t>
   </si>
   <si>
-    <t>{'Offensive Guard': 1}</t>
+    <t>{'offensive guard': 1}</t>
   </si>
   <si>
     <t>Guardian Charm II</t>
   </si>
   <si>
-    <t>{'Offensive Guard': 2}</t>
+    <t>{'offensive guard': 2}</t>
   </si>
   <si>
     <t>Guardian Charm III</t>
@@ -4820,13 +4820,13 @@
     <t>Handicraft Charm IV</t>
   </si>
   <si>
-    <t>{'Handicraft': 4}</t>
+    <t>{'handicraft': 4}</t>
   </si>
   <si>
     <t>Health Charm I</t>
   </si>
   <si>
-    <t>{'Health Boost': 1}</t>
+    <t>{'health boost': 1}</t>
   </si>
   <si>
     <t>Health Charm II</t>
@@ -4835,13 +4835,13 @@
     <t>Health Charm III</t>
   </si>
   <si>
-    <t>{'Health Boost': 3}</t>
+    <t>{'health boost': 3}</t>
   </si>
   <si>
     <t>Hungerless Charm I</t>
   </si>
   <si>
-    <t>{'Hunger Resistance': 1}</t>
+    <t>{'hunger resistance': 1}</t>
   </si>
   <si>
     <t>Hungerless Charm II</t>
@@ -4850,25 +4850,25 @@
     <t>Hungerless Charm III</t>
   </si>
   <si>
-    <t>{'Hunger Resistance': 3}</t>
+    <t>{'hunger resistance': 3}</t>
   </si>
   <si>
     <t>Heavy Artillery Charm I</t>
   </si>
   <si>
-    <t>{'Heavy Artillery': 1}</t>
+    <t>{'heavy artillery': 1}</t>
   </si>
   <si>
     <t>Heavy Artillery Charm II</t>
   </si>
   <si>
-    <t>{'Heavy Artillery': 2}</t>
+    <t>{'heavy artillery': 2}</t>
   </si>
   <si>
     <t>Hunter's Life Charm</t>
   </si>
   <si>
-    <t>{'BBQ Master': 1, 'Master Fisher': 1}</t>
+    <t>{'bbq master': 1, 'master fisher': 1}</t>
   </si>
   <si>
     <t>Invigorate Charm I</t>
@@ -4877,55 +4877,55 @@
     <t>Invigorate Charm II</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 2}</t>
+    <t>{'power prolonger': 2}</t>
   </si>
   <si>
     <t>Invigorate Charm III</t>
   </si>
   <si>
-    <t>{'Power Prolonger': 3}</t>
+    <t>{'power prolonger': 3}</t>
   </si>
   <si>
     <t>Insect Charm I</t>
   </si>
   <si>
-    <t>{'Entomologist': 1}</t>
+    <t>{'entomologist': 1}</t>
   </si>
   <si>
     <t>Insect Charm II</t>
   </si>
   <si>
-    <t>{'Entomologist': 2}</t>
+    <t>{'entomologist': 2}</t>
   </si>
   <si>
     <t>Insect Charm III</t>
   </si>
   <si>
-    <t>{'Entomologist': 3}</t>
+    <t>{'entomologist': 3}</t>
   </si>
   <si>
     <t>Intimidator Charm I</t>
   </si>
   <si>
-    <t>{'Intimidator': 1}</t>
+    <t>{'intimidator': 1}</t>
   </si>
   <si>
     <t>Intimidator Charm II</t>
   </si>
   <si>
-    <t>{'Intimidator': 2}</t>
+    <t>{'intimidator': 2}</t>
   </si>
   <si>
     <t>Intimidator Charm III</t>
   </si>
   <si>
-    <t>{'Intimidator': 3}</t>
+    <t>{'intimidator': 3}</t>
   </si>
   <si>
     <t>Ice Charm I</t>
   </si>
   <si>
-    <t>{'Ice Resistance': 1}</t>
+    <t>{'ice resistance': 1}</t>
   </si>
   <si>
     <t>Ice Charm II</t>
@@ -4943,7 +4943,7 @@
     <t>Impact Charm III</t>
   </si>
   <si>
-    <t>{'Flinch Free': 3}</t>
+    <t>{'flinch free': 3}</t>
   </si>
   <si>
     <t>Immobilize Charm I</t>
@@ -4955,19 +4955,19 @@
     <t>Immobilize Charm III</t>
   </si>
   <si>
-    <t>{'Paralysis Attack': 3}</t>
+    <t>{'paralysis attack': 3}</t>
   </si>
   <si>
     <t>Immobilize Charm IV</t>
   </si>
   <si>
-    <t>{'Paralysis Attack': 4}</t>
+    <t>{'paralysis attack': 4}</t>
   </si>
   <si>
     <t>Ironside Charm I</t>
   </si>
   <si>
-    <t>{'Guard': 1}</t>
+    <t>{'guard': 1}</t>
   </si>
   <si>
     <t>Ironside Charm II</t>
@@ -4976,43 +4976,43 @@
     <t>Ironside Charm III</t>
   </si>
   <si>
-    <t>{'Guard': 3}</t>
+    <t>{'guard': 3}</t>
   </si>
   <si>
     <t>Ironside Charm IV</t>
   </si>
   <si>
-    <t>{'Guard': 4}</t>
+    <t>{'guard': 4}</t>
   </si>
   <si>
     <t>Ironside Charm V</t>
   </si>
   <si>
-    <t>{'Guard': 5}</t>
+    <t>{'guard': 5}</t>
   </si>
   <si>
     <t>Grit Charm I</t>
   </si>
   <si>
-    <t>{'Heroics': 1}</t>
+    <t>{'heroics': 1}</t>
   </si>
   <si>
     <t>Grit Charm II</t>
   </si>
   <si>
-    <t>{'Heroics': 2}</t>
+    <t>{'heroics': 2}</t>
   </si>
   <si>
     <t>Grit Charm III</t>
   </si>
   <si>
-    <t>{'Heroics': 3}</t>
+    <t>{'heroics': 3}</t>
   </si>
   <si>
     <t>Grit Charm IV</t>
   </si>
   <si>
-    <t>{'Heroics': 4}</t>
+    <t>{'heroics': 4}</t>
   </si>
   <si>
     <t>KO Charm I</t>
@@ -5024,13 +5024,13 @@
     <t>KO Charm III</t>
   </si>
   <si>
-    <t>{'Slugger': 3}</t>
+    <t>{'slugger': 3}</t>
   </si>
   <si>
     <t>Leaping Charm I</t>
   </si>
   <si>
-    <t>{'Evade Extender': 1}</t>
+    <t>{'evade extender': 1}</t>
   </si>
   <si>
     <t>Leaping Charm II</t>
@@ -5048,13 +5048,13 @@
     <t>Marathon Charm III</t>
   </si>
   <si>
-    <t>{'Marathon Runner': 3}</t>
+    <t>{'marathon runner': 3}</t>
   </si>
   <si>
     <t>Master's Charm I</t>
   </si>
   <si>
-    <t>{'Critical Eye': 1}</t>
+    <t>{'critical eye': 1}</t>
   </si>
   <si>
     <t>Master's Charm II</t>
@@ -5066,7 +5066,7 @@
     <t>Master's Charm IV</t>
   </si>
   <si>
-    <t>{'Critical Eye': 4}</t>
+    <t>{'critical eye': 4}</t>
   </si>
   <si>
     <t>Maintenance Charm I</t>
@@ -5078,25 +5078,25 @@
     <t>Maintenance Charm III</t>
   </si>
   <si>
-    <t>{'Tool Specialist': 3}</t>
+    <t>{'tool specialist': 3}</t>
   </si>
   <si>
     <t>Miasma Charm I</t>
   </si>
   <si>
-    <t>{'Effluvia Resistance': 1}</t>
+    <t>{'effluvia resistance': 1}</t>
   </si>
   <si>
     <t>Miasma Charm II</t>
   </si>
   <si>
-    <t>{'Effluvia Resistance': 2}</t>
+    <t>{'effluvia resistance': 2}</t>
   </si>
   <si>
     <t>Miasma Charm III</t>
   </si>
   <si>
-    <t>{'Effluvia Resistance': 3}</t>
+    <t>{'effluvia resistance': 3}</t>
   </si>
   <si>
     <t>Mighty Charm I</t>
@@ -5108,7 +5108,7 @@
     <t>Mud Puppy Charm</t>
   </si>
   <si>
-    <t>{'Muck Resistance': 1, 'Leap of Faith': 1}</t>
+    <t>{'muck resistance': 1, 'leap of faith': 1}</t>
   </si>
   <si>
     <t>Mushroom Charm I</t>
@@ -5120,43 +5120,43 @@
     <t>Mirewalker Charm I</t>
   </si>
   <si>
-    <t>{'Aquatic Expert': 1}</t>
+    <t>{'aquatic expert': 1}</t>
   </si>
   <si>
     <t>Mirewalker Charm II</t>
   </si>
   <si>
-    <t>{'Aquatic Expert': 2}</t>
+    <t>{'aquatic expert': 2}</t>
   </si>
   <si>
     <t>Mirewalker Charm III</t>
   </si>
   <si>
-    <t>{'Aquatic Expert': 3}</t>
+    <t>{'aquatic expert': 3}</t>
   </si>
   <si>
     <t>Normal Shots Charm</t>
   </si>
   <si>
-    <t>{'Normal Shots': 1}</t>
+    <t>{'normal shots': 1}</t>
   </si>
   <si>
     <t>Normal Shots Charm II</t>
   </si>
   <si>
-    <t>{'Normal Shots': 2}</t>
+    <t>{'normal shots': 2}</t>
   </si>
   <si>
     <t>Para Coating Charm</t>
   </si>
   <si>
-    <t>{'Para Functionality': 1}</t>
+    <t>{'para functionality': 1}</t>
   </si>
   <si>
     <t>Paralysis Charm I</t>
   </si>
   <si>
-    <t>{'Paralysis Resistance': 1}</t>
+    <t>{'paralysis resistance': 1}</t>
   </si>
   <si>
     <t>Paralysis Charm II</t>
@@ -5165,25 +5165,25 @@
     <t>Paralysis Charm III</t>
   </si>
   <si>
-    <t>{'Paralysis Resistance': 3}</t>
+    <t>{'paralysis resistance': 3}</t>
   </si>
   <si>
     <t>Penetration Charm</t>
   </si>
   <si>
-    <t>{'Piercing Shots': 1}</t>
+    <t>{'piercing shots': 1}</t>
   </si>
   <si>
     <t>Penetration Charm II</t>
   </si>
   <si>
-    <t>{'Piercing Shots': 2}</t>
+    <t>{'piercing shots': 2}</t>
   </si>
   <si>
     <t>Phoenix Charm I</t>
   </si>
   <si>
-    <t>{'Coalescence': 1}</t>
+    <t>{'coalescence': 1}</t>
   </si>
   <si>
     <t>Phoenix Charm II</t>
@@ -5192,13 +5192,13 @@
     <t>Poison Coating Charm</t>
   </si>
   <si>
-    <t>{'Poison Functionality': 1}</t>
+    <t>{'poison functionality': 1}</t>
   </si>
   <si>
     <t>Poison Charm I</t>
   </si>
   <si>
-    <t>{'Poison Resistance': 1}</t>
+    <t>{'poison resistance': 1}</t>
   </si>
   <si>
     <t>Poison Charm II</t>
@@ -5207,7 +5207,7 @@
     <t>Poison Charm III</t>
   </si>
   <si>
-    <t>{'Poison Resistance': 3}</t>
+    <t>{'poison resistance': 3}</t>
   </si>
   <si>
     <t>Power Charm I</t>
@@ -5216,7 +5216,7 @@
     <t>Procurer's Charm</t>
   </si>
   <si>
-    <t>{'Pro Transporter': 1, 'Honey Hunter': 1}</t>
+    <t>{'pro transporter': 1, 'honey hunter': 1}</t>
   </si>
   <si>
     <t>Performer's Charm</t>
@@ -5225,31 +5225,31 @@
     <t>Rally Charm I</t>
   </si>
   <si>
-    <t>{'Palico Rally': 1}</t>
+    <t>{'palico rally': 1}</t>
   </si>
   <si>
     <t>Rally Charm II</t>
   </si>
   <si>
-    <t>{'Palico Rally': 2}</t>
+    <t>{'palico rally': 2}</t>
   </si>
   <si>
     <t>Rally Charm III</t>
   </si>
   <si>
-    <t>{'Palico Rally': 3}</t>
+    <t>{'palico rally': 3}</t>
   </si>
   <si>
     <t>Rally Charm IV</t>
   </si>
   <si>
-    <t>{'Palico Rally': 4}</t>
+    <t>{'palico rally': 4}</t>
   </si>
   <si>
     <t>Rally Charm V</t>
   </si>
   <si>
-    <t>{'Palico Rally': 5}</t>
+    <t>{'palico rally': 5}</t>
   </si>
   <si>
     <t>Recovery Charm I</t>
@@ -5261,19 +5261,19 @@
     <t>Recovery Charm III</t>
   </si>
   <si>
-    <t>{'Recovery Up': 3}</t>
+    <t>{'recovery up': 3}</t>
   </si>
   <si>
     <t>Rider's Charm</t>
   </si>
   <si>
-    <t>{'Master Mounter': 1, 'Jump Master': 1}</t>
+    <t>{'master mounter': 1, 'jump master': 1}</t>
   </si>
   <si>
     <t>Shock Charm I</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 1}</t>
+    <t>{'thunder attack': 1}</t>
   </si>
   <si>
     <t>Shock Charm II</t>
@@ -5285,13 +5285,13 @@
     <t>Shock Charm IV</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 4}</t>
+    <t>{'thunder attack': 4}</t>
   </si>
   <si>
     <t>Shock Charm V</t>
   </si>
   <si>
-    <t>{'Thunder Attack': 5}</t>
+    <t>{'thunder attack': 5}</t>
   </si>
   <si>
     <t>Sheath Charm I</t>
@@ -5303,19 +5303,19 @@
     <t>Sheath Charm III</t>
   </si>
   <si>
-    <t>{'Quick Sheath': 3}</t>
+    <t>{'quick sheath': 3}</t>
   </si>
   <si>
     <t>Sleep Charm I</t>
   </si>
   <si>
-    <t>{'Sleep Resistance': 1}</t>
+    <t>{'sleep resistance': 1}</t>
   </si>
   <si>
     <t>Sleep Charm II</t>
   </si>
   <si>
-    <t>{'Sleep Resistance': 3}</t>
+    <t>{'sleep resistance': 3}</t>
   </si>
   <si>
     <t>Sleep Charm III</t>
@@ -5324,13 +5324,13 @@
     <t>Sleep Coating Charm</t>
   </si>
   <si>
-    <t>{'Sleep Functionality': 1}</t>
+    <t>{'sleep functionality': 1}</t>
   </si>
   <si>
     <t>Slinger Charm I</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': 1}</t>
+    <t>{'slinger capacity': 1}</t>
   </si>
   <si>
     <t>Slinger Charm II</t>
@@ -5342,73 +5342,73 @@
     <t>Speed Heal Charm I</t>
   </si>
   <si>
-    <t>{'Recovery Speed': 1}</t>
+    <t>{'recovery speed': 1}</t>
   </si>
   <si>
     <t>Speed Heal Charm II</t>
   </si>
   <si>
-    <t>{'Recovery Speed': 2}</t>
+    <t>{'recovery speed': 2}</t>
   </si>
   <si>
     <t>Speed Heal Charm III</t>
   </si>
   <si>
-    <t>{'Recovery Speed': 3}</t>
+    <t>{'recovery speed': 3}</t>
   </si>
   <si>
     <t>Special Shot Charm</t>
   </si>
   <si>
-    <t>{'Special Ammo Boost': 1}</t>
+    <t>{'special ammo boost': 1}</t>
   </si>
   <si>
     <t>Special Shot Charm II</t>
   </si>
   <si>
-    <t>{'Special Ammo Boost': 2}</t>
+    <t>{'special ammo boost': 2}</t>
   </si>
   <si>
     <t>Stealth Charm I</t>
   </si>
   <si>
-    <t>{'Stealth': 1}</t>
+    <t>{'stealth': 1}</t>
   </si>
   <si>
     <t>Stealth Charm II</t>
   </si>
   <si>
-    <t>{'Stealth': 2}</t>
+    <t>{'stealth': 2}</t>
   </si>
   <si>
     <t>Stealth Charm III</t>
   </si>
   <si>
-    <t>{'Stealth': 3}</t>
+    <t>{'stealth': 3}</t>
   </si>
   <si>
     <t>Smoke Charm I</t>
   </si>
   <si>
-    <t>{'Sporepuff Expert': 1}</t>
+    <t>{'sporepuff expert': 1}</t>
   </si>
   <si>
     <t>Smoke Charm II</t>
   </si>
   <si>
-    <t>{'Sporepuff Expert': 2}</t>
+    <t>{'sporepuff expert': 2}</t>
   </si>
   <si>
     <t>Smoke Charm III</t>
   </si>
   <si>
-    <t>{'Sporepuff Expert': 3}</t>
+    <t>{'sporepuff expert': 3}</t>
   </si>
   <si>
     <t>Stun Charm I</t>
   </si>
   <si>
-    <t>{'Stun Resistance': 1}</t>
+    <t>{'stun resistance': 1}</t>
   </si>
   <si>
     <t>Stun Charm II</t>
@@ -5417,13 +5417,13 @@
     <t>Stun Charm III</t>
   </si>
   <si>
-    <t>{'Stun Resistance': 3}</t>
+    <t>{'stun resistance': 3}</t>
   </si>
   <si>
     <t>Surveyor's Charm</t>
   </si>
   <si>
-    <t>{'Scoutfly Range Up': 1, 'Scholar': 1}</t>
+    <t>{'scoutfly range up': 1, 'scholar': 1}</t>
   </si>
   <si>
     <t>Surge Charm I</t>
@@ -5441,13 +5441,13 @@
     <t>Tranq Charm III</t>
   </si>
   <si>
-    <t>{'Sleep Attack': 3}</t>
+    <t>{'sleep attack': 3}</t>
   </si>
   <si>
     <t>Tranq Charm IV</t>
   </si>
   <si>
-    <t>{'Sleep Attack': 4}</t>
+    <t>{'sleep attack': 4}</t>
   </si>
   <si>
     <t>Tremor Charm I</t>
@@ -5459,19 +5459,19 @@
     <t>Tremor Charm III</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': 3}</t>
+    <t>{'tremor resistance': 3}</t>
   </si>
   <si>
     <t>Tracker Charm</t>
   </si>
   <si>
-    <t>{'Scenthound': 1}</t>
+    <t>{'scenthound': 1}</t>
   </si>
   <si>
     <t>Trickshot Charm</t>
   </si>
   <si>
-    <t>{'Dungmaster': 1, 'Blindsider': 1}</t>
+    <t>{'dungmaster': 1, 'blindsider': 1}</t>
   </si>
   <si>
     <t>Trickshot Charm II</t>
@@ -5480,7 +5480,7 @@
     <t>Thunder Charm I</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': 1}</t>
+    <t>{'thunder resistance': 1}</t>
   </si>
   <si>
     <t>Thunder Charm II</t>
@@ -5489,19 +5489,19 @@
     <t>Thunder Charm III</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': 3}</t>
+    <t>{'thunder resistance': 3}</t>
   </si>
   <si>
     <t>Unscathed Charm I</t>
   </si>
   <si>
-    <t>{'Peak Performance': 1}</t>
+    <t>{'peak performance': 1}</t>
   </si>
   <si>
     <t>Venom Charm I</t>
   </si>
   <si>
-    <t>{'Poison Attack': 1}</t>
+    <t>{'poison attack': 1}</t>
   </si>
   <si>
     <t>Venom Charm II</t>
@@ -5510,13 +5510,13 @@
     <t>Venom Charm III</t>
   </si>
   <si>
-    <t>{'Poison Attack': 3}</t>
+    <t>{'poison attack': 3}</t>
   </si>
   <si>
     <t>Venom Charm IV</t>
   </si>
   <si>
-    <t>{'Poison Attack': 4}</t>
+    <t>{'poison attack': 4}</t>
   </si>
   <si>
     <t>Water Charm I</t>
@@ -5525,19 +5525,19 @@
     <t>Water Charm II</t>
   </si>
   <si>
-    <t>{'Water Resistance': 2}</t>
+    <t>{'water resistance': 2}</t>
   </si>
   <si>
     <t>Water Charm III</t>
   </si>
   <si>
-    <t>{'Water Resistance': 3}</t>
+    <t>{'water resistance': 3}</t>
   </si>
   <si>
     <t>Whetstone Charm I</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': 1}</t>
+    <t>{'speed sharpening': 1}</t>
   </si>
   <si>
     <t>Whetstone Charm II</t>
@@ -5546,7 +5546,7 @@
     <t>Whetstone Charm III</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': 3}</t>
+    <t>{'speed sharpening': 3}</t>
   </si>
   <si>
     <t>Windproof Charm I</t>
@@ -5558,19 +5558,19 @@
     <t>Windproof Charm III</t>
   </si>
   <si>
-    <t>{'Windproof': 3}</t>
+    <t>{'windproof': 3}</t>
   </si>
   <si>
     <t>Windproof Charm IV</t>
   </si>
   <si>
-    <t>{'Windproof': 4}</t>
+    <t>{'windproof': 4}</t>
   </si>
   <si>
     <t>Wyrmsbane Charm I</t>
   </si>
   <si>
-    <t>{'Dragon Attack': 1}</t>
+    <t>{'dragon attack': 1}</t>
   </si>
   <si>
     <t>Wyrmsbane Charm II</t>
@@ -5579,37 +5579,37 @@
     <t>Wyrmsbane Charm III</t>
   </si>
   <si>
-    <t>{'Dragon Attack': 3}</t>
+    <t>{'dragon attack': 3}</t>
   </si>
   <si>
     <t>Wyrmslayer Charm</t>
   </si>
   <si>
-    <t>{'Elderseal Boost': 1, 'Dragon Attack': 1}</t>
+    <t>{'elderseal boost': 1, 'dragon attack': 1}</t>
   </si>
   <si>
     <t>Razor Sharp Charm</t>
   </si>
   <si>
-    <t>{'Razor Sharp/Spare Shot': 1}</t>
+    <t>{'razor sharp/spare shot': 1}</t>
   </si>
   <si>
     <t>Adamantine Charm</t>
   </si>
   <si>
-    <t>{'Non-Elemental Boost': 1, 'Bludgeoner': 1}</t>
+    <t>{'non-elemental boost': 1, 'bludgeoner': 1}</t>
   </si>
   <si>
     <t>Sealer's Charm</t>
   </si>
   <si>
-    <t>{'Elderseal Boost': 1, 'Adrenaline': 1}</t>
+    <t>{'elderseal boost': 1, 'adrenaline': 1}</t>
   </si>
   <si>
     <t>Gutsy Charm</t>
   </si>
   <si>
-    <t>{'Guts': 1}</t>
+    <t>{'guts': 1}</t>
   </si>
   <si>
     <t>Mysterious Feystone</t>
@@ -5639,37 +5639,37 @@
     <t>Antiblast 1</t>
   </si>
   <si>
-    <t>{'Blast Resistance': '1'}</t>
+    <t>{'blast resistance': '1'}</t>
   </si>
   <si>
     <t>Antiblast 4</t>
   </si>
   <si>
-    <t>{'Blast Resistance': '2'}</t>
+    <t>{'blast resistance': '2'}</t>
   </si>
   <si>
     <t>Antidote 1</t>
   </si>
   <si>
-    <t>{'Poison Resistance': '1'}</t>
+    <t>{'poison resistance': '1'}</t>
   </si>
   <si>
     <t>Antidote 4</t>
   </si>
   <si>
-    <t>{'Poison Resistance': '2'}</t>
+    <t>{'poison resistance': '2'}</t>
   </si>
   <si>
     <t>Antipara 1</t>
   </si>
   <si>
-    <t>{'Paralysis Resistance': '1'}</t>
+    <t>{'paralysis resistance': '1'}</t>
   </si>
   <si>
     <t>Antipara 4</t>
   </si>
   <si>
-    <t>{'Paralysis Resistance': '2'}</t>
+    <t>{'paralysis resistance': '2'}</t>
   </si>
   <si>
     <t>0.17%</t>
@@ -5681,13 +5681,13 @@
     <t>Artillery 1</t>
   </si>
   <si>
-    <t>{'Artillery': '1'}</t>
+    <t>{'artillery': '1'}</t>
   </si>
   <si>
     <t>Artillery 4</t>
   </si>
   <si>
-    <t>{'Artillery': '2'}</t>
+    <t>{'artillery': '2'}</t>
   </si>
   <si>
     <t>0.05%</t>
@@ -5702,31 +5702,31 @@
     <t>Attack 1</t>
   </si>
   <si>
-    <t>{'Attack Boost': '1'}</t>
+    <t>{'attack boost': '1'}</t>
   </si>
   <si>
     <t>Attack 4</t>
   </si>
   <si>
-    <t>{'Attack Boost': '2'}</t>
+    <t>{'attack boost': '2'}</t>
   </si>
   <si>
     <t>Blast 1</t>
   </si>
   <si>
-    <t>{'Blast Attack': '1'}</t>
+    <t>{'blast attack': '1'}</t>
   </si>
   <si>
     <t>Blast 4</t>
   </si>
   <si>
-    <t>{'Blast Attack': '2'}</t>
+    <t>{'blast attack': '2'}</t>
   </si>
   <si>
     <t>Blastcoat 3</t>
   </si>
   <si>
-    <t>{'Blast Functionality': '1'}</t>
+    <t>{'blast functionality': '1'}</t>
   </si>
   <si>
     <t>0.43%</t>
@@ -5741,2299 +5741,2299 @@
     <t>Blaze 1</t>
   </si>
   <si>
-    <t>{'Fire Attack': '1'}</t>
+    <t>{'fire attack': '1'}</t>
   </si>
   <si>
     <t>Blaze 4</t>
   </si>
   <si>
-    <t>{'Fire Attack': '2'}</t>
+    <t>{'fire attack': '2'}</t>
   </si>
   <si>
     <t>Bolt 1</t>
   </si>
   <si>
-    <t>{'Thunder Attack': '1'}</t>
+    <t>{'thunder attack': '1'}</t>
   </si>
   <si>
     <t>Bolt 4</t>
   </si>
   <si>
-    <t>{'Thunder Attack': '2'}</t>
+    <t>{'thunder attack': '2'}</t>
   </si>
   <si>
     <t>Bomber 1</t>
   </si>
   <si>
-    <t>{'Bombardier': '1'}</t>
+    <t>{'bombardier': '1'}</t>
   </si>
   <si>
     <t>Bomber/Attack 4</t>
   </si>
   <si>
-    <t>{'Bombardier': '1', 'Attack boost': '1'}</t>
+    <t>{'bombardier': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Bomber/Evasion 4</t>
   </si>
   <si>
-    <t>{'Bombardier': '1', 'Evade Window': '1'}</t>
+    <t>{'bombardier': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Bomber/Expert 4</t>
   </si>
   <si>
-    <t>{'Bombardier': '1', 'Critical Eye': '1'}</t>
+    <t>{'bombardier': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Bomber/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Bombardier': '1', 'Handicraft': '1'}</t>
+    <t>{'bombardier': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Bomber/Physique 4</t>
   </si>
   <si>
-    <t>{'Bombardier': '1', 'Constitution': '1'}</t>
+    <t>{'bombardier': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Bomber/Release 4</t>
   </si>
   <si>
-    <t>{'Bombardier': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'bombardier': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Botany 1</t>
   </si>
   <si>
-    <t>{'Botanist': '1'}</t>
+    <t>{'botanist': '1'}</t>
   </si>
   <si>
     <t>Botany 4</t>
   </si>
   <si>
-    <t>{'Botanist': '2'}</t>
+    <t>{'botanist': '2'}</t>
   </si>
   <si>
     <t>Brace 3</t>
   </si>
   <si>
-    <t>{'Flinch Free': '1'}</t>
+    <t>{'flinch free': '1'}</t>
   </si>
   <si>
     <t>Brace/Evasion 4</t>
   </si>
   <si>
-    <t>{'Flinch Free': '1', 'Evade Window': '1'}</t>
+    <t>{'flinch free': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Brace/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Flinch Free': '1', 'Tool Specialist': '1'}</t>
+    <t>{'flinch free': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Brace/Medicine 4</t>
   </si>
   <si>
-    <t>{'Flinch Free': '1', 'Recover up': '1'}</t>
+    <t>{'flinch free': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Brace/Physique 4</t>
   </si>
   <si>
-    <t>{'Flinch Free': '1', 'Constitution': '1'}</t>
+    <t>{'flinch free': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Brace/Protection 4</t>
   </si>
   <si>
-    <t>{'Flinch Free': '1', 'Divine Blessing': '1'}</t>
+    <t>{'flinch free': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Brace/Vitality 4</t>
   </si>
   <si>
-    <t>{'Flinch Free': '1', 'Health Boost': '1'}</t>
+    <t>{'flinch free': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Challenger 2</t>
   </si>
   <si>
-    <t>{'Agitator': '1'}</t>
+    <t>{'agitator': '1'}</t>
   </si>
   <si>
     <t>Challenger 4</t>
   </si>
   <si>
-    <t>{'Agitator': '2'}</t>
+    <t>{'agitator': '2'}</t>
   </si>
   <si>
     <t>Challenger/Evasion 4</t>
   </si>
   <si>
-    <t>{'Agitator': '1', 'Evade Window': '1'}</t>
+    <t>{'agitator': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Challenger/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Agitator': '1', 'Tool Specialist': '1'}</t>
+    <t>{'agitator': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Challenger/Medicine 4</t>
   </si>
   <si>
-    <t>{'Agitator': '1', 'Recover up': '1'}</t>
+    <t>{'agitator': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Challenger/Physique 4</t>
   </si>
   <si>
-    <t>{'Agitator': '1', 'Constitution': '1'}</t>
+    <t>{'agitator': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Challenger/Protection 4</t>
   </si>
   <si>
-    <t>{'Agitator': '1', 'Divine Blessing': '1'}</t>
+    <t>{'agitator': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Challenger/Vitality 4</t>
   </si>
   <si>
-    <t>{'Agitator': '1', 'Health Boost': '1'}</t>
+    <t>{'agitator': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Charger 2</t>
   </si>
   <si>
-    <t>{'Focus': '1'}</t>
+    <t>{'focus': '1'}</t>
   </si>
   <si>
     <t>Charger/Evasion 4</t>
   </si>
   <si>
-    <t>{'Focus': '1', 'Evade Window': '1'}</t>
+    <t>{'focus': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Charger/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Focus': '1', 'Tool Specialist': '1'}</t>
+    <t>{'focus': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Charger/Medicine 4</t>
   </si>
   <si>
-    <t>{'Focus': '1', 'Recover up': '1'}</t>
+    <t>{'focus': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Charger/Physique 4</t>
   </si>
   <si>
-    <t>{'Focus': '1', 'Constitution': '1'}</t>
+    <t>{'focus': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Charger/Protection 4</t>
   </si>
   <si>
-    <t>{'Focus': '1', 'Divine Blessing': '1'}</t>
+    <t>{'focus': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Charger/Vitality 4</t>
   </si>
   <si>
-    <t>{'Focus': '1', 'Health Boost': '1'}</t>
+    <t>{'focus': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Crisis 1</t>
   </si>
   <si>
-    <t>{'Resuscitate': '1'}</t>
+    <t>{'resuscitate': '1'}</t>
   </si>
   <si>
     <t>Crisis/Attack 4</t>
   </si>
   <si>
-    <t>{'Resuscitate': '1', 'Attack Boost': '1'}</t>
+    <t>{'resuscitate': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Crisis/Evasion 4</t>
   </si>
   <si>
-    <t>{'Resuscitate': '1', 'Evade Window': '1'}</t>
+    <t>{'resuscitate': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Crisis/Expert 4</t>
   </si>
   <si>
-    <t>{'Resuscitate': '1', 'Critical Eye': '1'}</t>
+    <t>{'resuscitate': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Crisis/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Resuscitate': '1', 'Handicraft': '1'}</t>
+    <t>{'resuscitate': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Crisis/Physique 4</t>
   </si>
   <si>
-    <t>{'Resuscitate': '1', 'Constitution': '1'}</t>
+    <t>{'resuscitate': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Crisis/Release 4</t>
   </si>
   <si>
-    <t>{'Resuscitate': '1', 'Free Elem/Ammo Up': '1'}</t>
+    <t>{'resuscitate': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Critical 2</t>
   </si>
   <si>
-    <t>{'Critical Boost': '1'}</t>
+    <t>{'critical boost': '1'}</t>
   </si>
   <si>
     <t>Critical 4</t>
   </si>
   <si>
-    <t>{'Critical Boost': '2'}</t>
+    <t>{'critical boost': '2'}</t>
   </si>
   <si>
     <t>Critical/Evasion 4</t>
   </si>
   <si>
-    <t>{'Critical Boost': '1', 'Evade Window': '1'}</t>
+    <t>{'critical boost': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Critical/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Critical Boost': '1', 'Tool Specialist': '1'}</t>
+    <t>{'critical boost': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Critical/Medicine 4</t>
   </si>
   <si>
-    <t>{'Critical Boost': '1', 'Recover up': '1'}</t>
+    <t>{'critical boost': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Critical/Physique 4</t>
   </si>
   <si>
-    <t>{'Critical Boost': '1', 'Constitution': '1'}</t>
+    <t>{'critical boost': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Critical/Protection 4</t>
   </si>
   <si>
-    <t>{'Critical Boost': '1', 'Divine Blessing': '1'}</t>
+    <t>{'critical boost': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Critical/Vitality 4</t>
   </si>
   <si>
-    <t>{'Critical Boost': '1', 'Health Boost': '1'}</t>
+    <t>{'critical boost': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Def Lock 1</t>
   </si>
   <si>
-    <t>{'Iron Skin': '1'}</t>
+    <t>{'iron skin': '1'}</t>
   </si>
   <si>
     <t>Def Lock 4</t>
   </si>
   <si>
-    <t>{'Iron Skin': '2'}</t>
+    <t>{'iron skin': '2'}</t>
   </si>
   <si>
     <t>Defense 1</t>
   </si>
   <si>
-    <t>{'Defense Boost': '1'}</t>
+    <t>{'defense boost': '1'}</t>
   </si>
   <si>
     <t>Defense 4</t>
   </si>
   <si>
-    <t>{'Defense Boost': '2'}</t>
+    <t>{'defense boost': '2'}</t>
   </si>
   <si>
     <t>Destroyer 2</t>
   </si>
   <si>
-    <t>{'Partbreaker': '1'}</t>
+    <t>{'partbreaker': '1'}</t>
   </si>
   <si>
     <t>Destroyer/Evasion 4</t>
   </si>
   <si>
-    <t>{'Partbreaker': '1', 'Evade Window': '1'}</t>
+    <t>{'partbreaker': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Destroyer/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Partbreaker': '1', 'Tool Specialist': '1'}</t>
+    <t>{'partbreaker': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Destroyer/Medicine 4</t>
   </si>
   <si>
-    <t>{'Partbreaker': '1', 'Recover up': '1'}</t>
+    <t>{'partbreaker': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Destroyer/Physique 4</t>
   </si>
   <si>
-    <t>{'Partbreaker': '1', 'Constitution': '1'}</t>
+    <t>{'partbreaker': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Destroyer/Protection 4</t>
   </si>
   <si>
-    <t>{'Partbreaker': '1', 'Divine Blessing': '1'}</t>
+    <t>{'partbreaker': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Destroyer/Vitality 4</t>
   </si>
   <si>
-    <t>{'Partbreaker': '1', 'Health Boost': '1'}</t>
+    <t>{'partbreaker': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Dragon 1</t>
   </si>
   <si>
-    <t>{'Dragon Attack': '1'}</t>
+    <t>{'dragon attack': '1'}</t>
   </si>
   <si>
     <t>Dragon 4</t>
   </si>
   <si>
-    <t>{'Dragon Attack': '2'}</t>
+    <t>{'dragon attack': '2'}</t>
   </si>
   <si>
     <t>Dragon Res 1</t>
   </si>
   <si>
-    <t>{'Dragon Resistance': '1'}</t>
+    <t>{'dragon resistance': '1'}</t>
   </si>
   <si>
     <t>Dragonseal 3</t>
   </si>
   <si>
-    <t>{'Elderseal Boost': '1'}</t>
+    <t>{'elderseal boost': '1'}</t>
   </si>
   <si>
     <t>Drain 1</t>
   </si>
   <si>
-    <t>{'Stamina Thief': '1'}</t>
+    <t>{'stamina thief': '1'}</t>
   </si>
   <si>
     <t>Drain/Attack 4</t>
   </si>
   <si>
-    <t>{'Stamina Thief': '1', 'Attack boost': '1'}</t>
+    <t>{'stamina thief': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Drain/Evasion 4</t>
   </si>
   <si>
-    <t>{'Stamina Thief': '1', 'Evade Window': '1'}</t>
+    <t>{'stamina thief': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Drain/Expert 4</t>
   </si>
   <si>
-    <t>{'Stamina Thief': '1', 'Critical Eye': '1'}</t>
+    <t>{'stamina thief': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Drain/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Stamina Thief': '1', 'Handicraft': '1'}</t>
+    <t>{'stamina thief': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Drain/Physique 4</t>
   </si>
   <si>
-    <t>{'Stamina Thief': '1', 'Constitution': '1'}</t>
+    <t>{'stamina thief': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Drain/Release 4</t>
   </si>
   <si>
-    <t>{'Stamina Thief': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'stamina thief': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Draw 2</t>
   </si>
   <si>
-    <t>{'Critical Draw': '1'}</t>
+    <t>{'critical draw': '1'}</t>
   </si>
   <si>
     <t>Draw/Evasion 4</t>
   </si>
   <si>
-    <t>{'Critical Draw': '1', 'Evade Window': '1'}</t>
+    <t>{'critical draw': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Draw/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Critical Draw': '1', 'Tool Specialist': '1'}</t>
+    <t>{'critical draw': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Draw/Medicine 4</t>
   </si>
   <si>
-    <t>{'Critical Draw': '1', 'Recover up': '1'}</t>
+    <t>{'critical draw': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Draw/Physique 4</t>
   </si>
   <si>
-    <t>{'Critical Draw': '1', 'Constitution': '1'}</t>
+    <t>{'critical draw': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Draw/Protection 4</t>
   </si>
   <si>
-    <t>{'Critical Draw': '1', 'Divine Blessing': '1'}</t>
+    <t>{'critical draw': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Draw/Vitality 4</t>
   </si>
   <si>
-    <t>{'Critical Draw': '1', 'Health Boost': '1'}</t>
+    <t>{'critical draw': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Earplug 3</t>
   </si>
   <si>
-    <t>{'Earplugs': '1'}</t>
+    <t>{'earplugs': '1'}</t>
   </si>
   <si>
     <t xml:space="preserve">Earplug  </t>
   </si>
   <si>
-    <t>{'Earplugs': '2'}</t>
+    <t>{'earplugs': '2'}</t>
   </si>
   <si>
     <t>Earplug/Evasion 4</t>
   </si>
   <si>
-    <t>{'Earplugs': '1', 'Evade Window': '1'}</t>
+    <t>{'earplugs': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Earplug/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Earplugs': '1', 'Tool Specialist': '1'}</t>
+    <t>{'earplugs': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Earplug/Medicine 4</t>
   </si>
   <si>
-    <t>{'Earplugs': '1', 'Recovery up': '1'}</t>
+    <t>{'earplugs': '1', 'recovery up': '1'}</t>
   </si>
   <si>
     <t>Earplug/Physique 4</t>
   </si>
   <si>
-    <t>{'Earplugs': '1', 'Constitution': '1'}</t>
+    <t>{'earplugs': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Earplug/Protection 4</t>
   </si>
   <si>
-    <t>{'Earplugs': '1', 'Divine Blessing': '1'}</t>
+    <t>{'earplugs': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Earplug/Vitality 4</t>
   </si>
   <si>
-    <t>{'Earplugs': '1', 'Health Boost': '1'}</t>
+    <t>{'earplugs': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Elementless 2</t>
   </si>
   <si>
-    <t>{'Non-Elemental Boost': '1'}</t>
+    <t>{'non-elemental boost': '1'}</t>
   </si>
   <si>
     <t>Enduring 1</t>
   </si>
   <si>
-    <t>{'Item Prolonger': '1'}</t>
+    <t>{'item prolonger': '1'}</t>
   </si>
   <si>
     <t>Enduring 4</t>
   </si>
   <si>
-    <t>{'Item Prolonger': '2'}</t>
+    <t>{'item prolonger': '2'}</t>
   </si>
   <si>
     <t>Enhancer 2</t>
   </si>
   <si>
-    <t>{'Power Prolonger': '1'}</t>
+    <t>{'power prolonger': '1'}</t>
   </si>
   <si>
     <t>Enhancer /Evasion 4</t>
   </si>
   <si>
-    <t>{'Power Prolonger': '1', 'Evade Window': '1'}</t>
+    <t>{'power prolonger': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Enhancer /Maintenance 4</t>
   </si>
   <si>
-    <t>{'Power Prolonger': '1', 'Tool Specialist': '1'}</t>
+    <t>{'power prolonger': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Enhancer /Medicine 4</t>
   </si>
   <si>
-    <t>{'Power Prolonger': '1', 'Recover up': '1'}</t>
+    <t>{'power prolonger': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Enhancer /Physique 4</t>
   </si>
   <si>
-    <t>{'Power Prolonger': '1', 'Constitution': '1'}</t>
+    <t>{'power prolonger': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Enhancer /Protection 4</t>
   </si>
   <si>
-    <t>{'Power Prolonger': '1', 'Divine Blessing': '1'}</t>
+    <t>{'power prolonger': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Enhancer /Vitality 4</t>
   </si>
   <si>
-    <t>{'Power Prolonger': '1', 'Health Boost': '1'}</t>
+    <t>{'power prolonger': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Evasion 2</t>
   </si>
   <si>
-    <t>{'Evade Window': '1'}</t>
+    <t>{'evade window': '1'}</t>
   </si>
   <si>
     <t>Evasion 4</t>
   </si>
   <si>
-    <t>{'Evade Window': '2'}</t>
+    <t>{'evade window': '2'}</t>
   </si>
   <si>
     <t>Expert 1</t>
   </si>
   <si>
-    <t>{'Critical Eye': '1'}</t>
+    <t>{'critical eye': '1'}</t>
   </si>
   <si>
     <t>Expert 4</t>
   </si>
   <si>
-    <t>{'Critical Eye': '2'}</t>
+    <t>{'critical eye': '2'}</t>
   </si>
   <si>
     <t>Fire Res 1</t>
   </si>
   <si>
-    <t>{'Fire Resistance': '1'}</t>
+    <t>{'fire resistance': '1'}</t>
   </si>
   <si>
     <t>Fire Res 4</t>
   </si>
   <si>
-    <t>{'Fire Resistance': '2'}</t>
+    <t>{'fire resistance': '2'}</t>
   </si>
   <si>
     <t>Flawless 2</t>
   </si>
   <si>
-    <t>{'Peak Performance': '1'}</t>
+    <t>{'peak performance': '1'}</t>
   </si>
   <si>
     <t>Flawless/Evasion 4</t>
   </si>
   <si>
-    <t>{'Peak Performance': '1', 'Evade Window': '1'}</t>
+    <t>{'peak performance': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Flawless/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Peak Performance': '1', 'Tool Specialist': '1'}</t>
+    <t>{'peak performance': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Flawless/Medicine 4</t>
   </si>
   <si>
-    <t>{'Peak Performance': '1', 'Recover up': '1'}</t>
+    <t>{'peak performance': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Flawless/Physique 4</t>
   </si>
   <si>
-    <t>{'Peak Performance': '1', 'Constitution': '1'}</t>
+    <t>{'peak performance': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Flawless/Protection 4</t>
   </si>
   <si>
-    <t>{'Peak Performance': '1', 'Divine Blessing': '1'}</t>
+    <t>{'peak performance': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Flawless/Vitality 4</t>
   </si>
   <si>
-    <t>{'Peak Performance': '1', 'Health Boost': '1'}</t>
+    <t>{'peak performance': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Flight 2</t>
   </si>
   <si>
-    <t>{'Airborne': '1'}</t>
+    <t>{'airborne': '1'}</t>
   </si>
   <si>
     <t>Flight/Attack 4</t>
   </si>
   <si>
-    <t>{'Airborne': '1', 'Attack Boost': '1'}</t>
+    <t>{'airborne': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Flight/Evasion 4</t>
   </si>
   <si>
-    <t>{'Airborne': '1', 'Evade Window': '1'}</t>
+    <t>{'airborne': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Flight/Expert 4</t>
   </si>
   <si>
-    <t>{'Airborne': '1', 'Critical Eye': '1'}</t>
+    <t>{'airborne': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Flight/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Airborne': '1', 'Handicraft': '1'}</t>
+    <t>{'airborne': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Flight/Physique 4</t>
   </si>
   <si>
-    <t>{'Airborne': '1', 'Constitution': '1'}</t>
+    <t>{'airborne': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Flight/Release 4</t>
   </si>
   <si>
-    <t>{'Airborne': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'airborne': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Footing 2</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': '1'}</t>
+    <t>{'tremor resistance': '1'}</t>
   </si>
   <si>
     <t>Footing 4</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': '2'}</t>
+    <t>{'tremor resistance': '2'}</t>
   </si>
   <si>
     <t>Footing/Evasion 4</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': '1', 'Evade Window': '1'}</t>
+    <t>{'tremor resistance': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Footing/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': '1', 'Tool Specialist': '1'}</t>
+    <t>{'tremor resistance': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Footing/Medicine 4</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': '1', 'Recover up': '1'}</t>
+    <t>{'tremor resistance': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Footing/Physique 4</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': '1', 'Constitution': '1'}</t>
+    <t>{'tremor resistance': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Footing/Protection 4</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': '1', 'Divine Blessing': '1'}</t>
+    <t>{'tremor resistance': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Footing/Vitality 4</t>
   </si>
   <si>
-    <t>{'Tremor Resistance': '1', 'Health Boost': '1'}</t>
+    <t>{'tremor resistance': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Forceshot 3</t>
   </si>
   <si>
-    <t>{'Normal Shots': '1'}</t>
+    <t>{'normal shots': '1'}</t>
   </si>
   <si>
     <t>Fortitude 1</t>
   </si>
   <si>
-    <t>{'Fortify': '1'}</t>
+    <t>{'fortify': '1'}</t>
   </si>
   <si>
     <t>Fortitude/Attack 4</t>
   </si>
   <si>
-    <t>{'Fortify': '1', 'Attack boost': '1'}</t>
+    <t>{'fortify': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Fortitude/Evasion 4</t>
   </si>
   <si>
-    <t>{'Fortify': '1', 'Evade Window': '1'}</t>
+    <t>{'fortify': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Fortitude/Expert 4</t>
   </si>
   <si>
-    <t>{'Fortify': '1', 'Critical Eye': '1'}</t>
+    <t>{'fortify': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Fortitude/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Fortify': '1', 'Handicraft': '1'}</t>
+    <t>{'fortify': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Fortitude/Physique 4</t>
   </si>
   <si>
-    <t>{'Fortify': '1', 'Constitution': '1'}</t>
+    <t>{'fortify': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Fortitude/Release 4</t>
   </si>
   <si>
-    <t>{'Fortify': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'fortify': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Friendship 1</t>
   </si>
   <si>
-    <t>{'Wide-Range': '1'}</t>
-  </si>
-  <si>
-    <t>{'Wide-Range': '2'}</t>
+    <t>{'wide-range': '1'}</t>
+  </si>
+  <si>
+    <t>{'wide-range': '2'}</t>
   </si>
   <si>
     <t>Friendship/Attack 4</t>
   </si>
   <si>
-    <t>{'Wide-Range': '1', 'Attack Boost': '1'}</t>
+    <t>{'wide-range': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Friendship/Evasion 4</t>
   </si>
   <si>
-    <t>{'Wide-Range': '1', 'Evade Window': '1'}</t>
+    <t>{'wide-range': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Friendship/Expert 4</t>
   </si>
   <si>
-    <t>{'Wide-Range': '1', 'Critical eye': '1'}</t>
+    <t>{'wide-range': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Friendship/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Wide-Range': '1', 'Handicraft': '1'}</t>
+    <t>{'wide-range': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Friendship/Physique 4</t>
   </si>
   <si>
-    <t>{'Wide-Range': '1', 'Constitution': '1'}</t>
+    <t>{'wide-range': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Friendship/Release 4</t>
   </si>
   <si>
-    <t>{'Wide-Range': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'wide-range': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Frost 1</t>
   </si>
   <si>
-    <t>{'Ice Attack': '1'}</t>
+    <t>{'ice attack': '1'}</t>
   </si>
   <si>
     <t>Frost 4</t>
   </si>
   <si>
-    <t>{'Ice Attack': '2'}</t>
+    <t>{'ice attack': '2'}</t>
   </si>
   <si>
     <t>Fungiform 1</t>
   </si>
   <si>
-    <t>{'Mushroomancer': '1'}</t>
+    <t>{'mushroomancer': '1'}</t>
   </si>
   <si>
     <t>Fungiform/Attack 4</t>
   </si>
   <si>
-    <t>{'Mushroomancer': '1', 'Attack Boost': '1'}</t>
+    <t>{'mushroomancer': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Fungiform/Evasion 4</t>
   </si>
   <si>
-    <t>{'Mushroomancer': '1', 'Evade Window': '1'}</t>
+    <t>{'mushroomancer': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Fungiform/Expert 4</t>
   </si>
   <si>
-    <t>{'Mushroomancer': '1', 'Critical Eye': '1'}</t>
+    <t>{'mushroomancer': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Fungiform/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Mushroomancer': '1', 'Handicraft': '1'}</t>
+    <t>{'mushroomancer': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Fungiform/Physique 4</t>
   </si>
   <si>
-    <t>{'Mushroomancer': '1', 'Constitution': '1'}</t>
+    <t>{'mushroomancer': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Fungiform/Release 4</t>
   </si>
   <si>
-    <t>{'Mushroomancer': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'mushroomancer': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Furor 2</t>
   </si>
   <si>
-    <t>{'Resentment': '1'}</t>
+    <t>{'resentment': '1'}</t>
   </si>
   <si>
     <t>Furor 4</t>
   </si>
   <si>
-    <t>{'Resentment': '2'}</t>
+    <t>{'resentment': '2'}</t>
   </si>
   <si>
     <t>Furor/Evasion 4</t>
   </si>
   <si>
-    <t>{'Resentment': '1', 'Evade Window': '1'}</t>
+    <t>{'resentment': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Furor/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Resentment': '1', 'Tool Specialist': '1'}</t>
+    <t>{'resentment': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Furor/Medicine 4</t>
   </si>
   <si>
-    <t>{'Resentment': '1', 'Recover up': '1'}</t>
+    <t>{'resentment': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Furor/Physique 4</t>
   </si>
   <si>
-    <t>{'Resentment': '1', 'Constitution': '1'}</t>
+    <t>{'resentment': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Furor/Protection 4</t>
   </si>
   <si>
-    <t>{'Resentment': '1', 'Divine Blessing': '1'}</t>
+    <t>{'resentment': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Furor/Vitality 4</t>
   </si>
   <si>
-    <t>{'Resentment': '1', 'Health Boost': '1'}</t>
+    <t>{'resentment': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Geology 1</t>
   </si>
   <si>
-    <t>{'Geologist': '1'}</t>
+    <t>{'geologist': '1'}</t>
   </si>
   <si>
     <t>Geology 4</t>
   </si>
   <si>
-    <t>{'Geologist': '2'}</t>
+    <t>{'geologist': '2'}</t>
   </si>
   <si>
     <t>Gobbler 1</t>
   </si>
   <si>
-    <t>{'Speed Eating': '1'}</t>
+    <t>{'speed eating': '1'}</t>
   </si>
   <si>
     <t>Gobbler/Attack 4</t>
   </si>
   <si>
-    <t>{'Speed Eating': '1', 'Attack boost': '1'}</t>
+    <t>{'speed eating': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Gobbler/Evasion 4</t>
   </si>
   <si>
-    <t>{'Speed Eating': '1', 'Evade Window': '1'}</t>
+    <t>{'speed eating': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Gobbler/Expert 4</t>
   </si>
   <si>
-    <t>{'Speed Eating': '1', 'Critical Eye': '1'}</t>
+    <t>{'speed eating': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Gobbler/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Speed Eating': '1', 'Handicraft': '1'}</t>
+    <t>{'speed eating': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Gobbler/Physique 4</t>
   </si>
   <si>
-    <t>{'Speed Eating': '1', 'Constitution': '1'}</t>
+    <t>{'speed eating': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Gobbler/Release 4</t>
   </si>
   <si>
-    <t>{'Speed Eating': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'speed eating': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Grinder 1</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': '1'}</t>
+    <t>{'speed sharpening': '1'}</t>
   </si>
   <si>
     <t>Grinder/Attack 4</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': '1', 'Attack boost': '1'}</t>
+    <t>{'speed sharpening': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Grinder/Evasion 4</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': '1', 'Evade Window': '1'}</t>
+    <t>{'speed sharpening': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Grinder/Expert 4</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': '1', 'Critical Eye': '1'}</t>
+    <t>{'speed sharpening': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Grinder/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': '1', 'Handicraft': '1'}</t>
+    <t>{'speed sharpening': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Grinder/Physique 4</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': '1', 'Constitution': '1'}</t>
+    <t>{'speed sharpening': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Grinder/Release 4</t>
   </si>
   <si>
-    <t>{'Speed Sharpening': '1', 'Free Elem/Ammo up': '1'}</t>
-  </si>
-  <si>
-    <t>{'Offensive Guard': '1'}</t>
+    <t>{'speed sharpening': '1', 'free elem/ammo up': '1'}</t>
+  </si>
+  <si>
+    <t>{'offensive guard': '1'}</t>
   </si>
   <si>
     <t>Guardian/Attack 4</t>
   </si>
   <si>
-    <t>{'Offensive Guard': '1', 'Attack Boost': '1'}</t>
+    <t>{'offensive guard': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Guardian/Evasion 4</t>
   </si>
   <si>
-    <t>{'Offensive Guard': '1', 'Evade Window': '1'}</t>
+    <t>{'offensive guard': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Guardian/Expert 4</t>
   </si>
   <si>
-    <t>{'Offensive Guard': '1', 'Critical Eye': '1'}</t>
+    <t>{'offensive guard': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Guardian/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Offensive Guard': '1', 'Handicraft': '1'}</t>
+    <t>{'offensive guard': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Guardian/Physique 4</t>
   </si>
   <si>
-    <t>{'Offensive Guard': '1', 'Constitution': '1'}</t>
+    <t>{'offensive guard': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Guardian/Release 4</t>
   </si>
   <si>
-    <t>{'Offensive Guard': '1', 'Free Elem/Ammo Up': '1'}</t>
+    <t>{'offensive guard': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Handicraft 3</t>
   </si>
   <si>
-    <t>{'Handicraft': '1'}</t>
+    <t>{'handicraft': '1'}</t>
   </si>
   <si>
     <t>Handicraft 4</t>
   </si>
   <si>
-    <t>{'Handicraft': '2'}</t>
+    <t>{'handicraft': '2'}</t>
   </si>
   <si>
     <t>Handicraft/Evasion 4</t>
   </si>
   <si>
-    <t>{'Handicraft': '1', 'Evade Window': '1'}</t>
+    <t>{'handicraft': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Handicraft/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Handicraft': '1', 'Tool Specialist': '1'}</t>
+    <t>{'handicraft': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Handicraft/Medicine 4</t>
   </si>
   <si>
-    <t>{'Handicraft': '1', 'Recover up': '1'}</t>
+    <t>{'handicraft': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Handicraft/Physique 4</t>
   </si>
   <si>
-    <t>{'Handicraft': '1', 'Constitution': '1'}</t>
+    <t>{'handicraft': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Handicraft/Protection 4</t>
   </si>
   <si>
-    <t>{'Handicraft': '1', 'Divine Blessing': '1'}</t>
+    <t>{'handicraft': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Handicraft/Vitality 4</t>
   </si>
   <si>
-    <t>{'Handicraft': '1', 'Health Boost': '1'}</t>
+    <t>{'handicraft': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t xml:space="preserve">Hard Botany  </t>
   </si>
   <si>
-    <t>{'Botanist': '4'}</t>
+    <t>{'botanist': '4'}</t>
   </si>
   <si>
     <t>Hard Defense 4</t>
   </si>
   <si>
-    <t>{'Defense Boost': '3'}</t>
+    <t>{'defense boost': '3'}</t>
   </si>
   <si>
     <t>Hard Dragon Res 4</t>
   </si>
   <si>
-    <t>{'Dragon Resistance': '3'}</t>
+    <t>{'dragon resistance': '3'}</t>
   </si>
   <si>
     <t>Hard Enduring 4</t>
   </si>
   <si>
-    <t>{'Item Prolonger': '3'}</t>
+    <t>{'item prolonger': '3'}</t>
   </si>
   <si>
     <t>Hard Fire Res 4</t>
   </si>
   <si>
-    <t>{'Fire resistance': '3'}</t>
+    <t>{'fire resistance': '3'}</t>
   </si>
   <si>
     <t>Hard Geology 4</t>
   </si>
   <si>
-    <t>{'Geologist': '3'}</t>
+    <t>{'geologist': '3'}</t>
   </si>
   <si>
     <t>Hard Ice Res 4</t>
   </si>
   <si>
-    <t>{'Ice Resistance': '3'}</t>
+    <t>{'ice resistance': '3'}</t>
   </si>
   <si>
     <t>Hard Intimidator 4</t>
   </si>
   <si>
-    <t>{'Intimidator': '3'}</t>
+    <t>{'intimidator': '3'}</t>
   </si>
   <si>
     <t>Hard Meowster 4</t>
   </si>
   <si>
-    <t>{'Palico Rally': '3'}</t>
+    <t>{'palico rally': '3'}</t>
   </si>
   <si>
     <t>Hard Specimen 4</t>
   </si>
   <si>
-    <t>{'Entomologist': '3'}</t>
+    <t>{'entomologist': '3'}</t>
   </si>
   <si>
     <t>Hard Survival 4</t>
   </si>
   <si>
-    <t>{'Survival Expert': '3'}</t>
+    <t>{'survival expert': '3'}</t>
   </si>
   <si>
     <t>Hard Thunder Res 4</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': '3'}</t>
+    <t>{'thunder resistance': '3'}</t>
   </si>
   <si>
     <t>Hard Tip Toe 4</t>
   </si>
   <si>
-    <t>{'Stealth': '3'}</t>
+    <t>{'stealth': '3'}</t>
   </si>
   <si>
     <t>Hard Water Res 4</t>
   </si>
   <si>
-    <t>{'Water Resistance': '3'}</t>
+    <t>{'water resistance': '3'}</t>
   </si>
   <si>
     <t>Heavy Artillery 1</t>
   </si>
   <si>
-    <t>{'Heavy Artillery': '1'}</t>
+    <t>{'heavy artillery': '1'}</t>
   </si>
   <si>
     <t>Heavy Artillery 4</t>
   </si>
   <si>
-    <t>{'Heavy Artillery': '2'}</t>
+    <t>{'heavy artillery': '2'}</t>
   </si>
   <si>
     <t>Hungerless 1</t>
   </si>
   <si>
-    <t>{'Hunger Resistance': '1'}</t>
+    <t>{'hunger resistance': '1'}</t>
   </si>
   <si>
     <t>Hungerless 4</t>
   </si>
   <si>
-    <t>{'Hunger Resistance': '2'}</t>
+    <t>{'hunger resistance': '2'}</t>
   </si>
   <si>
     <t>Ice Res 1</t>
   </si>
   <si>
-    <t>{'Ice Resistance': '1'}</t>
+    <t>{'ice resistance': '1'}</t>
   </si>
   <si>
     <t>Ice Res 4</t>
   </si>
   <si>
-    <t>{'Ice Resistance': '2'}</t>
+    <t>{'ice resistance': '2'}</t>
   </si>
   <si>
     <t>Intimidator 1</t>
   </si>
   <si>
-    <t>{'Intimidator': '1'}</t>
+    <t>{'intimidator': '1'}</t>
   </si>
   <si>
     <t>Intimidator 4</t>
   </si>
   <si>
-    <t>{'Intimidator': '2'}</t>
+    <t>{'intimidator': '2'}</t>
   </si>
   <si>
     <t>Ironwall 1</t>
   </si>
   <si>
-    <t>{'Guard': '1'}</t>
+    <t>{'guard': '1'}</t>
   </si>
   <si>
     <t>Ironwall/Attack 4</t>
   </si>
   <si>
-    <t>{'Guard': '1', 'Attack boost': '1'}</t>
+    <t>{'guard': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Ironwall/Evasion 4</t>
   </si>
   <si>
-    <t>{'Guard': '1', 'Evade Window': '1'}</t>
+    <t>{'guard': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Ironwall/Expert 4</t>
   </si>
   <si>
-    <t>{'Guard': '1', 'Critical Eye': '1'}</t>
+    <t>{'guard': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Ironwall/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Guard': '1', 'Handicraft': '1'}</t>
+    <t>{'guard': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Ironwall/Physique 4</t>
   </si>
   <si>
-    <t>{'Guard': '1', 'Constitution': '1'}</t>
+    <t>{'guard': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Ironwall/Release 4</t>
   </si>
   <si>
-    <t>{'Guard': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'guard': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Jumping 2</t>
   </si>
   <si>
-    <t>{'Evade Extender': '1'}</t>
+    <t>{'evade extender': '1'}</t>
   </si>
   <si>
     <t>Jumping/Attack 4</t>
   </si>
   <si>
-    <t>{'Evade Extender': '1', 'Attack boost': '1'}</t>
+    <t>{'evade extender': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Jumping/Evasion 4</t>
   </si>
   <si>
-    <t>{'Evade Extender': '1', 'Evade Window': '1'}</t>
+    <t>{'evade extender': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Jumping/Expert 4</t>
   </si>
   <si>
-    <t>{'Evade Extender': '1', 'Critical Eye': '1'}</t>
+    <t>{'evade extender': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Jumping/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Evade Extender': '1', 'Handicraft': '1'}</t>
+    <t>{'evade extender': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Jumping/Physique 4</t>
   </si>
   <si>
-    <t>{'Evade Extender': '1', 'Constitution': '1'}</t>
+    <t>{'evade extender': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Jumping/Release 4</t>
   </si>
   <si>
-    <t>{'Evade Extender': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'evade extender': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>KO 2</t>
   </si>
   <si>
-    <t>{'Slugger': '1'}</t>
+    <t>{'slugger': '1'}</t>
   </si>
   <si>
     <t>KO/Evasion 4</t>
   </si>
   <si>
-    <t>{'Slugger': '1', 'Evade Window': '1'}</t>
+    <t>{'slugger': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>KO/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Slugger': '1', 'Tool Specialist': '1'}</t>
+    <t>{'slugger': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>KO/Medicine 4</t>
   </si>
   <si>
-    <t>{'Slugger': '1', 'Recover up': '1'}</t>
+    <t>{'slugger': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>KO/Physique 4</t>
   </si>
   <si>
-    <t>{'Slugger': '1', 'Constitution': '1'}</t>
+    <t>{'slugger': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>KO/Protection 4</t>
   </si>
   <si>
-    <t>{'Slugger': '1', 'Divine Blessing': '1'}</t>
+    <t>{'slugger': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>KO/Vitality 4</t>
   </si>
   <si>
-    <t>{'Slugger': '1', 'Health Boost': '1'}</t>
+    <t>{'slugger': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Magazine 2</t>
   </si>
   <si>
-    <t>{'Capacity Boost': '1'}</t>
+    <t>{'capacity boost': '1'}</t>
   </si>
   <si>
     <t>Maintenance 1</t>
   </si>
   <si>
-    <t>{'Tool Specialist': '1'}</t>
+    <t>{'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Medicine 1</t>
   </si>
   <si>
-    <t>{'Recovery Up': '1'}</t>
+    <t>{'recovery up': '1'}</t>
   </si>
   <si>
     <t>Meowster 1</t>
   </si>
   <si>
-    <t>{'Palico Rally': '1'}</t>
+    <t>{'palico rally': '1'}</t>
   </si>
   <si>
     <t>Meowster 4</t>
   </si>
   <si>
-    <t>{'Palico Rally': '2'}</t>
+    <t>{'palico rally': '2'}</t>
   </si>
   <si>
     <t>Miasma 1</t>
   </si>
   <si>
-    <t>{'Effluvia Resistance': '1'}</t>
+    <t>{'effluvia resistance': '1'}</t>
   </si>
   <si>
     <t>Miasma 4</t>
   </si>
   <si>
-    <t>{'Effluvia Resistance': '2'}</t>
+    <t>{'effluvia resistance': '2'}</t>
   </si>
   <si>
     <t>Mighty Bow 2</t>
   </si>
   <si>
-    <t>{'Bow Charge Plus': '1'}</t>
+    <t>{'bow charge plus': '1'}</t>
   </si>
   <si>
     <t>Mighty 2</t>
   </si>
   <si>
-    <t>{'Maximum Might': '1'}</t>
+    <t>{'maximum might': '1'}</t>
   </si>
   <si>
     <t>Mighty/Evasion 4</t>
   </si>
   <si>
-    <t>{'Maximum Might': '1', 'Evade Window': '1'}</t>
+    <t>{'maximum might': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Mighty/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Maximum Might': '1', 'Tool Specialist': '1'}</t>
+    <t>{'maximum might': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Mighty/Medicine 4</t>
   </si>
   <si>
-    <t>{'Maximum Might': '1', 'Recover up': '1'}</t>
+    <t>{'maximum might': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Mighty/Physique 4</t>
   </si>
   <si>
-    <t>{'Maximum Might': '1', 'Constitution': '1'}</t>
+    <t>{'maximum might': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Mighty/Protection 4</t>
   </si>
   <si>
-    <t>{'Maximum Might': '1', 'Divine Blessing': '1'}</t>
+    <t>{'maximum might': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Throttle/Vitality 4</t>
   </si>
   <si>
-    <t>{'Maximum Might': '1', 'Health Boost': '1'}</t>
+    <t>{'maximum might': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Mind's Eye 2</t>
   </si>
   <si>
-    <t>{'Mind Eye/Ballistic': '1'}</t>
+    <t>{'mind eye/ballistic': '1'}</t>
   </si>
   <si>
     <t>Mirewalker 1</t>
   </si>
   <si>
-    <t>{'Aquatic Expert': '1'}</t>
+    <t>{'aquatic expert': '1'}</t>
   </si>
   <si>
     <t>Mirewalker 4</t>
   </si>
   <si>
-    <t>{'Aquatic Expert': '2'}</t>
+    <t>{'aquatic expert': '2'}</t>
   </si>
   <si>
     <t>Paracoat 3</t>
   </si>
   <si>
-    <t>{'Paralysis Functionality': '1'}</t>
+    <t>{'paralysis functionality': '1'}</t>
   </si>
   <si>
     <t>Paralyzer 1</t>
   </si>
   <si>
-    <t>{'Paralysis Attack': '1'}</t>
+    <t>{'paralysis attack': '1'}</t>
   </si>
   <si>
     <t>Paralyzer 4</t>
   </si>
   <si>
-    <t>{'Paralysis Attack': '2'}</t>
+    <t>{'paralysis attack': '2'}</t>
   </si>
   <si>
     <t>Pep 1</t>
   </si>
   <si>
-    <t>{'Sleep Resistance': '1'}</t>
+    <t>{'sleep resistance': '1'}</t>
   </si>
   <si>
     <t>Pep 4</t>
   </si>
   <si>
-    <t>{'Sleep Resistance': '2'}</t>
+    <t>{'sleep resistance': '2'}</t>
   </si>
   <si>
     <t>Phoenix 3</t>
   </si>
   <si>
-    <t>{'Coalescence': '1'}</t>
+    <t>{'coalescence': '1'}</t>
   </si>
   <si>
     <t>Phoenix/Evasion 4</t>
   </si>
   <si>
-    <t>{'Coalescence': '1', 'Evade Window': '1'}</t>
+    <t>{'coalescence': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Phoenix/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Coalescence': '1', 'Tool Specialist': '1'}</t>
+    <t>{'coalescence': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Phoenix/Medicine 4</t>
   </si>
   <si>
-    <t>{'Coalescence': '1', 'Recover up': '1'}</t>
+    <t>{'coalescence': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Phoenix/Physique 4</t>
   </si>
   <si>
-    <t>{'Coalescence': '1', 'Constitution': '1'}</t>
+    <t>{'coalescence': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Phoenix/Protection 4</t>
   </si>
   <si>
-    <t>{'Coalescence': '1', 'Divine Blessing': '1'}</t>
+    <t>{'coalescence': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Phoenix/Vitality 4</t>
   </si>
   <si>
-    <t>{'Coalescence': '1', 'Health Boost': '1'}</t>
+    <t>{'coalescence': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Physique 2</t>
   </si>
   <si>
-    <t>{'Constitution': '1'}</t>
+    <t>{'constitution': '1'}</t>
   </si>
   <si>
     <t>Physique 4</t>
   </si>
   <si>
-    <t>{'Constitution': '2'}</t>
+    <t>{'constitution': '2'}</t>
   </si>
   <si>
     <t>Pierce 3</t>
   </si>
   <si>
-    <t>{'Piercing Shots': '1'}</t>
+    <t>{'piercing shots': '1'}</t>
   </si>
   <si>
     <t>Poisoncoat 3</t>
   </si>
   <si>
-    <t>{'Poison Functionality': '1'}</t>
+    <t>{'poison functionality': '1'}</t>
   </si>
   <si>
     <t>Potential 2</t>
   </si>
   <si>
-    <t>{'Heroics': '1'}</t>
+    <t>{'heroics': '1'}</t>
   </si>
   <si>
     <t>Potential 4</t>
   </si>
   <si>
-    <t>{'Heroics': '2'}</t>
+    <t>{'heroics': '2'}</t>
   </si>
   <si>
     <t>Potential/Evasion 4</t>
   </si>
   <si>
-    <t>{'Heroics': '1', 'Evade Window': '1'}</t>
+    <t>{'heroics': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Potential/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Heroics': '1', 'Tool Specialist': '1'}</t>
+    <t>{'heroics': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Potential/Medicine 4</t>
   </si>
   <si>
-    <t>{'Heroics': '1', 'Recover up': '1'}</t>
+    <t>{'heroics': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Potential/Physique 4</t>
   </si>
   <si>
-    <t>{'Heroics': '1', 'Constitution': '1'}</t>
+    <t>{'heroics': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Potential/Protection 4</t>
   </si>
   <si>
-    <t>{'Heroics': '1', 'Divine Blessing': '1'}</t>
+    <t>{'heroics': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Potential/Vitality 4</t>
   </si>
   <si>
-    <t>{'Heroics': '1', 'Health Boost': '1'}</t>
+    <t>{'heroics': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Protection 1</t>
   </si>
   <si>
-    <t>{'Divine Blessing': '1'}</t>
+    <t>{'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Recovery 1</t>
   </si>
   <si>
-    <t>{'Recovery Speed': '1'}</t>
-  </si>
-  <si>
-    <t>{'Recovery Speed': '2'}</t>
+    <t>{'recovery speed': '1'}</t>
+  </si>
+  <si>
+    <t>{'recovery speed': '2'}</t>
   </si>
   <si>
     <t>Refresh 2</t>
   </si>
   <si>
-    <t>{'Stamina Surge': '1'}</t>
+    <t>{'stamina surge': '1'}</t>
   </si>
   <si>
     <t>Refresh/Attack 4</t>
   </si>
   <si>
-    <t>{'Stamina Surge': '1', 'Attack boost': '1'}</t>
+    <t>{'stamina surge': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Refresh/Evasion 4</t>
   </si>
   <si>
-    <t>{'Stamina Surge': '1', 'Evade Window': '1'}</t>
+    <t>{'stamina surge': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Refresh/Expert 4</t>
   </si>
   <si>
-    <t>{'Stamina Surge': '1', 'Critical Eye': '1'}</t>
+    <t>{'stamina surge': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Refresh/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Stamina Surge': '1', 'Handicraft': '1'}</t>
+    <t>{'stamina surge': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Refresh/Physique 4</t>
   </si>
   <si>
-    <t>{'Stamina Surge': '1', 'Constitution': '1'}</t>
+    <t>{'stamina surge': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Refresh/Release 4</t>
   </si>
   <si>
-    <t>{'Stamina Surge': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'stamina surge': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Release 3</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': '1'}</t>
+    <t>{'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Release/Evasion 4</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': '1', 'Evade Window': '1'}</t>
+    <t>{'free elem/ammo up': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Release/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': '1', 'Tool Specialist': '1'}</t>
+    <t>{'free elem/ammo up': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Release/Medicine 4</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': '1', 'Recover up': '1'}</t>
+    <t>{'free elem/ammo up': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Release/Physique 4</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': '1', 'Constitution': '1'}</t>
+    <t>{'free elem/ammo up': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Release/Protection 4</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': '1', 'Divine Blessing': '1'}</t>
+    <t>{'free elem/ammo up': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Release/Vitality 4</t>
   </si>
   <si>
-    <t>{'Free Elem/Ammo Up': '1', 'Health Boost': '1'}</t>
+    <t>{'free elem/ammo up': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Resistor 1</t>
   </si>
   <si>
-    <t>{'Blight Resistance': '1'}</t>
+    <t>{'blight resistance': '1'}</t>
   </si>
   <si>
     <t>Resistor/Expert 4</t>
   </si>
   <si>
-    <t>{'Blight Resistance': '1', 'Critical Eye': '1'}</t>
+    <t>{'blight resistance': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Resistor/Physique 4</t>
   </si>
   <si>
-    <t>{'Blight Resistance': '1', 'Constitution': '1'}</t>
+    <t>{'blight resistance': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Satiated 1</t>
   </si>
   <si>
-    <t>{'Free Meal': '1'}</t>
+    <t>{'free meal': '1'}</t>
   </si>
   <si>
     <t>Satiated/Attack 4</t>
   </si>
   <si>
-    <t>{'Free Meal': '1', 'Attack Boost': '1'}</t>
+    <t>{'free meal': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Satiated/Evasion 4</t>
   </si>
   <si>
-    <t>{'Free Meal': '1', 'Evade Window': '1'}</t>
+    <t>{'free meal': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Satiated/Expert 4</t>
   </si>
   <si>
-    <t>{'Free Meal': '1', 'Critical Eye': '1'}</t>
+    <t>{'free meal': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Satiated/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Free Meal': '1', 'Handicraft': '1'}</t>
+    <t>{'free meal': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Satiated/Physique 4</t>
   </si>
   <si>
-    <t>{'Free Meal': '1', 'Constitution': '1'}</t>
+    <t>{'free meal': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Satiated/Release 4</t>
   </si>
   <si>
-    <t>{'Free Meal': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'free meal': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Scent 1</t>
   </si>
   <si>
-    <t>{'Scenthound': '1'}</t>
+    <t>{'scenthound': '1'}</t>
   </si>
   <si>
     <t>Sharp 2</t>
   </si>
   <si>
-    <t>{'Protective Polish': '1'}</t>
+    <t>{'protective polish': '1'}</t>
   </si>
   <si>
     <t>Sheath 1</t>
   </si>
   <si>
-    <t>{'Quick Sheath': '1'}</t>
+    <t>{'quick sheath': '1'}</t>
   </si>
   <si>
     <t>Sheath/Attack 4</t>
   </si>
   <si>
-    <t>{'Quick Sheath': '1', 'Attack boost': '1'}</t>
+    <t>{'quick sheath': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Sheath/Evasion 4</t>
   </si>
   <si>
-    <t>{'Quick Sheath': '1', 'Evade Window': '1'}</t>
+    <t>{'quick sheath': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Sheath/Expert 4</t>
   </si>
   <si>
-    <t>{'Quick Sheath': '1', 'Critical Eye': '1'}</t>
+    <t>{'quick sheath': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Sheath/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Quick Sheath': '1', 'Handicraft': '1'}</t>
+    <t>{'quick sheath': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Sheath/Physique 4</t>
   </si>
   <si>
-    <t>{'Quick Sheath': '1', 'Constitution': '1'}</t>
+    <t>{'quick sheath': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Sheath/Release 4</t>
   </si>
   <si>
-    <t>{'Quick Sheath': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'quick sheath': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Shield 2</t>
   </si>
   <si>
-    <t>{'Guard Up': '1'}</t>
+    <t>{'guard up': '1'}</t>
   </si>
   <si>
     <t>Sleep 1</t>
   </si>
   <si>
-    <t>{'Sleep Attack': '1'}</t>
+    <t>{'sleep attack': '1'}</t>
   </si>
   <si>
     <t>Sleep 4</t>
   </si>
   <si>
-    <t>{'Sleep Attack': '2'}</t>
+    <t>{'sleep attack': '2'}</t>
   </si>
   <si>
     <t>Sleepcoat 3</t>
   </si>
   <si>
-    <t>{'Sleep Functionality': '1'}</t>
+    <t>{'sleep functionality': '1'}</t>
   </si>
   <si>
     <t>Slider 2</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': '1'}</t>
+    <t>{'affinity sliding': '1'}</t>
   </si>
   <si>
     <t>Slider/Attack 4</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': '1', 'Attack Boost': '1'}</t>
+    <t>{'affinity sliding': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Slider/Evasion 4</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': '1', 'Evade Window': '1'}</t>
+    <t>{'affinity sliding': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Slider/Expert 4</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': '1', 'Critical Eye': '1'}</t>
+    <t>{'affinity sliding': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Slider/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': '1', 'Handicraft': '1'}</t>
+    <t>{'affinity sliding': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Slider/Physique 4</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': '1', 'Constitution': '1'}</t>
+    <t>{'affinity sliding': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Slider/Release 4</t>
   </si>
   <si>
-    <t>{'Affinity Sliding': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'affinity sliding': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Sonorous 1</t>
   </si>
   <si>
-    <t>{'Horn Maestro': '1'}</t>
+    <t>{'horn maestro': '1'}</t>
   </si>
   <si>
     <t>Sonorous 4</t>
   </si>
   <si>
-    <t>{'Horn Maestro': '2'}</t>
+    <t>{'horn maestro': '2'}</t>
   </si>
   <si>
     <t>Specimen 1</t>
   </si>
   <si>
-    <t>{'Entomologist': '1'}</t>
+    <t>{'entomologist': '1'}</t>
   </si>
   <si>
     <t>Specimen 4</t>
   </si>
   <si>
-    <t>{'Entomologist': '2'}</t>
+    <t>{'entomologist': '2'}</t>
   </si>
   <si>
     <t>Spread 3</t>
   </si>
   <si>
-    <t>{'Spread/Power Shots': '1'}</t>
+    <t>{'spread/power shots': '1'}</t>
   </si>
   <si>
     <t>Sprinter 2</t>
   </si>
   <si>
-    <t>{'Marathon Runner': '1'}</t>
+    <t>{'marathon runner': '1'}</t>
   </si>
   <si>
     <t>Sprinter/Attack 4</t>
   </si>
   <si>
-    <t>{'Marathon Runner': '1', 'Attack Boost': '1'}</t>
+    <t>{'marathon runner': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Sprinter/Evasion 4</t>
   </si>
   <si>
-    <t>{'Marathon Runner': '1', 'Evade Window': '1'}</t>
+    <t>{'marathon runner': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Sprinter/Expert 4</t>
   </si>
   <si>
-    <t>{'Marathon Runner': '1', 'Critical Eye': '1'}</t>
+    <t>{'marathon runner': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Sprinter/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Marathon Runner': '1', 'Handicraft': '1'}</t>
+    <t>{'marathon runner': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Sprinter/Physique 4</t>
   </si>
   <si>
-    <t>{'Marathon Runner': '1', 'Constitution': '1'}</t>
+    <t>{'marathon runner': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Sprinter/Release 4</t>
   </si>
   <si>
-    <t>{'Marathon Runner': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'marathon runner': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Steadfast 1</t>
   </si>
   <si>
-    <t>{'Stun Resistance': '1'}</t>
+    <t>{'stun resistance': '1'}</t>
   </si>
   <si>
     <t>Steadfast 4</t>
   </si>
   <si>
-    <t>{'Stun Resistance': '2'}</t>
+    <t>{'stun resistance': '2'}</t>
   </si>
   <si>
     <t xml:space="preserve">Stealth/Evasion  </t>
   </si>
   <si>
-    <t>{'Stealth': '1', 'Evade Window': '1'}</t>
+    <t>{'stealth': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Stonethrower 1</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': '1'}</t>
+    <t>{'slinger capacity': '1'}</t>
   </si>
   <si>
     <t>Stonethrower/Attack 4</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': '1', 'Attack Boost': '1'}</t>
+    <t>{'slinger capacity': '1', 'attack boost': '1'}</t>
   </si>
   <si>
     <t>Stonethrower/Evasion 4</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': '1', 'Evade Window': '1'}</t>
+    <t>{'slinger capacity': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Stonethrower/Expert 4</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': '1', 'Critical Eye': '1'}</t>
+    <t>{'slinger capacity': '1', 'critical eye': '1'}</t>
   </si>
   <si>
     <t>Stonethrower/Handicraft 4</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': '1', 'Handicraft': '1'}</t>
+    <t>{'slinger capacity': '1', 'handicraft': '1'}</t>
   </si>
   <si>
     <t>Stonethrower/Physique 4</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': '1', 'Constitution': '1'}</t>
+    <t>{'slinger capacity': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Stonethrower/Release 4</t>
   </si>
   <si>
-    <t>{'Slinger Capacity': '1', 'Free Elem/Ammo up': '1'}</t>
+    <t>{'slinger capacity': '1', 'free elem/ammo up': '1'}</t>
   </si>
   <si>
     <t>Stream 1</t>
   </si>
   <si>
-    <t>{'Water Attack': '1'}</t>
+    <t>{'water attack': '1'}</t>
   </si>
   <si>
     <t>Stream 4</t>
   </si>
   <si>
-    <t>{'Water Attack': '2'}</t>
+    <t>{'water attack': '2'}</t>
   </si>
   <si>
     <t>Survival 1</t>
   </si>
   <si>
-    <t>{'Survival Expert': '1'}</t>
+    <t>{'survival expert': '1'}</t>
   </si>
   <si>
     <t>Survival 4</t>
   </si>
   <si>
-    <t>{'Survival Expert': '2'}</t>
+    <t>{'survival expert': '2'}</t>
   </si>
   <si>
     <t>Suture 1</t>
   </si>
   <si>
-    <t>{'Bleeding Resistance': '1'}</t>
+    <t>{'bleeding resistance': '1'}</t>
   </si>
   <si>
     <t>Suture 4</t>
   </si>
   <si>
-    <t>{'Bleeding Resistance': '2'}</t>
+    <t>{'bleeding resistance': '2'}</t>
   </si>
   <si>
     <t>Tenderizer 2</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': '1'}</t>
+    <t>{'weakness exploit': '1'}</t>
   </si>
   <si>
     <t>Tenderizer 4</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': '2'}</t>
+    <t>{'weakness exploit': '2'}</t>
   </si>
   <si>
     <t>Tenderizer /Evasion 4</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': '1', 'Evade Window': '1'}</t>
+    <t>{'weakness exploit': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Tenderizer /Maintenance 4</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': '1', 'Tool Specialist': '1'}</t>
+    <t>{'weakness exploit': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Tenderizer /Medicine 4</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': '1', 'Recover up': '1'}</t>
+    <t>{'weakness exploit': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Tenderizer /Physique 4</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': '1', 'Constitution': '1'}</t>
+    <t>{'weakness exploit': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Tenderizer /Protection 4</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': '1', 'Divine Blessing': '1'}</t>
+    <t>{'weakness exploit': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Tenderizer /Vitality 4</t>
   </si>
   <si>
-    <t>{'Weakness Exploit': '1', 'Health Boost': '1'}</t>
+    <t>{'weakness exploit': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Throttle 2</t>
   </si>
   <si>
-    <t>{'Latent Power': '1'}</t>
+    <t>{'latent power': '1'}</t>
   </si>
   <si>
     <t>Throttle 4</t>
   </si>
   <si>
-    <t>{'Latent Power': '2'}</t>
+    <t>{'latent power': '2'}</t>
   </si>
   <si>
     <t>Throttle/Evasion 4</t>
   </si>
   <si>
-    <t>{'Latent Power': '1', 'Evade Window': '1'}</t>
+    <t>{'latent power': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Throttle/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Latent Power': '1', 'Tool Specialist': '1'}</t>
+    <t>{'latent power': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Throttle/Medicine 4</t>
   </si>
   <si>
-    <t>{'Latent Power': '1', 'Recover up': '1'}</t>
+    <t>{'latent power': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Throttle/Physique 4</t>
   </si>
   <si>
-    <t>{'Latent Power': '1', 'Constitution': '1'}</t>
+    <t>{'latent power': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Throttle/Protection 4</t>
   </si>
   <si>
-    <t>{'Latent Power': '1', 'Divine Blessing': '1'}</t>
-  </si>
-  <si>
-    <t>{'Latent Power': '1', 'Health Boost': '1'}</t>
+    <t>{'latent power': '1', 'divine blessing': '1'}</t>
+  </si>
+  <si>
+    <t>{'latent power': '1', 'health boost': '1'}</t>
   </si>
   <si>
     <t>Thunder Res 1</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': '1'}</t>
+    <t>{'thunder resistance': '1'}</t>
   </si>
   <si>
     <t>Thunder Res 4</t>
   </si>
   <si>
-    <t>{'Thunder Resistance': '2'}</t>
+    <t>{'thunder resistance': '2'}</t>
   </si>
   <si>
     <t>Tip Toe 1</t>
   </si>
   <si>
-    <t>{'Stealth': '1'}</t>
+    <t>{'stealth': '1'}</t>
   </si>
   <si>
     <t>Tip Toe 4</t>
   </si>
   <si>
-    <t>{'Stealth': '2'}</t>
+    <t>{'stealth': '2'}</t>
   </si>
   <si>
     <t>Trueshot 1</t>
   </si>
   <si>
-    <t>{'Special Ammo Boost': '1'}</t>
+    <t>{'special ammo boost': '1'}</t>
   </si>
   <si>
     <t>Trueshot 4</t>
   </si>
   <si>
-    <t>{'Special Ammo Boost': '2'}</t>
+    <t>{'special ammo boost': '2'}</t>
   </si>
   <si>
     <t>Venom 1</t>
   </si>
   <si>
-    <t>{'Poison Attack': '1'}</t>
+    <t>{'poison attack': '1'}</t>
   </si>
   <si>
     <t>Venom 4</t>
   </si>
   <si>
-    <t>{'Poison Attack': '2'}</t>
+    <t>{'poison attack': '2'}</t>
   </si>
   <si>
     <t>Vitality 1</t>
   </si>
   <si>
-    <t>{'Health Boost': '1'}</t>
+    <t>{'health boost': '1'}</t>
   </si>
   <si>
     <t>Warming 2</t>
   </si>
   <si>
-    <t>{'Coldproof': '1'}</t>
+    <t>{'coldproof': '1'}</t>
   </si>
   <si>
     <t>Water Res 1</t>
   </si>
   <si>
-    <t>{'Water Resistance': '1'}</t>
+    <t>{'water resistance': '1'}</t>
   </si>
   <si>
     <t>Water Res 4</t>
   </si>
   <si>
-    <t>{'Water Resistance': '2'}</t>
+    <t>{'water resistance': '2'}</t>
   </si>
   <si>
     <t>Wind Resist 2</t>
   </si>
   <si>
-    <t>{'Windproof': '1'}</t>
+    <t>{'windproof': '1'}</t>
   </si>
   <si>
     <t>Wind Resist 4</t>
   </si>
   <si>
-    <t>{'Windproof': '2'}</t>
+    <t>{'windproof': '2'}</t>
   </si>
   <si>
     <t>Wind resist/Evasion 4</t>
   </si>
   <si>
-    <t>{'Windproof': '1', 'Evade Window': '1'}</t>
+    <t>{'windproof': '1', 'evade window': '1'}</t>
   </si>
   <si>
     <t>Wind Resist/Maintenance 4</t>
   </si>
   <si>
-    <t>{'Windproof': '1', 'Tool Specialist': '1'}</t>
+    <t>{'windproof': '1', 'tool specialist': '1'}</t>
   </si>
   <si>
     <t>Wind Resist/Medicine 4</t>
   </si>
   <si>
-    <t>{'Windproof': '1', 'Recover up': '1'}</t>
+    <t>{'windproof': '1', 'recover up': '1'}</t>
   </si>
   <si>
     <t>Wind Resist/Physique 4</t>
   </si>
   <si>
-    <t>{'Windproof': '1', 'Constitution': '1'}</t>
+    <t>{'windproof': '1', 'constitution': '1'}</t>
   </si>
   <si>
     <t>Wind Resist/Protection 4</t>
   </si>
   <si>
-    <t>{'Windproof': '1', 'Divine Blessing': '1'}</t>
+    <t>{'windproof': '1', 'divine blessing': '1'}</t>
   </si>
   <si>
     <t>Wind Resist/Vitality 4</t>
   </si>
   <si>
-    <t>{'Windproof': '1', 'Health Boost': '1'}</t>
+    <t>{'windproof': '1', 'health boost': '1'}</t>
   </si>
 </sst>
 </file>
